--- a/03.指标管理/权益/指标定义表-权益类V1.2.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="557">
   <si>
     <t>主题域</t>
   </si>
@@ -430,9 +430,6 @@
     <t>资金风险监控</t>
   </si>
   <si>
-    <t>盈利金额</t>
-  </si>
-  <si>
     <t>亏损金额</t>
   </si>
   <si>
@@ -1564,10 +1561,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>亏损金额=本金-回款金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>市场盈亏排名</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1716,10 +1709,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>是登陆，还是交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>各个产品周期内的产品数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1728,10 +1717,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>历史累计，盈利投资人的排名，盈利金额=回款金额-本金</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>未结清产品平均利率</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1793,6 +1778,18 @@
   </si>
   <si>
     <t>count（舆情信息）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>近12个月，各个交易市场的亏损金额，亏损金额=本金-回款金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>近12个月，各个交易市场的利息，利息=回款金额-本金</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2137,7 +2134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2389,7 +2386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2425,6 +2421,30 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2434,23 +2454,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2458,6 +2487,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,27 +2505,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,18 +2514,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2763,15 +2768,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3189,8 +3185,8 @@
   <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3244,13 +3240,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="159" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12"/>
@@ -3265,9 +3261,9 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
@@ -3282,9 +3278,9 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -3294,16 +3290,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -3313,16 +3309,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -3332,16 +3328,16 @@
         <v>17</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -3356,9 +3352,9 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="157" t="s">
+      <c r="A8" s="160"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="159" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
@@ -3368,16 +3364,16 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -3385,33 +3381,33 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="16" t="s">
@@ -3421,14 +3417,14 @@
       <c r="H11" s="13"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="105" t="s">
-        <v>534</v>
+      <c r="K11" s="104" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="158"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="28" t="s">
@@ -3441,26 +3437,26 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="101" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="110" t="s">
-        <v>535</v>
+      <c r="H13" s="109" t="s">
+        <v>533</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="158"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="28" t="s">
@@ -3473,9 +3469,9 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28" t="s">
@@ -3488,13 +3484,13 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="158"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="102" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
@@ -3503,9 +3499,9 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="158"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="28" t="s">
@@ -3518,9 +3514,9 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="158"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="157" t="s">
+      <c r="A18" s="160"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="159" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="12"/>
@@ -3535,9 +3531,9 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
@@ -3550,9 +3546,9 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="158"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
@@ -3565,28 +3561,28 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="158"/>
-      <c r="B21" s="158"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="158"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="141" t="s">
+      <c r="A22" s="160"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="137" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="12"/>
@@ -3601,9 +3597,9 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="158"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="143"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
@@ -3616,9 +3612,9 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="158"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="143"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
@@ -3631,9 +3627,9 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="143"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
@@ -3646,9 +3642,9 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="158"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="143"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
@@ -3661,9 +3657,9 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="158"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="143"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
@@ -3676,9 +3672,9 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="142"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="139"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
@@ -3691,13 +3687,13 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="107" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="12"/>
@@ -3707,35 +3703,35 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="143"/>
-      <c r="B30" s="158"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="143"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="108" t="s">
+      <c r="A31" s="138"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="107" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="12"/>
@@ -3750,28 +3746,28 @@
       <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="143"/>
-      <c r="B32" s="158"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="143"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="108" t="s">
+      <c r="A33" s="138"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="107" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="12"/>
@@ -3786,30 +3782,30 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="143"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="108" t="s">
+      <c r="A34" s="138"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="107" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="101" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="110" t="s">
-        <v>536</v>
+      <c r="H34" s="109" t="s">
+        <v>534</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="143"/>
-      <c r="B35" s="141" t="s">
+      <c r="A35" s="138"/>
+      <c r="B35" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="141" t="s">
+      <c r="C35" s="137" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="12"/>
@@ -3824,9 +3820,9 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="143"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
@@ -3841,9 +3837,9 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="143"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="142"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="139"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
@@ -3858,9 +3854,9 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="143"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="141" t="s">
+      <c r="A38" s="138"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="137" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="12"/>
@@ -3875,9 +3871,9 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="143"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="143"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
@@ -3890,9 +3886,9 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="143"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
@@ -3905,9 +3901,9 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="143"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
@@ -3920,9 +3916,9 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="143"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
@@ -3935,9 +3931,9 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="143"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
@@ -3950,9 +3946,9 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="143"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
@@ -3965,11 +3961,11 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="143"/>
-      <c r="B45" s="141" t="s">
+      <c r="A45" s="138"/>
+      <c r="B45" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="148" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="12"/>
@@ -3982,9 +3978,9 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="143"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="145"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="149"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="20" t="s">
@@ -4001,9 +3997,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="143"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="145"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="149"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="20" t="s">
@@ -4020,9 +4016,9 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="143"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="146"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="20" t="s">
@@ -4039,9 +4035,9 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="143"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="144" t="s">
+      <c r="A49" s="138"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="148" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="12"/>
@@ -4058,9 +4054,9 @@
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="143"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="145"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="149"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="20" t="s">
@@ -4075,9 +4071,9 @@
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="143"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="145"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="149"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="20" t="s">
@@ -4092,9 +4088,9 @@
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="143"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="146"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="150"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="20" t="s">
@@ -4111,8 +4107,8 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="142"/>
-      <c r="B53" s="142"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="20" t="s">
         <v>75</v>
       </c>
@@ -4132,13 +4128,13 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="144" t="s">
+      <c r="A54" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="148" t="s">
         <v>81</v>
       </c>
       <c r="D54" s="12"/>
@@ -4155,9 +4151,9 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
+      <c r="A55" s="149"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="149"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
@@ -4170,9 +4166,9 @@
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="145"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
@@ -4185,9 +4181,9 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="145"/>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="149"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
@@ -4200,9 +4196,9 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="145"/>
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="150"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
@@ -4215,10 +4211,10 @@
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="145"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="154" t="s">
-        <v>476</v>
+      <c r="A59" s="149"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="156" t="s">
+        <v>475</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -4232,79 +4228,77 @@
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="145"/>
-      <c r="B60" s="145"/>
-      <c r="C60" s="155"/>
+      <c r="A60" s="149"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="157"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="145"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="155"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="157"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="145"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="155"/>
+      <c r="A62" s="149"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="145"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="156"/>
+      <c r="A63" s="149"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="158"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G63" s="12"/>
-      <c r="H63" s="103" t="s">
-        <v>537</v>
+      <c r="H63" s="106" t="s">
+        <v>535</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="105" t="s">
-        <v>538</v>
-      </c>
+      <c r="K63" s="104"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="145"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="141" t="s">
+      <c r="A64" s="149"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="137" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="12"/>
@@ -4321,24 +4315,24 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="145"/>
-      <c r="B65" s="145"/>
-      <c r="C65" s="142"/>
+      <c r="A65" s="149"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="139"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G65" s="12"/>
-      <c r="H65" s="111"/>
+      <c r="H65" s="110"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="145"/>
-      <c r="B66" s="145"/>
-      <c r="C66" s="144" t="s">
+      <c r="A66" s="149"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="148" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="12"/>
@@ -4353,9 +4347,9 @@
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="145"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="146"/>
+      <c r="A67" s="149"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="150"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="28" t="s">
@@ -4370,9 +4364,9 @@
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="145"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="144" t="s">
+      <c r="A68" s="149"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="148" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="12"/>
@@ -4387,9 +4381,9 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="145"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="146"/>
+      <c r="A69" s="149"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="150"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
@@ -4402,9 +4396,9 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="145"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="144" t="s">
+      <c r="A70" s="149"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="148" t="s">
         <v>98</v>
       </c>
       <c r="D70" s="12"/>
@@ -4419,9 +4413,9 @@
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="145"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="146"/>
+      <c r="A71" s="149"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="150"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
@@ -4434,9 +4428,9 @@
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="145"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="141" t="s">
+      <c r="A72" s="149"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="137" t="s">
         <v>100</v>
       </c>
       <c r="D72" s="12"/>
@@ -4451,9 +4445,9 @@
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="145"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="142"/>
+      <c r="A73" s="149"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="139"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
@@ -4466,8 +4460,8 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="145"/>
-      <c r="B74" s="145"/>
+      <c r="A74" s="149"/>
+      <c r="B74" s="149"/>
       <c r="C74" s="12" t="s">
         <v>70</v>
       </c>
@@ -4483,15 +4477,15 @@
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="145"/>
-      <c r="B75" s="145"/>
-      <c r="C75" s="151" t="s">
-        <v>485</v>
+      <c r="A75" s="149"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="153" t="s">
+        <v>484</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
@@ -4500,26 +4494,26 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="145"/>
-      <c r="B76" s="145"/>
-      <c r="C76" s="142"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="139"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="145"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="141" t="s">
+      <c r="A77" s="149"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="137" t="s">
         <v>103</v>
       </c>
       <c r="D77" s="12"/>
@@ -4534,9 +4528,9 @@
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="145"/>
-      <c r="B78" s="145"/>
-      <c r="C78" s="142"/>
+      <c r="A78" s="149"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="139"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12" t="s">
@@ -4549,10 +4543,10 @@
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="145"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="152" t="s">
-        <v>484</v>
+      <c r="A79" s="149"/>
+      <c r="B79" s="149"/>
+      <c r="C79" s="154" t="s">
+        <v>483</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -4566,9 +4560,9 @@
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="145"/>
-      <c r="B80" s="146"/>
-      <c r="C80" s="153"/>
+      <c r="A80" s="149"/>
+      <c r="B80" s="150"/>
+      <c r="C80" s="155"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
@@ -4581,11 +4575,11 @@
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="145"/>
-      <c r="B81" s="144" t="s">
+      <c r="A81" s="149"/>
+      <c r="B81" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="141" t="s">
+      <c r="C81" s="137" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="12"/>
@@ -4600,43 +4594,43 @@
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="145"/>
-      <c r="B82" s="145"/>
-      <c r="C82" s="143"/>
+      <c r="A82" s="149"/>
+      <c r="B82" s="149"/>
+      <c r="C82" s="138"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
         <v>109</v>
       </c>
       <c r="G82" s="12"/>
-      <c r="H82" s="112" t="s">
-        <v>527</v>
+      <c r="H82" s="111" t="s">
+        <v>525</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="15"/>
     </row>
     <row r="83" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="145"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="142"/>
+      <c r="A83" s="149"/>
+      <c r="B83" s="149"/>
+      <c r="C83" s="139"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="113" t="s">
-        <v>539</v>
+      <c r="F83" s="112" t="s">
+        <v>536</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="15"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="145"/>
-      <c r="B84" s="145"/>
-      <c r="C84" s="144" t="s">
+      <c r="A84" s="149"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="148" t="s">
         <v>110</v>
       </c>
       <c r="D84" s="12"/>
@@ -4651,9 +4645,9 @@
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="145"/>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
+      <c r="A85" s="149"/>
+      <c r="B85" s="149"/>
+      <c r="C85" s="149"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12" t="s">
@@ -4666,9 +4660,9 @@
       <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="145"/>
-      <c r="B86" s="145"/>
-      <c r="C86" s="145"/>
+      <c r="A86" s="149"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="149"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="25" t="s">
@@ -4681,9 +4675,9 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="145"/>
-      <c r="B87" s="145"/>
-      <c r="C87" s="146"/>
+      <c r="A87" s="149"/>
+      <c r="B87" s="149"/>
+      <c r="C87" s="150"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
@@ -4691,18 +4685,18 @@
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="I87" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>491</v>
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="145"/>
-      <c r="B88" s="145"/>
-      <c r="C88" s="144" t="s">
+      <c r="A88" s="149"/>
+      <c r="B88" s="149"/>
+      <c r="C88" s="148" t="s">
         <v>110</v>
       </c>
       <c r="D88" s="12"/>
@@ -4717,9 +4711,9 @@
       <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="145"/>
-      <c r="B89" s="145"/>
-      <c r="C89" s="145"/>
+      <c r="A89" s="149"/>
+      <c r="B89" s="149"/>
+      <c r="C89" s="149"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12" t="s">
@@ -4732,9 +4726,9 @@
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="145"/>
-      <c r="B90" s="145"/>
-      <c r="C90" s="145"/>
+      <c r="A90" s="149"/>
+      <c r="B90" s="149"/>
+      <c r="C90" s="149"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="25" t="s">
@@ -4747,9 +4741,9 @@
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="145"/>
-      <c r="B91" s="145"/>
-      <c r="C91" s="146"/>
+      <c r="A91" s="149"/>
+      <c r="B91" s="149"/>
+      <c r="C91" s="150"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12" t="s">
@@ -4757,17 +4751,17 @@
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="145"/>
-      <c r="B92" s="145"/>
-      <c r="C92" s="148" t="s">
-        <v>494</v>
+      <c r="A92" s="149"/>
+      <c r="B92" s="149"/>
+      <c r="C92" s="152" t="s">
+        <v>493</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -4776,18 +4770,18 @@
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="145"/>
-      <c r="B93" s="145"/>
-      <c r="C93" s="149"/>
+      <c r="A93" s="149"/>
+      <c r="B93" s="149"/>
+      <c r="C93" s="132"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12" t="s">
@@ -4800,9 +4794,9 @@
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="145"/>
-      <c r="B94" s="145"/>
-      <c r="C94" s="149"/>
+      <c r="A94" s="149"/>
+      <c r="B94" s="149"/>
+      <c r="C94" s="132"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
@@ -4815,26 +4809,26 @@
       <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="145"/>
-      <c r="B95" s="145"/>
-      <c r="C95" s="149"/>
+      <c r="A95" s="149"/>
+      <c r="B95" s="149"/>
+      <c r="C95" s="132"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12" t="s">
         <v>118</v>
       </c>
       <c r="G95" s="12"/>
-      <c r="H95" s="110" t="s">
-        <v>540</v>
+      <c r="H95" s="109" t="s">
+        <v>537</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="145"/>
-      <c r="B96" s="145"/>
-      <c r="C96" s="149"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="149"/>
+      <c r="C96" s="132"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
@@ -4847,9 +4841,9 @@
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="145"/>
-      <c r="B97" s="145"/>
-      <c r="C97" s="149"/>
+      <c r="A97" s="149"/>
+      <c r="B97" s="149"/>
+      <c r="C97" s="132"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
@@ -4862,9 +4856,9 @@
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="145"/>
-      <c r="B98" s="145"/>
-      <c r="C98" s="149"/>
+      <c r="A98" s="149"/>
+      <c r="B98" s="149"/>
+      <c r="C98" s="132"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
@@ -4877,9 +4871,9 @@
       <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="145"/>
-      <c r="B99" s="145"/>
-      <c r="C99" s="150"/>
+      <c r="A99" s="149"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="133"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
@@ -4892,8 +4886,8 @@
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="145"/>
-      <c r="B100" s="145"/>
+      <c r="A100" s="149"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="12" t="s">
         <v>122</v>
       </c>
@@ -4909,9 +4903,9 @@
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="145"/>
-      <c r="B101" s="145"/>
-      <c r="C101" s="144" t="s">
+      <c r="A101" s="149"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="148" t="s">
         <v>124</v>
       </c>
       <c r="D101" s="12"/>
@@ -4921,16 +4915,16 @@
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="145"/>
-      <c r="B102" s="145"/>
-      <c r="C102" s="145"/>
+      <c r="A102" s="149"/>
+      <c r="B102" s="149"/>
+      <c r="C102" s="149"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="28" t="s">
@@ -4938,16 +4932,16 @@
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
-      <c r="K102" s="104"/>
+      <c r="K102" s="103"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="145"/>
-      <c r="B103" s="145"/>
-      <c r="C103" s="146"/>
+      <c r="A103" s="149"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="150"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
@@ -4960,9 +4954,9 @@
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="145"/>
-      <c r="B104" s="145"/>
-      <c r="C104" s="144" t="s">
+      <c r="A104" s="149"/>
+      <c r="B104" s="149"/>
+      <c r="C104" s="148" t="s">
         <v>128</v>
       </c>
       <c r="D104" s="12"/>
@@ -4977,26 +4971,26 @@
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="145"/>
-      <c r="B105" s="145"/>
-      <c r="C105" s="145"/>
+      <c r="A105" s="149"/>
+      <c r="B105" s="149"/>
+      <c r="C105" s="149"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12" t="s">
         <v>130</v>
       </c>
       <c r="G105" s="12"/>
-      <c r="H105" s="107" t="s">
-        <v>528</v>
+      <c r="H105" s="106" t="s">
+        <v>526</v>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="145"/>
-      <c r="B106" s="145"/>
-      <c r="C106" s="146"/>
+      <c r="A106" s="149"/>
+      <c r="B106" s="149"/>
+      <c r="C106" s="150"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12" t="s">
@@ -5009,9 +5003,9 @@
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="145"/>
-      <c r="B107" s="145"/>
-      <c r="C107" s="144" t="s">
+      <c r="A107" s="149"/>
+      <c r="B107" s="149"/>
+      <c r="C107" s="148" t="s">
         <v>131</v>
       </c>
       <c r="D107" s="12"/>
@@ -5026,9 +5020,9 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="145"/>
-      <c r="B108" s="145"/>
-      <c r="C108" s="145"/>
+      <c r="A108" s="149"/>
+      <c r="B108" s="149"/>
+      <c r="C108" s="149"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12" t="s">
@@ -5036,16 +5030,16 @@
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="145"/>
-      <c r="B109" s="145"/>
-      <c r="C109" s="146"/>
+      <c r="A109" s="149"/>
+      <c r="B109" s="149"/>
+      <c r="C109" s="150"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12" t="s">
@@ -5058,8 +5052,8 @@
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="145"/>
-      <c r="B110" s="146"/>
+      <c r="A110" s="149"/>
+      <c r="B110" s="150"/>
       <c r="C110" s="26" t="s">
         <v>133</v>
       </c>
@@ -5070,244 +5064,244 @@
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="145"/>
-      <c r="B111" s="144" t="s">
+      <c r="A111" s="149"/>
+      <c r="B111" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="C111" s="147" t="s">
-        <v>501</v>
+      <c r="C111" s="151" t="s">
+        <v>499</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="28" t="s">
-        <v>135</v>
+      <c r="F111" s="105" t="s">
+        <v>555</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="27" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
-      <c r="K111" s="105" t="s">
-        <v>529</v>
+      <c r="K111" s="104" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="145"/>
-      <c r="B112" s="145"/>
-      <c r="C112" s="146"/>
+      <c r="A112" s="149"/>
+      <c r="B112" s="149"/>
+      <c r="C112" s="150"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G112" s="12"/>
-      <c r="H112" s="14" t="s">
-        <v>500</v>
+      <c r="H112" s="109" t="s">
+        <v>554</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="145"/>
-      <c r="B113" s="145"/>
+      <c r="A113" s="149"/>
+      <c r="B113" s="149"/>
       <c r="C113" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="145"/>
-      <c r="B114" s="145"/>
+      <c r="A114" s="149"/>
+      <c r="B114" s="149"/>
       <c r="C114" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="145"/>
-      <c r="B115" s="145"/>
+      <c r="A115" s="149"/>
+      <c r="B115" s="149"/>
       <c r="C115" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="12"/>
-      <c r="K115" s="105" t="s">
-        <v>543</v>
+      <c r="K115" s="104" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="145"/>
-      <c r="B116" s="145"/>
-      <c r="C116" s="105" t="s">
-        <v>542</v>
+      <c r="A116" s="149"/>
+      <c r="B116" s="149"/>
+      <c r="C116" s="104" t="s">
+        <v>538</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="12"/>
       <c r="K116" s="15"/>
     </row>
     <row r="117" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="145"/>
-      <c r="B117" s="145"/>
-      <c r="C117" s="144" t="s">
-        <v>144</v>
+      <c r="A117" s="149"/>
+      <c r="B117" s="149"/>
+      <c r="C117" s="148" t="s">
+        <v>143</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="106" t="s">
-        <v>532</v>
+      <c r="F117" s="105" t="s">
+        <v>530</v>
       </c>
       <c r="G117" s="12"/>
-      <c r="H117" s="114" t="s">
-        <v>544</v>
+      <c r="H117" s="113" t="s">
+        <v>540</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
-      <c r="K117" s="116" t="s">
-        <v>545</v>
+      <c r="K117" s="115" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="145"/>
-      <c r="B118" s="145"/>
-      <c r="C118" s="145"/>
+      <c r="A118" s="149"/>
+      <c r="B118" s="149"/>
+      <c r="C118" s="149"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
-      <c r="F118" s="115" t="s">
-        <v>504</v>
+      <c r="F118" s="114" t="s">
+        <v>502</v>
       </c>
       <c r="G118" s="28"/>
-      <c r="H118" s="107" t="s">
-        <v>547</v>
+      <c r="H118" s="106" t="s">
+        <v>543</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="28"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="145"/>
-      <c r="B119" s="145"/>
-      <c r="C119" s="145"/>
+      <c r="A119" s="149"/>
+      <c r="B119" s="149"/>
+      <c r="C119" s="149"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
-      <c r="F119" s="115" t="s">
-        <v>505</v>
+      <c r="F119" s="114" t="s">
+        <v>503</v>
       </c>
       <c r="G119" s="28"/>
-      <c r="H119" s="111"/>
+      <c r="H119" s="110"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
-      <c r="K119" s="106" t="s">
-        <v>530</v>
+      <c r="K119" s="105" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="145"/>
-      <c r="B120" s="145"/>
-      <c r="C120" s="145"/>
+      <c r="A120" s="149"/>
+      <c r="B120" s="149"/>
+      <c r="C120" s="149"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="115" t="s">
-        <v>506</v>
+      <c r="F120" s="114" t="s">
+        <v>504</v>
       </c>
       <c r="G120" s="28"/>
-      <c r="H120" s="111"/>
+      <c r="H120" s="110"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
-      <c r="K120" s="106" t="s">
-        <v>531</v>
+      <c r="K120" s="105" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="145"/>
-      <c r="B121" s="145"/>
-      <c r="C121" s="145"/>
+      <c r="A121" s="149"/>
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="106" t="s">
-        <v>556</v>
+      <c r="F121" s="105" t="s">
+        <v>552</v>
       </c>
       <c r="G121" s="28"/>
-      <c r="H121" s="111"/>
+      <c r="H121" s="110"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
-      <c r="K121" s="106"/>
+      <c r="K121" s="105"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="145"/>
-      <c r="B122" s="145"/>
-      <c r="C122" s="146"/>
+      <c r="A122" s="149"/>
+      <c r="B122" s="149"/>
+      <c r="C122" s="150"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="106" t="s">
-        <v>533</v>
+      <c r="F122" s="105" t="s">
+        <v>531</v>
       </c>
       <c r="G122" s="12"/>
-      <c r="H122" s="110" t="s">
-        <v>546</v>
+      <c r="H122" s="109" t="s">
+        <v>542</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="145"/>
-      <c r="B123" s="145"/>
+      <c r="A123" s="149"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="13"/>
@@ -5316,83 +5310,83 @@
       <c r="K123" s="12"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="145"/>
-      <c r="B124" s="145"/>
-      <c r="C124" s="234" t="s">
-        <v>553</v>
+      <c r="A124" s="149"/>
+      <c r="B124" s="149"/>
+      <c r="C124" s="131" t="s">
+        <v>549</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="117" t="s">
+      <c r="F124" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="G124" s="117"/>
-      <c r="H124" s="118"/>
-      <c r="I124" s="117"/>
-      <c r="J124" s="117"/>
-      <c r="K124" s="119"/>
+      <c r="G124" s="116"/>
+      <c r="H124" s="117"/>
+      <c r="I124" s="116"/>
+      <c r="J124" s="116"/>
+      <c r="K124" s="118"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="145"/>
-      <c r="B125" s="145"/>
-      <c r="C125" s="149"/>
+      <c r="A125" s="149"/>
+      <c r="B125" s="149"/>
+      <c r="C125" s="132"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G125" s="12"/>
-      <c r="H125" s="107"/>
+      <c r="H125" s="106"/>
       <c r="I125" s="12"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
     </row>
     <row r="126" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A126" s="145"/>
-      <c r="B126" s="145"/>
-      <c r="C126" s="150"/>
+      <c r="A126" s="149"/>
+      <c r="B126" s="149"/>
+      <c r="C126" s="133"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
-      <c r="F126" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G126" s="117"/>
-      <c r="H126" s="120" t="s">
-        <v>508</v>
-      </c>
-      <c r="I126" s="117"/>
-      <c r="J126" s="117"/>
-      <c r="K126" s="119" t="s">
-        <v>548</v>
+      <c r="F126" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="G126" s="116"/>
+      <c r="H126" s="119" t="s">
+        <v>506</v>
+      </c>
+      <c r="I126" s="116"/>
+      <c r="J126" s="116"/>
+      <c r="K126" s="118" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="145"/>
-      <c r="B127" s="145"/>
-      <c r="C127" s="234" t="s">
-        <v>554</v>
+      <c r="A127" s="149"/>
+      <c r="B127" s="149"/>
+      <c r="C127" s="131" t="s">
+        <v>550</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
-      <c r="F127" s="117" t="s">
+      <c r="F127" s="116" t="s">
         <v>87</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="13"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
-      <c r="K127" s="119" t="s">
-        <v>549</v>
+      <c r="K127" s="118" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="145"/>
-      <c r="B128" s="145"/>
-      <c r="C128" s="149"/>
+      <c r="A128" s="149"/>
+      <c r="B128" s="149"/>
+      <c r="C128" s="132"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="13"/>
@@ -5401,27 +5395,27 @@
       <c r="K128" s="12"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="145"/>
-      <c r="B129" s="145"/>
-      <c r="C129" s="150"/>
+      <c r="A129" s="149"/>
+      <c r="B129" s="149"/>
+      <c r="C129" s="133"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="105" t="s">
-        <v>550</v>
+      <c r="F129" s="104" t="s">
+        <v>546</v>
       </c>
       <c r="G129" s="12"/>
-      <c r="H129" s="111" t="s">
-        <v>148</v>
+      <c r="H129" s="110" t="s">
+        <v>147</v>
       </c>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="145"/>
-      <c r="B130" s="145"/>
-      <c r="C130" s="138" t="s">
-        <v>552</v>
+      <c r="A130" s="149"/>
+      <c r="B130" s="149"/>
+      <c r="C130" s="134" t="s">
+        <v>548</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -5432,18 +5426,18 @@
       <c r="H130" s="13"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
-      <c r="K130" s="119" t="s">
-        <v>549</v>
+      <c r="K130" s="118" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="145"/>
-      <c r="B131" s="145"/>
-      <c r="C131" s="139"/>
+      <c r="A131" s="149"/>
+      <c r="B131" s="149"/>
+      <c r="C131" s="135"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="13"/>
@@ -5452,72 +5446,72 @@
       <c r="K131" s="12"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="145"/>
-      <c r="B132" s="145"/>
-      <c r="C132" s="140"/>
+      <c r="A132" s="149"/>
+      <c r="B132" s="149"/>
+      <c r="C132" s="136"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G132" s="12"/>
-      <c r="H132" s="110" t="s">
-        <v>551</v>
+      <c r="H132" s="109" t="s">
+        <v>547</v>
       </c>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
     </row>
     <row r="133" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="145"/>
-      <c r="B133" s="143" t="s">
+      <c r="A133" s="149"/>
+      <c r="B133" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="108" t="s">
         <v>150</v>
-      </c>
-      <c r="C133" s="109" t="s">
-        <v>151</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
-      <c r="F133" s="235" t="s">
-        <v>152</v>
+      <c r="F133" s="120" t="s">
+        <v>151</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
-      <c r="I133" s="236" t="s">
-        <v>557</v>
+      <c r="I133" s="121" t="s">
+        <v>553</v>
       </c>
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="145"/>
-      <c r="B134" s="143"/>
+      <c r="A134" s="149"/>
+      <c r="B134" s="138"/>
       <c r="C134" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="145"/>
-      <c r="B135" s="143"/>
+      <c r="A135" s="149"/>
+      <c r="B135" s="138"/>
       <c r="C135" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="13"/>
@@ -5526,29 +5520,29 @@
       <c r="K135" s="12"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="145"/>
-      <c r="B136" s="143"/>
+      <c r="A136" s="149"/>
+      <c r="B136" s="138"/>
       <c r="C136" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="145"/>
-      <c r="B137" s="142"/>
+      <c r="A137" s="149"/>
+      <c r="B137" s="139"/>
       <c r="C137" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -5560,17 +5554,17 @@
       <c r="K137" s="12"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="145"/>
-      <c r="B138" s="144" t="s">
+      <c r="A138" s="149"/>
+      <c r="B138" s="148" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="137" t="s">
         <v>161</v>
-      </c>
-      <c r="C138" s="141" t="s">
-        <v>162</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
@@ -5579,13 +5573,13 @@
       <c r="K138" s="12"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="145"/>
-      <c r="B139" s="145"/>
-      <c r="C139" s="143"/>
+      <c r="A139" s="149"/>
+      <c r="B139" s="149"/>
+      <c r="C139" s="138"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="13"/>
@@ -5594,13 +5588,13 @@
       <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="145"/>
-      <c r="B140" s="145"/>
-      <c r="C140" s="142"/>
+      <c r="A140" s="149"/>
+      <c r="B140" s="149"/>
+      <c r="C140" s="139"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="13"/>
@@ -5609,15 +5603,15 @@
       <c r="K140" s="12"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="146"/>
-      <c r="B141" s="146"/>
+      <c r="A141" s="150"/>
+      <c r="B141" s="150"/>
       <c r="C141" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="13"/>
@@ -5626,17 +5620,17 @@
       <c r="K141" s="12"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="160" t="s">
+      <c r="A142" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="121" t="s">
+      <c r="C142" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="D142" s="128" t="s">
         <v>169</v>
-      </c>
-      <c r="C142" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="D142" s="121" t="s">
-        <v>170</v>
       </c>
       <c r="F142" s="20" t="s">
         <v>13</v>
@@ -5649,12 +5643,12 @@
       <c r="K142" s="19"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="161"/>
-      <c r="B143" s="122"/>
-      <c r="C143" s="131"/>
-      <c r="D143" s="123"/>
+      <c r="A143" s="163"/>
+      <c r="B143" s="129"/>
+      <c r="C143" s="141"/>
+      <c r="D143" s="130"/>
       <c r="F143" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H143" s="22" t="s">
         <v>71</v>
@@ -5664,14 +5658,14 @@
       <c r="K143" s="19"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="161"/>
-      <c r="B144" s="122"/>
-      <c r="C144" s="131"/>
+      <c r="A144" s="163"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="141"/>
       <c r="D144" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F144" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="F144" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="29"/>
@@ -5679,14 +5673,14 @@
       <c r="K144" s="19"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="161"/>
-      <c r="B145" s="122"/>
-      <c r="C145" s="131"/>
-      <c r="D145" s="121" t="s">
+      <c r="A145" s="163"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="141"/>
+      <c r="D145" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="F145" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="29"/>
@@ -5694,12 +5688,12 @@
       <c r="K145" s="19"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="161"/>
-      <c r="B146" s="122"/>
-      <c r="C146" s="131"/>
-      <c r="D146" s="122"/>
+      <c r="A146" s="163"/>
+      <c r="B146" s="129"/>
+      <c r="C146" s="141"/>
+      <c r="D146" s="129"/>
       <c r="F146" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="29"/>
@@ -5707,12 +5701,12 @@
       <c r="K146" s="19"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="161"/>
-      <c r="B147" s="122"/>
-      <c r="C147" s="131"/>
-      <c r="D147" s="123"/>
+      <c r="A147" s="163"/>
+      <c r="B147" s="129"/>
+      <c r="C147" s="141"/>
+      <c r="D147" s="130"/>
       <c r="F147" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="29"/>
@@ -5720,29 +5714,29 @@
       <c r="K147" s="19"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="161"/>
-      <c r="B148" s="122"/>
-      <c r="C148" s="131"/>
-      <c r="D148" s="121" t="s">
+      <c r="A148" s="163"/>
+      <c r="B148" s="129"/>
+      <c r="C148" s="141"/>
+      <c r="D148" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="F148" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F148" s="20" t="s">
+      <c r="H148" s="31" t="s">
         <v>179</v>
-      </c>
-      <c r="H148" s="31" t="s">
-        <v>180</v>
       </c>
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
       <c r="K148" s="19"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="161"/>
-      <c r="B149" s="122"/>
-      <c r="C149" s="131"/>
-      <c r="D149" s="123"/>
+      <c r="A149" s="163"/>
+      <c r="B149" s="129"/>
+      <c r="C149" s="141"/>
+      <c r="D149" s="130"/>
       <c r="F149" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="29"/>
@@ -5750,14 +5744,14 @@
       <c r="K149" s="32"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="161"/>
-      <c r="B150" s="122"/>
-      <c r="C150" s="131"/>
-      <c r="D150" s="121" t="s">
+      <c r="A150" s="163"/>
+      <c r="B150" s="129"/>
+      <c r="C150" s="141"/>
+      <c r="D150" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="F150" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="29"/>
@@ -5765,29 +5759,29 @@
       <c r="K150" s="19"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="161"/>
-      <c r="B151" s="122"/>
-      <c r="C151" s="131"/>
-      <c r="D151" s="123"/>
+      <c r="A151" s="163"/>
+      <c r="B151" s="129"/>
+      <c r="C151" s="141"/>
+      <c r="D151" s="130"/>
       <c r="F151" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J151" s="33"/>
       <c r="K151" s="19"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="161"/>
-      <c r="B152" s="122"/>
-      <c r="C152" s="131"/>
-      <c r="D152" s="121" t="s">
+      <c r="A152" s="163"/>
+      <c r="B152" s="129"/>
+      <c r="C152" s="141"/>
+      <c r="D152" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="F152" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="33"/>
@@ -5795,12 +5789,12 @@
       <c r="K152" s="19"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="161"/>
-      <c r="B153" s="122"/>
-      <c r="C153" s="131"/>
-      <c r="D153" s="122"/>
+      <c r="A153" s="163"/>
+      <c r="B153" s="129"/>
+      <c r="C153" s="141"/>
+      <c r="D153" s="129"/>
       <c r="F153" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="33"/>
@@ -5808,12 +5802,12 @@
       <c r="K153" s="19"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="161"/>
-      <c r="B154" s="122"/>
-      <c r="C154" s="131"/>
-      <c r="D154" s="122"/>
+      <c r="A154" s="163"/>
+      <c r="B154" s="129"/>
+      <c r="C154" s="141"/>
+      <c r="D154" s="129"/>
       <c r="F154" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="33"/>
@@ -5821,12 +5815,12 @@
       <c r="K154" s="19"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="161"/>
-      <c r="B155" s="122"/>
-      <c r="C155" s="131"/>
-      <c r="D155" s="122"/>
+      <c r="A155" s="163"/>
+      <c r="B155" s="129"/>
+      <c r="C155" s="141"/>
+      <c r="D155" s="129"/>
       <c r="F155" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="33"/>
@@ -5834,12 +5828,12 @@
       <c r="K155" s="19"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="161"/>
-      <c r="B156" s="122"/>
-      <c r="C156" s="131"/>
-      <c r="D156" s="122"/>
+      <c r="A156" s="163"/>
+      <c r="B156" s="129"/>
+      <c r="C156" s="141"/>
+      <c r="D156" s="129"/>
       <c r="F156" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="33"/>
@@ -5847,12 +5841,12 @@
       <c r="K156" s="19"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="161"/>
-      <c r="B157" s="122"/>
-      <c r="C157" s="137"/>
-      <c r="D157" s="123"/>
+      <c r="A157" s="163"/>
+      <c r="B157" s="129"/>
+      <c r="C157" s="142"/>
+      <c r="D157" s="130"/>
       <c r="F157" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="33"/>
@@ -5860,13 +5854,13 @@
       <c r="K157" s="34"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="161"/>
-      <c r="B158" s="122"/>
-      <c r="C158" s="134" t="s">
-        <v>191</v>
-      </c>
-      <c r="D158" s="121" t="s">
-        <v>191</v>
+      <c r="A158" s="163"/>
+      <c r="B158" s="129"/>
+      <c r="C158" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="D158" s="128" t="s">
+        <v>190</v>
       </c>
       <c r="F158" s="20" t="s">
         <v>60</v>
@@ -5877,12 +5871,12 @@
       <c r="K158" s="19"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="161"/>
-      <c r="B159" s="122"/>
-      <c r="C159" s="135"/>
-      <c r="D159" s="122"/>
+      <c r="A159" s="163"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="146"/>
+      <c r="D159" s="129"/>
       <c r="F159" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="29"/>
@@ -5890,12 +5884,12 @@
       <c r="K159" s="19"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="161"/>
-      <c r="B160" s="122"/>
-      <c r="C160" s="135"/>
-      <c r="D160" s="122"/>
+      <c r="A160" s="163"/>
+      <c r="B160" s="129"/>
+      <c r="C160" s="146"/>
+      <c r="D160" s="129"/>
       <c r="F160" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="29"/>
@@ -5903,12 +5897,12 @@
       <c r="K160" s="19"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="161"/>
-      <c r="B161" s="122"/>
-      <c r="C161" s="135"/>
-      <c r="D161" s="122"/>
+      <c r="A161" s="163"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="146"/>
+      <c r="D161" s="129"/>
       <c r="F161" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="29"/>
@@ -5916,12 +5910,12 @@
       <c r="K161" s="19"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="161"/>
-      <c r="B162" s="122"/>
-      <c r="C162" s="135"/>
-      <c r="D162" s="122"/>
+      <c r="A162" s="163"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="146"/>
+      <c r="D162" s="129"/>
       <c r="F162" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="29"/>
@@ -5929,12 +5923,12 @@
       <c r="K162" s="19"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="161"/>
-      <c r="B163" s="122"/>
-      <c r="C163" s="135"/>
-      <c r="D163" s="122"/>
+      <c r="A163" s="163"/>
+      <c r="B163" s="129"/>
+      <c r="C163" s="146"/>
+      <c r="D163" s="129"/>
       <c r="F163" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H163" s="22"/>
       <c r="I163" s="29"/>
@@ -5942,12 +5936,12 @@
       <c r="K163" s="19"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="161"/>
-      <c r="B164" s="122"/>
-      <c r="C164" s="135"/>
-      <c r="D164" s="122"/>
+      <c r="A164" s="163"/>
+      <c r="B164" s="129"/>
+      <c r="C164" s="146"/>
+      <c r="D164" s="129"/>
       <c r="F164" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="29"/>
@@ -5955,12 +5949,12 @@
       <c r="K164" s="19"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="161"/>
-      <c r="B165" s="122"/>
-      <c r="C165" s="135"/>
-      <c r="D165" s="122"/>
+      <c r="A165" s="163"/>
+      <c r="B165" s="129"/>
+      <c r="C165" s="146"/>
+      <c r="D165" s="129"/>
       <c r="F165" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="29"/>
@@ -5968,12 +5962,12 @@
       <c r="K165" s="19"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="161"/>
-      <c r="B166" s="122"/>
-      <c r="C166" s="135"/>
-      <c r="D166" s="122"/>
+      <c r="A166" s="163"/>
+      <c r="B166" s="129"/>
+      <c r="C166" s="146"/>
+      <c r="D166" s="129"/>
       <c r="F166" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="29"/>
@@ -5981,12 +5975,12 @@
       <c r="K166" s="19"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="161"/>
-      <c r="B167" s="122"/>
-      <c r="C167" s="135"/>
-      <c r="D167" s="122"/>
+      <c r="A167" s="163"/>
+      <c r="B167" s="129"/>
+      <c r="C167" s="146"/>
+      <c r="D167" s="129"/>
       <c r="F167" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="29"/>
@@ -5994,12 +5988,12 @@
       <c r="K167" s="19"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="161"/>
-      <c r="B168" s="122"/>
-      <c r="C168" s="135"/>
-      <c r="D168" s="122"/>
+      <c r="A168" s="163"/>
+      <c r="B168" s="129"/>
+      <c r="C168" s="146"/>
+      <c r="D168" s="129"/>
       <c r="F168" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="29"/>
@@ -6007,12 +6001,12 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="161"/>
-      <c r="B169" s="122"/>
-      <c r="C169" s="135"/>
-      <c r="D169" s="122"/>
+      <c r="A169" s="163"/>
+      <c r="B169" s="129"/>
+      <c r="C169" s="146"/>
+      <c r="D169" s="129"/>
       <c r="F169" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="29"/>
@@ -6020,12 +6014,12 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="161"/>
-      <c r="B170" s="122"/>
-      <c r="C170" s="135"/>
-      <c r="D170" s="122"/>
+      <c r="A170" s="163"/>
+      <c r="B170" s="129"/>
+      <c r="C170" s="146"/>
+      <c r="D170" s="129"/>
       <c r="F170" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="29"/>
@@ -6033,12 +6027,12 @@
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="161"/>
-      <c r="B171" s="122"/>
-      <c r="C171" s="135"/>
-      <c r="D171" s="122"/>
+      <c r="A171" s="163"/>
+      <c r="B171" s="129"/>
+      <c r="C171" s="146"/>
+      <c r="D171" s="129"/>
       <c r="F171" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H171" s="22"/>
       <c r="I171" s="29"/>
@@ -6046,12 +6040,12 @@
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="161"/>
-      <c r="B172" s="122"/>
-      <c r="C172" s="135"/>
-      <c r="D172" s="122"/>
+      <c r="A172" s="163"/>
+      <c r="B172" s="129"/>
+      <c r="C172" s="146"/>
+      <c r="D172" s="129"/>
       <c r="F172" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H172" s="22"/>
       <c r="I172" s="29"/>
@@ -6059,12 +6053,12 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="161"/>
-      <c r="B173" s="122"/>
-      <c r="C173" s="135"/>
-      <c r="D173" s="122"/>
+      <c r="A173" s="163"/>
+      <c r="B173" s="129"/>
+      <c r="C173" s="146"/>
+      <c r="D173" s="129"/>
       <c r="F173" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H173" s="22"/>
       <c r="I173" s="29"/>
@@ -6072,12 +6066,12 @@
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="161"/>
-      <c r="B174" s="122"/>
-      <c r="C174" s="135"/>
-      <c r="D174" s="122"/>
+      <c r="A174" s="163"/>
+      <c r="B174" s="129"/>
+      <c r="C174" s="146"/>
+      <c r="D174" s="129"/>
       <c r="F174" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H174" s="22"/>
       <c r="I174" s="29"/>
@@ -6085,12 +6079,12 @@
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="161"/>
-      <c r="B175" s="122"/>
-      <c r="C175" s="135"/>
-      <c r="D175" s="122"/>
+      <c r="A175" s="163"/>
+      <c r="B175" s="129"/>
+      <c r="C175" s="146"/>
+      <c r="D175" s="129"/>
       <c r="F175" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H175" s="22"/>
       <c r="I175" s="29"/>
@@ -6098,12 +6092,12 @@
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="161"/>
-      <c r="B176" s="122"/>
-      <c r="C176" s="135"/>
-      <c r="D176" s="122"/>
+      <c r="A176" s="163"/>
+      <c r="B176" s="129"/>
+      <c r="C176" s="146"/>
+      <c r="D176" s="129"/>
       <c r="F176" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H176" s="22"/>
       <c r="I176" s="29"/>
@@ -6111,12 +6105,12 @@
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="161"/>
-      <c r="B177" s="122"/>
-      <c r="C177" s="135"/>
-      <c r="D177" s="122"/>
+      <c r="A177" s="163"/>
+      <c r="B177" s="129"/>
+      <c r="C177" s="146"/>
+      <c r="D177" s="129"/>
       <c r="F177" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H177" s="22"/>
       <c r="I177" s="29"/>
@@ -6124,12 +6118,12 @@
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="161"/>
-      <c r="B178" s="122"/>
-      <c r="C178" s="135"/>
-      <c r="D178" s="122"/>
+      <c r="A178" s="163"/>
+      <c r="B178" s="129"/>
+      <c r="C178" s="146"/>
+      <c r="D178" s="129"/>
       <c r="F178" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H178" s="22"/>
       <c r="I178" s="29"/>
@@ -6137,12 +6131,12 @@
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="161"/>
-      <c r="B179" s="122"/>
-      <c r="C179" s="135"/>
-      <c r="D179" s="122"/>
+      <c r="A179" s="163"/>
+      <c r="B179" s="129"/>
+      <c r="C179" s="146"/>
+      <c r="D179" s="129"/>
       <c r="F179" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H179" s="22"/>
       <c r="I179" s="29"/>
@@ -6150,12 +6144,12 @@
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="161"/>
-      <c r="B180" s="122"/>
-      <c r="C180" s="135"/>
-      <c r="D180" s="122"/>
+      <c r="A180" s="163"/>
+      <c r="B180" s="129"/>
+      <c r="C180" s="146"/>
+      <c r="D180" s="129"/>
       <c r="F180" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="29"/>
@@ -6163,12 +6157,12 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="161"/>
-      <c r="B181" s="122"/>
-      <c r="C181" s="135"/>
-      <c r="D181" s="122"/>
+      <c r="A181" s="163"/>
+      <c r="B181" s="129"/>
+      <c r="C181" s="146"/>
+      <c r="D181" s="129"/>
       <c r="F181" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="29"/>
@@ -6176,12 +6170,12 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="161"/>
-      <c r="B182" s="122"/>
-      <c r="C182" s="135"/>
-      <c r="D182" s="122"/>
+      <c r="A182" s="163"/>
+      <c r="B182" s="129"/>
+      <c r="C182" s="146"/>
+      <c r="D182" s="129"/>
       <c r="F182" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H182" s="22"/>
       <c r="I182" s="29"/>
@@ -6189,12 +6183,12 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="161"/>
-      <c r="B183" s="122"/>
-      <c r="C183" s="135"/>
-      <c r="D183" s="122"/>
+      <c r="A183" s="163"/>
+      <c r="B183" s="129"/>
+      <c r="C183" s="146"/>
+      <c r="D183" s="129"/>
       <c r="F183" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H183" s="22"/>
       <c r="I183" s="29"/>
@@ -6202,12 +6196,12 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="161"/>
-      <c r="B184" s="122"/>
-      <c r="C184" s="135"/>
-      <c r="D184" s="122"/>
+      <c r="A184" s="163"/>
+      <c r="B184" s="129"/>
+      <c r="C184" s="146"/>
+      <c r="D184" s="129"/>
       <c r="F184" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H184" s="22"/>
       <c r="I184" s="29"/>
@@ -6215,12 +6209,12 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="161"/>
-      <c r="B185" s="122"/>
-      <c r="C185" s="135"/>
-      <c r="D185" s="122"/>
+      <c r="A185" s="163"/>
+      <c r="B185" s="129"/>
+      <c r="C185" s="146"/>
+      <c r="D185" s="129"/>
       <c r="F185" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H185" s="22"/>
       <c r="I185" s="29"/>
@@ -6228,12 +6222,12 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="161"/>
-      <c r="B186" s="122"/>
-      <c r="C186" s="135"/>
-      <c r="D186" s="122"/>
+      <c r="A186" s="163"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="146"/>
+      <c r="D186" s="129"/>
       <c r="F186" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H186" s="22"/>
       <c r="I186" s="29"/>
@@ -6241,12 +6235,12 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="161"/>
-      <c r="B187" s="122"/>
-      <c r="C187" s="135"/>
-      <c r="D187" s="122"/>
+      <c r="A187" s="163"/>
+      <c r="B187" s="129"/>
+      <c r="C187" s="146"/>
+      <c r="D187" s="129"/>
       <c r="F187" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H187" s="22"/>
       <c r="I187" s="29"/>
@@ -6254,12 +6248,12 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="161"/>
-      <c r="B188" s="122"/>
-      <c r="C188" s="136"/>
-      <c r="D188" s="123"/>
+      <c r="A188" s="163"/>
+      <c r="B188" s="129"/>
+      <c r="C188" s="147"/>
+      <c r="D188" s="130"/>
       <c r="F188" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H188" s="22"/>
       <c r="I188" s="29"/>
@@ -6267,16 +6261,16 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="161"/>
-      <c r="B189" s="122"/>
-      <c r="C189" s="134" t="s">
-        <v>222</v>
-      </c>
-      <c r="D189" s="121" t="s">
-        <v>222</v>
+      <c r="A189" s="163"/>
+      <c r="B189" s="129"/>
+      <c r="C189" s="145" t="s">
+        <v>221</v>
+      </c>
+      <c r="D189" s="128" t="s">
+        <v>221</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H189" s="22"/>
       <c r="I189" s="29"/>
@@ -6284,10 +6278,10 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="161"/>
-      <c r="B190" s="122"/>
-      <c r="C190" s="135"/>
-      <c r="D190" s="122"/>
+      <c r="A190" s="163"/>
+      <c r="B190" s="129"/>
+      <c r="C190" s="146"/>
+      <c r="D190" s="129"/>
       <c r="F190" s="20" t="s">
         <v>60</v>
       </c>
@@ -6297,12 +6291,12 @@
       <c r="K190" s="19"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="161"/>
-      <c r="B191" s="122"/>
-      <c r="C191" s="135"/>
-      <c r="D191" s="122"/>
+      <c r="A191" s="163"/>
+      <c r="B191" s="129"/>
+      <c r="C191" s="146"/>
+      <c r="D191" s="129"/>
       <c r="F191" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H191" s="22"/>
       <c r="I191" s="29"/>
@@ -6310,12 +6304,12 @@
       <c r="K191" s="19"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="161"/>
-      <c r="B192" s="122"/>
-      <c r="C192" s="135"/>
-      <c r="D192" s="122"/>
+      <c r="A192" s="163"/>
+      <c r="B192" s="129"/>
+      <c r="C192" s="146"/>
+      <c r="D192" s="129"/>
       <c r="F192" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H192" s="22"/>
       <c r="I192" s="29"/>
@@ -6323,12 +6317,12 @@
       <c r="K192" s="19"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="161"/>
-      <c r="B193" s="122"/>
-      <c r="C193" s="135"/>
-      <c r="D193" s="122"/>
+      <c r="A193" s="163"/>
+      <c r="B193" s="129"/>
+      <c r="C193" s="146"/>
+      <c r="D193" s="129"/>
       <c r="F193" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H193" s="22"/>
       <c r="I193" s="29"/>
@@ -6336,12 +6330,12 @@
       <c r="K193" s="19"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="161"/>
-      <c r="B194" s="122"/>
-      <c r="C194" s="135"/>
-      <c r="D194" s="122"/>
+      <c r="A194" s="163"/>
+      <c r="B194" s="129"/>
+      <c r="C194" s="146"/>
+      <c r="D194" s="129"/>
       <c r="F194" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H194" s="22"/>
       <c r="I194" s="29"/>
@@ -6349,12 +6343,12 @@
       <c r="K194" s="19"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="161"/>
-      <c r="B195" s="122"/>
-      <c r="C195" s="135"/>
-      <c r="D195" s="122"/>
+      <c r="A195" s="163"/>
+      <c r="B195" s="129"/>
+      <c r="C195" s="146"/>
+      <c r="D195" s="129"/>
       <c r="F195" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H195" s="22"/>
       <c r="I195" s="29"/>
@@ -6362,12 +6356,12 @@
       <c r="K195" s="19"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="161"/>
-      <c r="B196" s="122"/>
-      <c r="C196" s="135"/>
-      <c r="D196" s="122"/>
+      <c r="A196" s="163"/>
+      <c r="B196" s="129"/>
+      <c r="C196" s="146"/>
+      <c r="D196" s="129"/>
       <c r="F196" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="29"/>
@@ -6375,12 +6369,12 @@
       <c r="K196" s="19"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="161"/>
-      <c r="B197" s="122"/>
-      <c r="C197" s="135"/>
-      <c r="D197" s="122"/>
+      <c r="A197" s="163"/>
+      <c r="B197" s="129"/>
+      <c r="C197" s="146"/>
+      <c r="D197" s="129"/>
       <c r="F197" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H197" s="22"/>
       <c r="I197" s="29"/>
@@ -6388,12 +6382,12 @@
       <c r="K197" s="19"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="161"/>
-      <c r="B198" s="122"/>
-      <c r="C198" s="135"/>
-      <c r="D198" s="122"/>
+      <c r="A198" s="163"/>
+      <c r="B198" s="129"/>
+      <c r="C198" s="146"/>
+      <c r="D198" s="129"/>
       <c r="F198" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H198" s="22"/>
       <c r="I198" s="29"/>
@@ -6401,12 +6395,12 @@
       <c r="K198" s="19"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="161"/>
-      <c r="B199" s="122"/>
-      <c r="C199" s="135"/>
-      <c r="D199" s="122"/>
+      <c r="A199" s="163"/>
+      <c r="B199" s="129"/>
+      <c r="C199" s="146"/>
+      <c r="D199" s="129"/>
       <c r="F199" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H199" s="22"/>
       <c r="I199" s="29"/>
@@ -6414,12 +6408,12 @@
       <c r="K199" s="19"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="161"/>
-      <c r="B200" s="122"/>
-      <c r="C200" s="135"/>
-      <c r="D200" s="122"/>
+      <c r="A200" s="163"/>
+      <c r="B200" s="129"/>
+      <c r="C200" s="146"/>
+      <c r="D200" s="129"/>
       <c r="F200" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H200" s="22"/>
       <c r="I200" s="29"/>
@@ -6427,12 +6421,12 @@
       <c r="K200" s="19"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="161"/>
-      <c r="B201" s="122"/>
-      <c r="C201" s="135"/>
-      <c r="D201" s="122"/>
+      <c r="A201" s="163"/>
+      <c r="B201" s="129"/>
+      <c r="C201" s="146"/>
+      <c r="D201" s="129"/>
       <c r="F201" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H201" s="22"/>
       <c r="I201" s="29"/>
@@ -6440,12 +6434,12 @@
       <c r="K201" s="19"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="161"/>
-      <c r="B202" s="122"/>
-      <c r="C202" s="135"/>
-      <c r="D202" s="122"/>
+      <c r="A202" s="163"/>
+      <c r="B202" s="129"/>
+      <c r="C202" s="146"/>
+      <c r="D202" s="129"/>
       <c r="F202" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" s="29"/>
@@ -6453,12 +6447,12 @@
       <c r="K202" s="19"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="161"/>
-      <c r="B203" s="122"/>
-      <c r="C203" s="135"/>
-      <c r="D203" s="122"/>
+      <c r="A203" s="163"/>
+      <c r="B203" s="129"/>
+      <c r="C203" s="146"/>
+      <c r="D203" s="129"/>
       <c r="F203" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H203" s="22"/>
       <c r="I203" s="29"/>
@@ -6466,12 +6460,12 @@
       <c r="K203" s="19"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="161"/>
-      <c r="B204" s="122"/>
-      <c r="C204" s="135"/>
-      <c r="D204" s="122"/>
+      <c r="A204" s="163"/>
+      <c r="B204" s="129"/>
+      <c r="C204" s="146"/>
+      <c r="D204" s="129"/>
       <c r="F204" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H204" s="22"/>
       <c r="I204" s="29"/>
@@ -6479,12 +6473,12 @@
       <c r="K204" s="19"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="161"/>
-      <c r="B205" s="122"/>
-      <c r="C205" s="136"/>
-      <c r="D205" s="123"/>
+      <c r="A205" s="163"/>
+      <c r="B205" s="129"/>
+      <c r="C205" s="147"/>
+      <c r="D205" s="130"/>
       <c r="F205" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H205" s="22"/>
       <c r="I205" s="29"/>
@@ -6492,13 +6486,13 @@
       <c r="K205" s="19"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="161"/>
-      <c r="B206" s="122"/>
-      <c r="C206" s="130" t="s">
-        <v>229</v>
-      </c>
-      <c r="D206" s="121" t="s">
-        <v>229</v>
+      <c r="A206" s="163"/>
+      <c r="B206" s="129"/>
+      <c r="C206" s="140" t="s">
+        <v>228</v>
+      </c>
+      <c r="D206" s="128" t="s">
+        <v>228</v>
       </c>
       <c r="F206" s="20" t="s">
         <v>87</v>
@@ -6509,12 +6503,12 @@
       <c r="K206" s="19"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="161"/>
-      <c r="B207" s="122"/>
-      <c r="C207" s="131"/>
-      <c r="D207" s="122"/>
+      <c r="A207" s="163"/>
+      <c r="B207" s="129"/>
+      <c r="C207" s="141"/>
+      <c r="D207" s="129"/>
       <c r="F207" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="29"/>
@@ -6522,10 +6516,10 @@
       <c r="K207" s="19"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="161"/>
-      <c r="B208" s="122"/>
-      <c r="C208" s="131"/>
-      <c r="D208" s="122"/>
+      <c r="A208" s="163"/>
+      <c r="B208" s="129"/>
+      <c r="C208" s="141"/>
+      <c r="D208" s="129"/>
       <c r="F208" s="20" t="s">
         <v>116</v>
       </c>
@@ -6535,12 +6529,12 @@
       <c r="K208" s="19"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="161"/>
-      <c r="B209" s="122"/>
-      <c r="C209" s="131"/>
-      <c r="D209" s="122"/>
+      <c r="A209" s="163"/>
+      <c r="B209" s="129"/>
+      <c r="C209" s="141"/>
+      <c r="D209" s="129"/>
       <c r="F209" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H209" s="22"/>
       <c r="I209" s="21"/>
@@ -6548,12 +6542,12 @@
       <c r="K209" s="19"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="161"/>
-      <c r="B210" s="122"/>
-      <c r="C210" s="131"/>
-      <c r="D210" s="122"/>
+      <c r="A210" s="163"/>
+      <c r="B210" s="129"/>
+      <c r="C210" s="141"/>
+      <c r="D210" s="129"/>
       <c r="F210" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H210" s="22"/>
       <c r="I210" s="21"/>
@@ -6561,12 +6555,12 @@
       <c r="K210" s="19"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="161"/>
-      <c r="B211" s="122"/>
-      <c r="C211" s="131"/>
-      <c r="D211" s="122"/>
+      <c r="A211" s="163"/>
+      <c r="B211" s="129"/>
+      <c r="C211" s="141"/>
+      <c r="D211" s="129"/>
       <c r="F211" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H211" s="22"/>
       <c r="I211" s="21"/>
@@ -6574,12 +6568,12 @@
       <c r="K211" s="19"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="161"/>
-      <c r="B212" s="122"/>
-      <c r="C212" s="131"/>
-      <c r="D212" s="122"/>
+      <c r="A212" s="163"/>
+      <c r="B212" s="129"/>
+      <c r="C212" s="141"/>
+      <c r="D212" s="129"/>
       <c r="F212" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H212" s="22"/>
       <c r="I212" s="21"/>
@@ -6587,12 +6581,12 @@
       <c r="K212" s="19"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="161"/>
-      <c r="B213" s="122"/>
-      <c r="C213" s="131"/>
-      <c r="D213" s="122"/>
+      <c r="A213" s="163"/>
+      <c r="B213" s="129"/>
+      <c r="C213" s="141"/>
+      <c r="D213" s="129"/>
       <c r="F213" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H213" s="22"/>
       <c r="I213" s="21"/>
@@ -6600,12 +6594,12 @@
       <c r="K213" s="19"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="161"/>
-      <c r="B214" s="122"/>
-      <c r="C214" s="131"/>
-      <c r="D214" s="122"/>
+      <c r="A214" s="163"/>
+      <c r="B214" s="129"/>
+      <c r="C214" s="141"/>
+      <c r="D214" s="129"/>
       <c r="F214" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H214" s="22"/>
       <c r="I214" s="21"/>
@@ -6613,12 +6607,12 @@
       <c r="K214" s="19"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="161"/>
-      <c r="B215" s="122"/>
-      <c r="C215" s="131"/>
-      <c r="D215" s="122"/>
+      <c r="A215" s="163"/>
+      <c r="B215" s="129"/>
+      <c r="C215" s="141"/>
+      <c r="D215" s="129"/>
       <c r="F215" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H215" s="22"/>
       <c r="I215" s="21"/>
@@ -6626,10 +6620,10 @@
       <c r="K215" s="19"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="161"/>
-      <c r="B216" s="122"/>
-      <c r="C216" s="131"/>
-      <c r="D216" s="122"/>
+      <c r="A216" s="163"/>
+      <c r="B216" s="129"/>
+      <c r="C216" s="141"/>
+      <c r="D216" s="129"/>
       <c r="F216" s="20" t="s">
         <v>48</v>
       </c>
@@ -6639,12 +6633,12 @@
       <c r="K216" s="19"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="161"/>
-      <c r="B217" s="122"/>
-      <c r="C217" s="131"/>
-      <c r="D217" s="122"/>
+      <c r="A217" s="163"/>
+      <c r="B217" s="129"/>
+      <c r="C217" s="141"/>
+      <c r="D217" s="129"/>
       <c r="F217" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H217" s="22"/>
       <c r="I217" s="21"/>
@@ -6652,12 +6646,12 @@
       <c r="K217" s="19"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="161"/>
-      <c r="B218" s="122"/>
-      <c r="C218" s="131"/>
-      <c r="D218" s="122"/>
+      <c r="A218" s="163"/>
+      <c r="B218" s="129"/>
+      <c r="C218" s="141"/>
+      <c r="D218" s="129"/>
       <c r="F218" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H218" s="22"/>
       <c r="I218" s="21"/>
@@ -6665,10 +6659,10 @@
       <c r="K218" s="19"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="161"/>
-      <c r="B219" s="122"/>
-      <c r="C219" s="131"/>
-      <c r="D219" s="122"/>
+      <c r="A219" s="163"/>
+      <c r="B219" s="129"/>
+      <c r="C219" s="141"/>
+      <c r="D219" s="129"/>
       <c r="F219" s="20" t="s">
         <v>121</v>
       </c>
@@ -6678,12 +6672,12 @@
       <c r="K219" s="19"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="161"/>
-      <c r="B220" s="122"/>
-      <c r="C220" s="131"/>
-      <c r="D220" s="122"/>
+      <c r="A220" s="163"/>
+      <c r="B220" s="129"/>
+      <c r="C220" s="141"/>
+      <c r="D220" s="129"/>
       <c r="F220" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H220" s="22"/>
       <c r="I220" s="21"/>
@@ -6691,12 +6685,12 @@
       <c r="K220" s="19"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="161"/>
-      <c r="B221" s="122"/>
-      <c r="C221" s="131"/>
-      <c r="D221" s="122"/>
+      <c r="A221" s="163"/>
+      <c r="B221" s="129"/>
+      <c r="C221" s="141"/>
+      <c r="D221" s="129"/>
       <c r="F221" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H221" s="22"/>
       <c r="I221" s="21"/>
@@ -6704,12 +6698,12 @@
       <c r="K221" s="19"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="161"/>
-      <c r="B222" s="122"/>
-      <c r="C222" s="131"/>
-      <c r="D222" s="122"/>
+      <c r="A222" s="163"/>
+      <c r="B222" s="129"/>
+      <c r="C222" s="141"/>
+      <c r="D222" s="129"/>
       <c r="F222" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H222" s="22"/>
       <c r="I222" s="21"/>
@@ -6717,12 +6711,12 @@
       <c r="K222" s="19"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="161"/>
-      <c r="B223" s="122"/>
-      <c r="C223" s="131"/>
-      <c r="D223" s="122"/>
+      <c r="A223" s="163"/>
+      <c r="B223" s="129"/>
+      <c r="C223" s="141"/>
+      <c r="D223" s="129"/>
       <c r="F223" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H223" s="22"/>
       <c r="I223" s="21"/>
@@ -6730,12 +6724,12 @@
       <c r="K223" s="19"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="161"/>
-      <c r="B224" s="122"/>
-      <c r="C224" s="131"/>
-      <c r="D224" s="122"/>
+      <c r="A224" s="163"/>
+      <c r="B224" s="129"/>
+      <c r="C224" s="141"/>
+      <c r="D224" s="129"/>
       <c r="F224" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H224" s="22"/>
       <c r="I224" s="21"/>
@@ -6743,12 +6737,12 @@
       <c r="K224" s="19"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="161"/>
-      <c r="B225" s="122"/>
-      <c r="C225" s="131"/>
-      <c r="D225" s="122"/>
+      <c r="A225" s="163"/>
+      <c r="B225" s="129"/>
+      <c r="C225" s="141"/>
+      <c r="D225" s="129"/>
       <c r="F225" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H225" s="22"/>
       <c r="I225" s="21"/>
@@ -6756,12 +6750,12 @@
       <c r="K225" s="19"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="161"/>
-      <c r="B226" s="122"/>
-      <c r="C226" s="137"/>
-      <c r="D226" s="123"/>
+      <c r="A226" s="163"/>
+      <c r="B226" s="129"/>
+      <c r="C226" s="142"/>
+      <c r="D226" s="130"/>
       <c r="F226" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H226" s="22"/>
       <c r="I226" s="21"/>
@@ -6769,11 +6763,11 @@
       <c r="K226" s="19"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="121" t="s">
-        <v>518</v>
+      <c r="A227" s="128" t="s">
+        <v>516</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C227" s="30"/>
       <c r="D227" s="30"/>
@@ -6784,16 +6778,16 @@
       <c r="K227" s="19"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="122"/>
-      <c r="B228" s="121" t="s">
+      <c r="A228" s="129"/>
+      <c r="B228" s="128" t="s">
+        <v>244</v>
+      </c>
+      <c r="C228" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="C228" s="121" t="s">
+      <c r="D228" s="128"/>
+      <c r="F228" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="D228" s="121"/>
-      <c r="F228" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="H228" s="22"/>
       <c r="I228" s="21"/>
@@ -6801,12 +6795,12 @@
       <c r="K228" s="19"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="122"/>
-      <c r="B229" s="122"/>
-      <c r="C229" s="122"/>
-      <c r="D229" s="122"/>
+      <c r="A229" s="129"/>
+      <c r="B229" s="129"/>
+      <c r="C229" s="129"/>
+      <c r="D229" s="129"/>
       <c r="F229" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H229" s="22"/>
       <c r="I229" s="21"/>
@@ -6814,12 +6808,12 @@
       <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="122"/>
-      <c r="B230" s="122"/>
-      <c r="C230" s="122"/>
-      <c r="D230" s="122"/>
+      <c r="A230" s="129"/>
+      <c r="B230" s="129"/>
+      <c r="C230" s="129"/>
+      <c r="D230" s="129"/>
       <c r="F230" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H230" s="22"/>
       <c r="I230" s="21"/>
@@ -6827,12 +6821,12 @@
       <c r="K230" s="19"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="122"/>
-      <c r="B231" s="122"/>
-      <c r="C231" s="122"/>
-      <c r="D231" s="122"/>
+      <c r="A231" s="129"/>
+      <c r="B231" s="129"/>
+      <c r="C231" s="129"/>
+      <c r="D231" s="129"/>
       <c r="F231" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H231" s="38"/>
       <c r="I231" s="39"/>
@@ -6840,12 +6834,12 @@
       <c r="K231" s="40"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="122"/>
-      <c r="B232" s="122"/>
-      <c r="C232" s="122"/>
-      <c r="D232" s="122"/>
+      <c r="A232" s="129"/>
+      <c r="B232" s="129"/>
+      <c r="C232" s="129"/>
+      <c r="D232" s="129"/>
       <c r="F232" s="37" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H232" s="38"/>
       <c r="I232" s="39"/>
@@ -6853,12 +6847,12 @@
       <c r="K232" s="40"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="122"/>
-      <c r="B233" s="122"/>
-      <c r="C233" s="122"/>
-      <c r="D233" s="122"/>
+      <c r="A233" s="129"/>
+      <c r="B233" s="129"/>
+      <c r="C233" s="129"/>
+      <c r="D233" s="129"/>
       <c r="F233" s="37" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H233" s="38"/>
       <c r="I233" s="39"/>
@@ -6866,12 +6860,12 @@
       <c r="K233" s="40"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="122"/>
-      <c r="B234" s="122"/>
-      <c r="C234" s="122"/>
-      <c r="D234" s="122"/>
+      <c r="A234" s="129"/>
+      <c r="B234" s="129"/>
+      <c r="C234" s="129"/>
+      <c r="D234" s="129"/>
       <c r="F234" s="37" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H234" s="38"/>
       <c r="I234" s="39"/>
@@ -6879,10 +6873,10 @@
       <c r="K234" s="40"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="122"/>
-      <c r="B235" s="122"/>
-      <c r="C235" s="122"/>
-      <c r="D235" s="122"/>
+      <c r="A235" s="129"/>
+      <c r="B235" s="129"/>
+      <c r="C235" s="129"/>
+      <c r="D235" s="129"/>
       <c r="F235" s="37" t="s">
         <v>70</v>
       </c>
@@ -6892,12 +6886,12 @@
       <c r="K235" s="40"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="122"/>
-      <c r="B236" s="122"/>
-      <c r="C236" s="122"/>
-      <c r="D236" s="122"/>
+      <c r="A236" s="129"/>
+      <c r="B236" s="129"/>
+      <c r="C236" s="129"/>
+      <c r="D236" s="129"/>
       <c r="F236" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H236" s="38"/>
       <c r="I236" s="39"/>
@@ -6905,12 +6899,12 @@
       <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="122"/>
-      <c r="B237" s="122"/>
-      <c r="C237" s="123"/>
-      <c r="D237" s="123"/>
+      <c r="A237" s="129"/>
+      <c r="B237" s="129"/>
+      <c r="C237" s="130"/>
+      <c r="D237" s="130"/>
       <c r="F237" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H237" s="38"/>
       <c r="I237" s="39"/>
@@ -6918,10 +6912,10 @@
       <c r="K237" s="40"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="122"/>
-      <c r="B238" s="122"/>
+      <c r="A238" s="129"/>
+      <c r="B238" s="129"/>
       <c r="C238" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D238" s="41"/>
       <c r="F238" s="37"/>
@@ -6931,29 +6925,29 @@
       <c r="K238" s="40"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="122"/>
-      <c r="B239" s="122"/>
-      <c r="C239" s="124" t="s">
+      <c r="A239" s="129"/>
+      <c r="B239" s="129"/>
+      <c r="C239" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="D239" s="122"/>
+      <c r="F239" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="D239" s="124"/>
-      <c r="F239" s="37" t="s">
-        <v>254</v>
-      </c>
       <c r="H239" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I239" s="39"/>
       <c r="J239" s="39"/>
       <c r="K239" s="40"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="122"/>
-      <c r="B240" s="122"/>
-      <c r="C240" s="125"/>
-      <c r="D240" s="125"/>
+      <c r="A240" s="129"/>
+      <c r="B240" s="129"/>
+      <c r="C240" s="123"/>
+      <c r="D240" s="123"/>
       <c r="F240" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H240" s="38"/>
       <c r="I240" s="39"/>
@@ -6961,27 +6955,27 @@
       <c r="K240" s="40"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="122"/>
-      <c r="B241" s="122"/>
-      <c r="C241" s="125"/>
-      <c r="D241" s="125"/>
+      <c r="A241" s="129"/>
+      <c r="B241" s="129"/>
+      <c r="C241" s="123"/>
+      <c r="D241" s="123"/>
       <c r="F241" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H241" s="38" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I241" s="39"/>
       <c r="J241" s="39"/>
       <c r="K241" s="40"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="122"/>
-      <c r="B242" s="122"/>
-      <c r="C242" s="125"/>
-      <c r="D242" s="125"/>
+      <c r="A242" s="129"/>
+      <c r="B242" s="129"/>
+      <c r="C242" s="123"/>
+      <c r="D242" s="123"/>
       <c r="F242" s="37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H242" s="38"/>
       <c r="I242" s="39"/>
@@ -6989,27 +6983,27 @@
       <c r="K242" s="40"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="122"/>
-      <c r="B243" s="122"/>
-      <c r="C243" s="125"/>
-      <c r="D243" s="125"/>
+      <c r="A243" s="129"/>
+      <c r="B243" s="129"/>
+      <c r="C243" s="123"/>
+      <c r="D243" s="123"/>
       <c r="F243" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="H243" s="38" t="s">
         <v>515</v>
-      </c>
-      <c r="H243" s="38" t="s">
-        <v>517</v>
       </c>
       <c r="I243" s="39"/>
       <c r="J243" s="39"/>
       <c r="K243" s="40"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="122"/>
-      <c r="B244" s="122"/>
-      <c r="C244" s="125"/>
-      <c r="D244" s="125"/>
+      <c r="A244" s="129"/>
+      <c r="B244" s="129"/>
+      <c r="C244" s="123"/>
+      <c r="D244" s="123"/>
       <c r="F244" s="37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H244" s="38"/>
       <c r="I244" s="39"/>
@@ -7017,27 +7011,27 @@
       <c r="K244" s="40"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="122"/>
-      <c r="B245" s="122"/>
-      <c r="C245" s="125"/>
-      <c r="D245" s="125"/>
+      <c r="A245" s="129"/>
+      <c r="B245" s="129"/>
+      <c r="C245" s="123"/>
+      <c r="D245" s="123"/>
       <c r="F245" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H245" s="38" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I245" s="39"/>
       <c r="J245" s="39"/>
       <c r="K245" s="40"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="122"/>
-      <c r="B246" s="122"/>
-      <c r="C246" s="125"/>
-      <c r="D246" s="125"/>
+      <c r="A246" s="129"/>
+      <c r="B246" s="129"/>
+      <c r="C246" s="123"/>
+      <c r="D246" s="123"/>
       <c r="F246" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H246" s="38"/>
       <c r="I246" s="39"/>
@@ -7045,59 +7039,59 @@
       <c r="K246" s="40"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="122"/>
-      <c r="B247" s="122"/>
-      <c r="C247" s="125"/>
-      <c r="D247" s="125"/>
+      <c r="A247" s="129"/>
+      <c r="B247" s="129"/>
+      <c r="C247" s="123"/>
+      <c r="D247" s="123"/>
       <c r="F247" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H247" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I247" s="39"/>
       <c r="J247" s="39"/>
       <c r="K247" s="40"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="122"/>
-      <c r="B248" s="122"/>
-      <c r="C248" s="125"/>
-      <c r="D248" s="125"/>
+      <c r="A248" s="129"/>
+      <c r="B248" s="129"/>
+      <c r="C248" s="123"/>
+      <c r="D248" s="123"/>
       <c r="F248" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H248" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I248" s="39"/>
       <c r="J248" s="39"/>
       <c r="K248" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="129"/>
+      <c r="B249" s="129"/>
+      <c r="C249" s="124"/>
+      <c r="D249" s="124"/>
+      <c r="F249" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H249" s="38" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="122"/>
-      <c r="B249" s="122"/>
-      <c r="C249" s="126"/>
-      <c r="D249" s="126"/>
-      <c r="F249" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="H249" s="38" t="s">
-        <v>262</v>
       </c>
       <c r="I249" s="39"/>
       <c r="J249" s="39"/>
       <c r="K249" s="40"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="122"/>
-      <c r="B250" s="122"/>
-      <c r="C250" s="127" t="s">
-        <v>263</v>
-      </c>
-      <c r="D250" s="127"/>
+      <c r="A250" s="129"/>
+      <c r="B250" s="129"/>
+      <c r="C250" s="125" t="s">
+        <v>262</v>
+      </c>
+      <c r="D250" s="125"/>
       <c r="F250" s="37" t="s">
         <v>54</v>
       </c>
@@ -7107,121 +7101,121 @@
       <c r="K250" s="40"/>
     </row>
     <row r="251" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="122"/>
-      <c r="B251" s="122"/>
-      <c r="C251" s="128"/>
-      <c r="D251" s="128"/>
+      <c r="A251" s="129"/>
+      <c r="B251" s="129"/>
+      <c r="C251" s="126"/>
+      <c r="D251" s="126"/>
       <c r="F251" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H251" s="38" t="s">
         <v>264</v>
-      </c>
-      <c r="H251" s="38" t="s">
-        <v>265</v>
       </c>
       <c r="I251" s="39"/>
       <c r="J251" s="39"/>
       <c r="K251" s="40"/>
     </row>
     <row r="252" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="122"/>
-      <c r="B252" s="122"/>
-      <c r="C252" s="128"/>
-      <c r="D252" s="128"/>
+      <c r="A252" s="129"/>
+      <c r="B252" s="129"/>
+      <c r="C252" s="126"/>
+      <c r="D252" s="126"/>
       <c r="F252" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="H252" s="38" t="s">
         <v>266</v>
-      </c>
-      <c r="H252" s="38" t="s">
-        <v>267</v>
       </c>
       <c r="I252" s="39"/>
       <c r="J252" s="39"/>
       <c r="K252" s="40"/>
     </row>
     <row r="253" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="122"/>
-      <c r="B253" s="122"/>
-      <c r="C253" s="129"/>
-      <c r="D253" s="129"/>
+      <c r="A253" s="129"/>
+      <c r="B253" s="129"/>
+      <c r="C253" s="127"/>
+      <c r="D253" s="127"/>
       <c r="F253" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H253" s="38" t="s">
         <v>268</v>
-      </c>
-      <c r="H253" s="38" t="s">
-        <v>269</v>
       </c>
       <c r="I253" s="39"/>
       <c r="J253" s="39"/>
       <c r="K253" s="40"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="122"/>
-      <c r="B254" s="122"/>
-      <c r="C254" s="127" t="s">
-        <v>270</v>
-      </c>
-      <c r="D254" s="127"/>
+      <c r="A254" s="129"/>
+      <c r="B254" s="129"/>
+      <c r="C254" s="125" t="s">
+        <v>269</v>
+      </c>
+      <c r="D254" s="125"/>
       <c r="F254" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H254" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I254" s="39"/>
       <c r="J254" s="39"/>
       <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="122"/>
-      <c r="B255" s="122"/>
-      <c r="C255" s="128"/>
-      <c r="D255" s="128"/>
+      <c r="A255" s="129"/>
+      <c r="B255" s="129"/>
+      <c r="C255" s="126"/>
+      <c r="D255" s="126"/>
       <c r="F255" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H255" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I255" s="39"/>
       <c r="J255" s="39"/>
       <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="122"/>
-      <c r="B256" s="122"/>
-      <c r="C256" s="128"/>
-      <c r="D256" s="128"/>
+      <c r="A256" s="129"/>
+      <c r="B256" s="129"/>
+      <c r="C256" s="126"/>
+      <c r="D256" s="126"/>
       <c r="F256" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H256" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I256" s="39"/>
       <c r="J256" s="39"/>
       <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="122"/>
-      <c r="B257" s="122"/>
-      <c r="C257" s="129"/>
-      <c r="D257" s="129"/>
+      <c r="A257" s="129"/>
+      <c r="B257" s="129"/>
+      <c r="C257" s="127"/>
+      <c r="D257" s="127"/>
       <c r="F257" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H257" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I257" s="39"/>
       <c r="J257" s="39"/>
       <c r="K257" s="40"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="122"/>
-      <c r="B258" s="122"/>
-      <c r="C258" s="132" t="s">
+      <c r="A258" s="129"/>
+      <c r="B258" s="129"/>
+      <c r="C258" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="D258" s="122"/>
+      <c r="F258" s="37" t="s">
         <v>274</v>
-      </c>
-      <c r="D258" s="124"/>
-      <c r="F258" s="37" t="s">
-        <v>275</v>
       </c>
       <c r="H258" s="38"/>
       <c r="I258" s="39"/>
@@ -7229,78 +7223,78 @@
       <c r="K258" s="40"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="122"/>
-      <c r="B259" s="122"/>
-      <c r="C259" s="133"/>
-      <c r="D259" s="126"/>
+      <c r="A259" s="129"/>
+      <c r="B259" s="129"/>
+      <c r="C259" s="144"/>
+      <c r="D259" s="124"/>
       <c r="F259" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="H259" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="H259" s="38" t="s">
-        <v>277</v>
       </c>
       <c r="I259" s="39"/>
       <c r="J259" s="39"/>
       <c r="K259" s="40"/>
     </row>
     <row r="260" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A260" s="122"/>
-      <c r="B260" s="122"/>
+      <c r="A260" s="129"/>
+      <c r="B260" s="129"/>
       <c r="C260" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D260" s="44"/>
       <c r="F260" s="37"/>
       <c r="H260" s="38"/>
       <c r="I260" s="39"/>
       <c r="J260" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K260" s="40"/>
+    </row>
+    <row r="261" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A261" s="129"/>
+      <c r="B261" s="129"/>
+      <c r="C261" s="45" t="s">
         <v>279</v>
-      </c>
-      <c r="K260" s="40"/>
-    </row>
-    <row r="261" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A261" s="122"/>
-      <c r="B261" s="122"/>
-      <c r="C261" s="45" t="s">
-        <v>280</v>
       </c>
       <c r="D261" s="46"/>
       <c r="F261" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H261" s="38" t="s">
         <v>281</v>
-      </c>
-      <c r="H261" s="38" t="s">
-        <v>282</v>
       </c>
       <c r="I261" s="39"/>
       <c r="J261" s="39"/>
       <c r="K261" s="40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A262" s="129"/>
+      <c r="B262" s="129"/>
+      <c r="C262" s="47" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A262" s="122"/>
-      <c r="B262" s="122"/>
-      <c r="C262" s="47" t="s">
-        <v>284</v>
       </c>
       <c r="D262" s="48"/>
       <c r="F262" s="37"/>
       <c r="H262" s="38"/>
       <c r="I262" s="39"/>
       <c r="J262" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K262" s="40"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="122"/>
-      <c r="B263" s="122"/>
+      <c r="A263" s="129"/>
+      <c r="B263" s="129"/>
       <c r="C263" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D263" s="41"/>
       <c r="F263" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H263" s="38"/>
       <c r="I263" s="39"/>
@@ -7308,27 +7302,27 @@
       <c r="K263" s="40"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="122"/>
-      <c r="B264" s="122"/>
+      <c r="A264" s="129"/>
+      <c r="B264" s="129"/>
       <c r="C264" s="41"/>
       <c r="D264" s="41"/>
       <c r="F264" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="H264" s="38" t="s">
         <v>287</v>
-      </c>
-      <c r="H264" s="38" t="s">
-        <v>288</v>
       </c>
       <c r="I264" s="39"/>
       <c r="J264" s="39"/>
       <c r="K264" s="40"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="122"/>
-      <c r="B265" s="122"/>
+      <c r="A265" s="129"/>
+      <c r="B265" s="129"/>
       <c r="C265" s="41"/>
       <c r="D265" s="41"/>
       <c r="F265" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H265" s="38"/>
       <c r="I265" s="39"/>
@@ -7336,14 +7330,14 @@
       <c r="K265" s="40"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="122"/>
-      <c r="B266" s="122"/>
+      <c r="A266" s="129"/>
+      <c r="B266" s="129"/>
       <c r="C266" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D266" s="41"/>
       <c r="F266" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H266" s="38"/>
       <c r="I266" s="39"/>
@@ -7351,27 +7345,27 @@
       <c r="K266" s="40"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="122"/>
-      <c r="B267" s="122"/>
+      <c r="A267" s="129"/>
+      <c r="B267" s="129"/>
       <c r="C267" s="41"/>
       <c r="D267" s="41"/>
       <c r="F267" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="H267" s="38" t="s">
         <v>292</v>
-      </c>
-      <c r="H267" s="38" t="s">
-        <v>293</v>
       </c>
       <c r="I267" s="39"/>
       <c r="J267" s="39"/>
       <c r="K267" s="40"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="122"/>
-      <c r="B268" s="122"/>
+      <c r="A268" s="129"/>
+      <c r="B268" s="129"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
       <c r="F268" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H268" s="38"/>
       <c r="I268" s="39"/>
@@ -7379,10 +7373,10 @@
       <c r="K268" s="40"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="122"/>
-      <c r="B269" s="122"/>
+      <c r="A269" s="129"/>
+      <c r="B269" s="129"/>
       <c r="C269" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D269" s="41"/>
       <c r="F269" s="37"/>
@@ -7392,10 +7386,10 @@
       <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="122"/>
-      <c r="B270" s="123"/>
+      <c r="A270" s="129"/>
+      <c r="B270" s="130"/>
       <c r="C270" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D270" s="41"/>
       <c r="F270" s="37"/>
@@ -7405,9 +7399,9 @@
       <c r="K270" s="40"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="123"/>
+      <c r="A271" s="130"/>
       <c r="B271" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C271" s="41"/>
       <c r="D271" s="41"/>
@@ -7468,6 +7462,13 @@
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="C142:C157"/>
     <mergeCell ref="C258:C259"/>
+    <mergeCell ref="C158:C188"/>
+    <mergeCell ref="C189:C205"/>
+    <mergeCell ref="C206:C226"/>
+    <mergeCell ref="C239:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C228:C237"/>
     <mergeCell ref="D142:D143"/>
     <mergeCell ref="D145:D147"/>
     <mergeCell ref="D148:D149"/>
@@ -7480,14 +7481,7 @@
     <mergeCell ref="D158:D188"/>
     <mergeCell ref="D189:D205"/>
     <mergeCell ref="D206:D226"/>
-    <mergeCell ref="C158:C188"/>
-    <mergeCell ref="C189:C205"/>
-    <mergeCell ref="C206:C226"/>
     <mergeCell ref="D228:D237"/>
-    <mergeCell ref="C239:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C228:C237"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7529,694 +7523,694 @@
         <v>36</v>
       </c>
       <c r="C2" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G2" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="H2" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="I2" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="J2" s="65" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="215" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="213" t="s">
+      <c r="C3" s="192" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="D3" s="190" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="E3" s="170" t="s">
         <v>308</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="F3" s="190" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="G3" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="166" t="s">
         <v>310</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>521</v>
-      </c>
-      <c r="H3" s="164" t="s">
+      <c r="I3" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="J3" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="J3" s="69" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="215"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="69" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="213"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="69" t="s">
+      <c r="J4" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="215"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="J4" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="213"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="71" t="s">
+      <c r="E5" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="F5" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="G5" s="69" t="s">
+        <v>520</v>
+      </c>
+      <c r="H5" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>522</v>
-      </c>
-      <c r="H5" s="71" t="s">
+      <c r="I5" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="I5" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="213"/>
-      <c r="C6" s="200"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="202"/>
       <c r="D6" s="69" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>320</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>321</v>
       </c>
       <c r="G6" s="69"/>
       <c r="H6" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="J6" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="215"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="69" t="s">
         <v>323</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="213"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="69" t="s">
-        <v>324</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" s="69"/>
       <c r="H7" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="215"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="188" t="s">
         <v>326</v>
       </c>
-      <c r="I7" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="213"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="186" t="s">
+      <c r="E8" s="192" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="F8" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="G8" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="H8" s="168" t="s">
         <v>330</v>
       </c>
-      <c r="H8" s="166" t="s">
+      <c r="I8" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="J8" s="71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="215"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="J8" s="71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="213"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="71" t="s">
+      <c r="J9" s="71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="215"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="J9" s="71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="213"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="186" t="s">
+      <c r="E10" s="192" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="188" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="168" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="190" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="186" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="166" t="s">
+      <c r="I10" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="215"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="215"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="190" t="s">
         <v>335</v>
       </c>
-      <c r="I10" s="71" t="s">
-        <v>332</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="213"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="213"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="188" t="s">
+      <c r="E12" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="189" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="187" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="166" t="s">
         <v>337</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="164" t="s">
+      <c r="I12" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="J12" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="215"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="J12" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="213"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="73" t="s">
+      <c r="J13" s="69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="215"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="190" t="s">
         <v>340</v>
       </c>
-      <c r="J13" s="69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="213"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="188" t="s">
+      <c r="E14" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="190" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="F14" s="188" t="s">
+      <c r="G14" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="H14" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="164" t="s">
+      <c r="I14" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="215"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="69" t="s">
         <v>344</v>
       </c>
-      <c r="I14" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="213"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="69" t="s">
+      <c r="J15" s="69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="215"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="189" t="s">
         <v>345</v>
       </c>
-      <c r="J15" s="69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="213"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="187" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="170" t="s">
         <v>346</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="168" t="s">
+      <c r="I16" s="69" t="s">
         <v>347</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="J16" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="215"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="J16" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="213"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="76" t="s">
+      <c r="H17" s="171"/>
+      <c r="I17" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="215"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="169"/>
-      <c r="I17" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="213"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="76" t="s">
+      <c r="H18" s="171"/>
+      <c r="I18" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="H18" s="169"/>
-      <c r="I18" s="69" t="s">
+      <c r="J18" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="215"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="J18" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="213"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="69" t="s">
+      <c r="J19" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="J19" s="69" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="215"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="69" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="213"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="69" t="s">
+      <c r="J20" s="69" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="216" t="s">
         <v>354</v>
       </c>
-      <c r="J20" s="69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="214" t="s">
+      <c r="C21" s="194" t="s">
         <v>355</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="D21" s="181" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="E21" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="F21" s="181" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="179" t="s">
+      <c r="G21" s="181"/>
+      <c r="H21" s="173" t="s">
         <v>359</v>
       </c>
-      <c r="G21" s="179"/>
-      <c r="H21" s="171" t="s">
+      <c r="I21" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="J21" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="216"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="214"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="77" t="s">
+      <c r="J22" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="216"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="J22" s="77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="214"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="77" t="s">
+      <c r="J23" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="216"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="J23" s="77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="214"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="77" t="s">
+      <c r="J24" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="216"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="181" t="s">
         <v>364</v>
       </c>
-      <c r="J24" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="214"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="179" t="s">
+      <c r="E25" s="173" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="F25" s="186" t="s">
         <v>366</v>
       </c>
-      <c r="F25" s="184" t="s">
+      <c r="G25" s="78"/>
+      <c r="H25" s="173" t="s">
         <v>367</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="171" t="s">
+      <c r="I25" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="J25" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="216"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="216"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="J25" s="77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="214"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="J26" s="77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="214"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="77" t="s">
+      <c r="J27" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="216"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="181" t="s">
         <v>370</v>
       </c>
-      <c r="J27" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="214"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="179" t="s">
+      <c r="E28" s="173" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="181" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="171" t="s">
-        <v>366</v>
-      </c>
-      <c r="F28" s="179" t="s">
+      <c r="G28" s="81"/>
+      <c r="H28" s="176" t="s">
         <v>372</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="174" t="s">
+      <c r="I28" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="J28" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="216"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="77" t="s">
         <v>374</v>
       </c>
-      <c r="J28" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="214"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="77" t="s">
+      <c r="J29" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="216"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="J29" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="214"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="77" t="s">
+      <c r="J30" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="216"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="J30" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="214"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="77" t="s">
+      <c r="J31" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="216"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="J31" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="214"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="77" t="s">
+      <c r="J32" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B33" s="216"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="J32" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="214"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B34" s="216"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="J33" s="77" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="214"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="84" t="s">
+      <c r="E34" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F34" s="84" t="s">
         <v>380</v>
       </c>
-      <c r="E34" s="85" t="s">
-        <v>366</v>
-      </c>
-      <c r="F34" s="84" t="s">
+      <c r="G34" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="H34" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="I34" s="84" t="s">
         <v>383</v>
       </c>
-      <c r="I34" s="84" t="s">
+      <c r="J34" s="84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B35" s="216"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="187" t="s">
         <v>384</v>
       </c>
-      <c r="J34" s="84" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="214"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="185" t="s">
+      <c r="E35" s="194" t="s">
         <v>385</v>
       </c>
-      <c r="E35" s="192" t="s">
+      <c r="F35" s="187" t="s">
         <v>386</v>
       </c>
-      <c r="F35" s="185" t="s">
+      <c r="G35" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="H35" s="179" t="s">
         <v>388</v>
       </c>
-      <c r="H35" s="177" t="s">
+      <c r="I35" s="84" t="s">
         <v>389</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="J35" s="84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B36" s="216"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="J35" s="84" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="214"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="83" t="s">
+      <c r="H36" s="180"/>
+      <c r="I36" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="H36" s="178"/>
-      <c r="I36" s="84" t="s">
-        <v>392</v>
-      </c>
       <c r="J36" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="86"/>
-      <c r="B37" s="214"/>
-      <c r="C37" s="201"/>
+      <c r="B37" s="216"/>
+      <c r="C37" s="203"/>
       <c r="D37" s="84" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E37" s="85"/>
       <c r="F37" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="87" t="s">
         <v>394</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="H37" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="I37" s="84" t="s">
         <v>396</v>
       </c>
-      <c r="I37" s="84" t="s">
-        <v>397</v>
-      </c>
       <c r="J37" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
@@ -8236,28 +8230,28 @@
     </row>
     <row r="38" spans="1:25" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="86"/>
-      <c r="B38" s="215"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="179" t="s">
-        <v>341</v>
-      </c>
-      <c r="E38" s="179" t="s">
-        <v>366</v>
-      </c>
-      <c r="F38" s="179" t="s">
+      <c r="B38" s="217"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="181" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="181" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="181" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="181" t="s">
+        <v>517</v>
+      </c>
+      <c r="H38" s="181" t="s">
+        <v>518</v>
+      </c>
+      <c r="I38" s="84" t="s">
         <v>398</v>
       </c>
-      <c r="G38" s="179" t="s">
-        <v>519</v>
-      </c>
-      <c r="H38" s="179" t="s">
-        <v>520</v>
-      </c>
-      <c r="I38" s="84" t="s">
-        <v>399</v>
-      </c>
       <c r="J38" s="84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
@@ -8277,18 +8271,18 @@
     </row>
     <row r="39" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86"/>
-      <c r="B39" s="215"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
+      <c r="B39" s="217"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
       <c r="I39" s="84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J39" s="84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
@@ -8308,18 +8302,18 @@
     </row>
     <row r="40" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="86"/>
-      <c r="B40" s="215"/>
-      <c r="C40" s="203"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
+      <c r="B40" s="217"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
       <c r="I40" s="84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
@@ -8338,32 +8332,32 @@
       <c r="Y40" s="86"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="216" t="s">
+      <c r="B41" s="218" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="206" t="s">
         <v>402</v>
       </c>
-      <c r="C41" s="204" t="s">
+      <c r="D41" s="219" t="s">
         <v>403</v>
       </c>
-      <c r="D41" s="217" t="s">
+      <c r="E41" s="196" t="s">
         <v>404</v>
       </c>
-      <c r="E41" s="194" t="s">
+      <c r="F41" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="F41" s="162" t="s">
+      <c r="G41" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="G41" s="180" t="s">
+      <c r="H41" s="182" t="s">
         <v>407</v>
       </c>
-      <c r="H41" s="180" t="s">
+      <c r="I41" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="I41" s="89" t="s">
-        <v>409</v>
-      </c>
       <c r="J41" s="89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K41" s="86"/>
       <c r="L41" s="86"/>
@@ -8382,18 +8376,18 @@
       <c r="Y41" s="86"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="216"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="217"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
+      <c r="B42" s="218"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
       <c r="I42" s="89" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J42" s="89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
@@ -8412,274 +8406,274 @@
       <c r="Y42" s="86"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="216"/>
-      <c r="C43" s="205"/>
+      <c r="B43" s="218"/>
+      <c r="C43" s="207"/>
       <c r="D43" s="90" t="s">
+        <v>410</v>
+      </c>
+      <c r="E43" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="F43" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="G43" s="89" t="s">
+        <v>521</v>
+      </c>
+      <c r="H43" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="G43" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="H43" s="90" t="s">
+      <c r="I43" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="I43" s="90" t="s">
+      <c r="J43" s="90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="218"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="J43" s="90" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="216"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="89" t="s">
+      <c r="E44" s="92" t="s">
+        <v>505</v>
+      </c>
+      <c r="F44" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="E44" s="92" t="s">
-        <v>507</v>
-      </c>
-      <c r="F44" s="92" t="s">
+      <c r="G44" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="G44" s="92" t="s">
+      <c r="H44" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="H44" s="89" t="s">
+      <c r="I44" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="J44" s="90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B45" s="200" t="s">
         <v>420</v>
       </c>
-      <c r="J44" s="90" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="198" t="s">
+      <c r="C45" s="209" t="s">
         <v>421</v>
       </c>
-      <c r="C45" s="207" t="s">
+      <c r="D45" s="93" t="s">
         <v>422</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="E45" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="F45" s="93" t="s">
         <v>424</v>
       </c>
-      <c r="F45" s="93" t="s">
+      <c r="G45" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="H45" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="H45" s="93" t="s">
+      <c r="I45" s="93" t="s">
         <v>427</v>
       </c>
-      <c r="I45" s="93" t="s">
+      <c r="J45" s="93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B46" s="200"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="93" t="s">
         <v>428</v>
       </c>
-      <c r="J45" s="93" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="198"/>
-      <c r="C46" s="208"/>
-      <c r="D46" s="93" t="s">
+      <c r="E46" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="E46" s="94" t="s">
+      <c r="F46" s="93" t="s">
         <v>430</v>
-      </c>
-      <c r="F46" s="93" t="s">
-        <v>431</v>
       </c>
       <c r="G46" s="95"/>
       <c r="H46" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B47" s="200"/>
+      <c r="C47" s="210"/>
+      <c r="D47" s="191" t="s">
         <v>432</v>
       </c>
-      <c r="I46" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" s="93" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="198"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="189" t="s">
+      <c r="E47" s="198" t="s">
+        <v>423</v>
+      </c>
+      <c r="F47" s="165" t="s">
         <v>433</v>
       </c>
-      <c r="E47" s="196" t="s">
-        <v>424</v>
-      </c>
-      <c r="F47" s="163" t="s">
+      <c r="G47" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="G47" s="96" t="s">
+      <c r="H47" s="184" t="s">
         <v>435</v>
       </c>
-      <c r="H47" s="182" t="s">
+      <c r="I47" s="93" t="s">
         <v>436</v>
       </c>
-      <c r="I47" s="93" t="s">
+      <c r="J47" s="93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B48" s="200"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="97" t="s">
         <v>437</v>
       </c>
-      <c r="J47" s="93" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="198"/>
-      <c r="C48" s="209"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="197"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="97" t="s">
+      <c r="H48" s="185"/>
+      <c r="I48" s="93" t="s">
         <v>438</v>
       </c>
-      <c r="H48" s="183"/>
-      <c r="I48" s="93" t="s">
+      <c r="J48" s="93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="201" t="s">
         <v>439</v>
       </c>
-      <c r="J48" s="93" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="199" t="s">
+      <c r="C49" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="C49" s="210" t="s">
+      <c r="D49" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="98" t="s">
+      <c r="E49" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="98" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="F49" s="98" t="s">
+      <c r="G49" s="100" t="s">
         <v>443</v>
       </c>
-      <c r="G49" s="100" t="s">
+      <c r="H49" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="H49" s="98" t="s">
+      <c r="I49" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="I49" s="98" t="s">
+      <c r="J49" s="98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="201"/>
+      <c r="C50" s="213"/>
+      <c r="D50" s="98" t="s">
         <v>446</v>
       </c>
-      <c r="J49" s="98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="199"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="98" t="s">
+      <c r="E50" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="98" t="s">
         <v>447</v>
       </c>
-      <c r="E50" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="F50" s="98" t="s">
+      <c r="G50" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="G50" s="100" t="s">
+      <c r="H50" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="H50" s="98" t="s">
+      <c r="I50" s="98" t="s">
         <v>450</v>
       </c>
-      <c r="I50" s="98" t="s">
+      <c r="J50" s="98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="201"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="J50" s="98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="199"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="98" t="s">
+      <c r="E51" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="98" t="s">
         <v>452</v>
-      </c>
-      <c r="E51" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="F51" s="98" t="s">
-        <v>453</v>
       </c>
       <c r="G51" s="100"/>
       <c r="H51" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="I51" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" s="98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="201"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="I51" s="98" t="s">
-        <v>453</v>
-      </c>
-      <c r="J51" s="98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="199"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="98" t="s">
+      <c r="E52" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="E52" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="F52" s="98" t="s">
+      <c r="G52" s="100" t="s">
+        <v>448</v>
+      </c>
+      <c r="H52" s="98" t="s">
         <v>456</v>
       </c>
-      <c r="G52" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="H52" s="98" t="s">
+      <c r="I52" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="I52" s="98" t="s">
+      <c r="J52" s="98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="201"/>
+      <c r="C53" s="214"/>
+      <c r="D53" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F53" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="J52" s="98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="199"/>
-      <c r="C53" s="212"/>
-      <c r="D53" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="98" t="s">
+      <c r="G53" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="100" t="s">
-        <v>460</v>
-      </c>
       <c r="H53" s="98" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I53" s="98" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J53" s="98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8786,690 +8780,690 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="227" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="225" t="s">
+      <c r="C3" s="223" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="D3" s="229" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="227" t="s">
+      <c r="E3" s="230" t="s">
         <v>308</v>
       </c>
-      <c r="E3" s="228" t="s">
+      <c r="F3" s="229" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="227" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="220" t="s">
         <v>310</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="218" t="s">
+      <c r="I3" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="J3" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="J3" s="54" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="54" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="225"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="54" t="s">
+      <c r="J4" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="227"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="225"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>316</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>317</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="I5" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="225"/>
-      <c r="C6" s="226"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="228"/>
       <c r="D6" s="54" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>320</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>321</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="J6" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="227"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="54" t="s">
         <v>323</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="225"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="54" t="s">
-        <v>324</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="227"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="222" t="s">
         <v>326</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="225"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="220" t="s">
+      <c r="E8" s="223" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="F8" s="222" t="s">
         <v>328</v>
       </c>
-      <c r="F8" s="220" t="s">
+      <c r="G8" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="H8" s="225" t="s">
         <v>330</v>
       </c>
-      <c r="H8" s="223" t="s">
+      <c r="I8" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="J8" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="227"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="J8" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="225"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="56" t="s">
+      <c r="J9" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="227"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="J9" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="225"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="220" t="s">
+      <c r="E10" s="223" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="222" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="225" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="221" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="220" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="223" t="s">
+      <c r="I10" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="227"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="227"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="229" t="s">
         <v>335</v>
       </c>
-      <c r="I10" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="225"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="225"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="227" t="s">
+      <c r="E12" s="230" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="233" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="228" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="231" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="220" t="s">
         <v>337</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="218" t="s">
+      <c r="I12" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="J12" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="227"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="J12" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="225"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="58" t="s">
+      <c r="J13" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="227"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="229" t="s">
         <v>340</v>
       </c>
-      <c r="J13" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="225"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="227" t="s">
+      <c r="E14" s="230" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="229" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="228" t="s">
-        <v>328</v>
-      </c>
-      <c r="F14" s="227" t="s">
+      <c r="G14" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="H14" s="220" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="218" t="s">
+      <c r="I14" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="227"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="225"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="54" t="s">
+      <c r="J15" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="227"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="233" t="s">
         <v>345</v>
       </c>
-      <c r="J15" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="225"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="231" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="230" t="s">
         <v>346</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="228" t="s">
+      <c r="I16" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="J16" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="227"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="J16" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="225"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="231"/>
-      <c r="G17" s="61" t="s">
+      <c r="H17" s="232"/>
+      <c r="I17" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="227"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="230"/>
-      <c r="I17" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="225"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="231"/>
-      <c r="G18" s="61" t="s">
+      <c r="H18" s="232"/>
+      <c r="I18" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="H18" s="230"/>
-      <c r="I18" s="54" t="s">
+      <c r="J18" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="227"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="J18" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="225"/>
-      <c r="C19" s="226"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="54" t="s">
+      <c r="J19" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="J19" s="54" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="227"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="54" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="225"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="54" t="s">
+      <c r="J20" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="J20" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="233" t="s">
+      <c r="C21" s="223" t="s">
         <v>355</v>
       </c>
-      <c r="C21" s="221" t="s">
+      <c r="D21" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="227" t="s">
+      <c r="E21" s="229" t="s">
         <v>357</v>
       </c>
-      <c r="E21" s="227" t="s">
+      <c r="F21" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="F21" s="227" t="s">
+      <c r="G21" s="229"/>
+      <c r="H21" s="230" t="s">
         <v>359</v>
       </c>
-      <c r="G21" s="227"/>
-      <c r="H21" s="228" t="s">
+      <c r="I21" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="J21" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="235"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="233"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="54" t="s">
+      <c r="J22" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="235"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="J22" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="233"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="54" t="s">
+      <c r="J23" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="235"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="J23" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="233"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="227"/>
-      <c r="F24" s="227"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="229"/>
-      <c r="I24" s="54" t="s">
+      <c r="J24" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="235"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="229" t="s">
         <v>364</v>
       </c>
-      <c r="J24" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="233"/>
-      <c r="C25" s="226"/>
-      <c r="D25" s="227" t="s">
+      <c r="E25" s="230" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="228" t="s">
+      <c r="F25" s="233" t="s">
         <v>366</v>
       </c>
-      <c r="F25" s="231" t="s">
+      <c r="G25" s="59"/>
+      <c r="H25" s="230" t="s">
         <v>367</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="228" t="s">
+      <c r="I25" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="J25" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="235"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="235"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="J25" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="233"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="233"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="54" t="s">
+      <c r="J27" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="235"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229" t="s">
         <v>370</v>
       </c>
-      <c r="J27" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="233"/>
-      <c r="C28" s="226"/>
-      <c r="D28" s="227" t="s">
+      <c r="E28" s="230" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="229" t="s">
         <v>371</v>
       </c>
-      <c r="E28" s="228" t="s">
-        <v>366</v>
-      </c>
-      <c r="F28" s="227" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="220" t="s">
         <v>372</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="218" t="s">
+      <c r="I28" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="J28" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="235"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="J28" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="233"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="232"/>
-      <c r="I29" s="54" t="s">
+      <c r="J29" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="235"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="229"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="234"/>
+      <c r="I30" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="J29" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="233"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="232"/>
-      <c r="I30" s="54" t="s">
+      <c r="J30" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="235"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="229"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="234"/>
+      <c r="I31" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="J30" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="233"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="232"/>
-      <c r="I31" s="54" t="s">
+      <c r="J31" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="235"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="234"/>
+      <c r="I32" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="J31" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="233"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="232"/>
-      <c r="I32" s="54" t="s">
+      <c r="J32" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B33" s="235"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="J32" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="233"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B34" s="235"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="J33" s="54" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="233"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="56" t="s">
+      <c r="E34" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="F34" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="E34" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="F34" s="56" t="s">
+      <c r="G34" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="H34" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="I34" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="J34" s="56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B35" s="235"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="222" t="s">
         <v>384</v>
       </c>
-      <c r="J34" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="233"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="220" t="s">
+      <c r="E35" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="E35" s="221" t="s">
+      <c r="F35" s="222" t="s">
         <v>386</v>
       </c>
-      <c r="F35" s="220" t="s">
+      <c r="G35" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="H35" s="225" t="s">
         <v>388</v>
       </c>
-      <c r="H35" s="223" t="s">
+      <c r="I35" s="56" t="s">
         <v>389</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="J35" s="56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B36" s="235"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="J35" s="56" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="233"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="55" t="s">
+      <c r="H36" s="226"/>
+      <c r="I36" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="H36" s="224"/>
-      <c r="I36" s="56" t="s">
-        <v>392</v>
-      </c>
       <c r="J36" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
-      <c r="B37" s="233"/>
-      <c r="C37" s="226"/>
+      <c r="B37" s="235"/>
+      <c r="C37" s="228"/>
       <c r="D37" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="H37" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="I37" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="I37" s="56" t="s">
-        <v>397</v>
-      </c>
       <c r="J37" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
@@ -9489,28 +9483,28 @@
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="227" t="s">
-        <v>341</v>
-      </c>
-      <c r="E38" s="227" t="s">
-        <v>366</v>
-      </c>
-      <c r="F38" s="227" t="s">
+      <c r="B38" s="235"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="229" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="229" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="229" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="229" t="s">
+        <v>517</v>
+      </c>
+      <c r="H38" s="229" t="s">
+        <v>518</v>
+      </c>
+      <c r="I38" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="G38" s="227" t="s">
-        <v>519</v>
-      </c>
-      <c r="H38" s="227" t="s">
-        <v>520</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>399</v>
-      </c>
       <c r="J38" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
@@ -9530,18 +9524,18 @@
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
-      <c r="B39" s="233"/>
-      <c r="C39" s="226"/>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="228"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="229"/>
       <c r="I39" s="56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J39" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
@@ -9561,18 +9555,18 @@
     </row>
     <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
-      <c r="B40" s="233"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
       <c r="I40" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
@@ -9591,32 +9585,32 @@
       <c r="Y40" s="52"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="225" t="s">
+      <c r="B41" s="227" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" s="223" t="s">
         <v>402</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="D41" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="D41" s="227" t="s">
+      <c r="E41" s="230" t="s">
         <v>404</v>
       </c>
-      <c r="E41" s="228" t="s">
+      <c r="F41" s="233" t="s">
         <v>405</v>
       </c>
-      <c r="F41" s="231" t="s">
+      <c r="G41" s="220" t="s">
         <v>406</v>
       </c>
-      <c r="G41" s="218" t="s">
+      <c r="H41" s="220" t="s">
         <v>407</v>
       </c>
-      <c r="H41" s="218" t="s">
+      <c r="I41" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>409</v>
-      </c>
       <c r="J41" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="52"/>
@@ -9635,18 +9629,18 @@
       <c r="Y41" s="52"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="225"/>
-      <c r="C42" s="226"/>
-      <c r="D42" s="227"/>
-      <c r="E42" s="229"/>
-      <c r="F42" s="231"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="219"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="231"/>
+      <c r="F42" s="233"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
       <c r="I42" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J42" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
@@ -9665,272 +9659,272 @@
       <c r="Y42" s="52"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="225"/>
-      <c r="C43" s="226"/>
+      <c r="B43" s="227"/>
+      <c r="C43" s="228"/>
       <c r="D43" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="E43" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="F43" s="56" t="s">
         <v>412</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>413</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="I43" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="J43" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="227"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="J43" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="225"/>
-      <c r="C44" s="222"/>
-      <c r="D44" s="54" t="s">
+      <c r="E44" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="F44" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="E44" s="58" t="s">
-        <v>507</v>
-      </c>
-      <c r="F44" s="58" t="s">
+      <c r="G44" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="H44" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="I44" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="I44" s="54" t="s">
+      <c r="J44" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B45" s="227" t="s">
         <v>420</v>
       </c>
-      <c r="J44" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="225" t="s">
+      <c r="C45" s="223" t="s">
         <v>421</v>
       </c>
-      <c r="C45" s="221" t="s">
+      <c r="D45" s="56" t="s">
         <v>422</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="E45" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="F45" s="56" t="s">
         <v>424</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="G45" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="H45" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="H45" s="56" t="s">
+      <c r="I45" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="I45" s="56" t="s">
+      <c r="J45" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B46" s="227"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="J45" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="225"/>
-      <c r="C46" s="226"/>
-      <c r="D46" s="56" t="s">
+      <c r="E46" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="F46" s="56" t="s">
         <v>430</v>
-      </c>
-      <c r="F46" s="56" t="s">
-        <v>431</v>
       </c>
       <c r="G46" s="54"/>
       <c r="H46" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="I46" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B47" s="227"/>
+      <c r="C47" s="228"/>
+      <c r="D47" s="229" t="s">
         <v>432</v>
       </c>
-      <c r="I46" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="225"/>
-      <c r="C47" s="226"/>
-      <c r="D47" s="227" t="s">
+      <c r="E47" s="230" t="s">
+        <v>423</v>
+      </c>
+      <c r="F47" s="222" t="s">
         <v>433</v>
       </c>
-      <c r="E47" s="228" t="s">
-        <v>424</v>
-      </c>
-      <c r="F47" s="220" t="s">
+      <c r="G47" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="G47" s="53" t="s">
+      <c r="H47" s="225" t="s">
         <v>435</v>
       </c>
-      <c r="H47" s="223" t="s">
+      <c r="I47" s="56" t="s">
         <v>436</v>
       </c>
-      <c r="I47" s="56" t="s">
+      <c r="J47" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B48" s="227"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="229"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="55" t="s">
         <v>437</v>
       </c>
-      <c r="J47" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="225"/>
-      <c r="C48" s="222"/>
-      <c r="D48" s="227"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="220"/>
-      <c r="G48" s="55" t="s">
+      <c r="H48" s="226"/>
+      <c r="I48" s="56" t="s">
         <v>438</v>
       </c>
-      <c r="H48" s="224"/>
-      <c r="I48" s="56" t="s">
+      <c r="J48" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="227" t="s">
         <v>439</v>
       </c>
-      <c r="J48" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="225" t="s">
+      <c r="C49" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="D49" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="56" t="s">
+      <c r="E49" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F49" s="56" t="s">
+      <c r="G49" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="H49" s="56" t="s">
         <v>444</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="I49" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="J49" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="227"/>
+      <c r="C50" s="228"/>
+      <c r="D50" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="J49" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="225"/>
-      <c r="C50" s="226"/>
-      <c r="D50" s="56" t="s">
+      <c r="E50" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="E50" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F50" s="56" t="s">
+      <c r="G50" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="G50" s="54" t="s">
+      <c r="H50" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="H50" s="56" t="s">
+      <c r="I50" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="I50" s="56" t="s">
+      <c r="J50" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="227"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="J50" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="225"/>
-      <c r="C51" s="226"/>
-      <c r="D51" s="56" t="s">
+      <c r="E51" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="56" t="s">
         <v>452</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>453</v>
       </c>
       <c r="G51" s="54"/>
       <c r="H51" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J51" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="227"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="I51" s="56" t="s">
-        <v>453</v>
-      </c>
-      <c r="J51" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="225"/>
-      <c r="C52" s="226"/>
-      <c r="D52" s="56" t="s">
+      <c r="E52" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="E52" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F52" s="56" t="s">
+      <c r="G52" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="H52" s="56" t="s">
         <v>456</v>
       </c>
-      <c r="G52" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="H52" s="56" t="s">
+      <c r="I52" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="I52" s="56" t="s">
+      <c r="J52" s="56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="227"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F53" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="J52" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="225"/>
-      <c r="C53" s="222"/>
-      <c r="D53" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="56" t="s">
+      <c r="G53" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="54" t="s">
-        <v>460</v>
-      </c>
       <c r="H53" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J53" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/03.指标管理/权益/指标定义表-权益类V1.2.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.2.xlsx
@@ -120,9 +120,6 @@
     <t>各类风险累计数量</t>
   </si>
   <si>
-    <t>各类风险近12个月的数量</t>
-  </si>
-  <si>
     <t>累计融资额</t>
   </si>
   <si>
@@ -1790,6 +1787,10 @@
   </si>
   <si>
     <t>近12个月，各个交易市场的利息，利息=回款金额-本金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史累计风险数量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2427,6 +2428,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2445,113 +2554,134 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2571,24 +2701,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2604,122 +2716,23 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,47 +2740,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3185,8 +3186,8 @@
   <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3240,13 +3241,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="122" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12"/>
@@ -3261,9 +3262,9 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
@@ -3278,9 +3279,9 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -3290,16 +3291,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -3309,16 +3310,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -3328,16 +3329,16 @@
         <v>17</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="160"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="161"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -3352,9 +3353,9 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="160"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="159" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="122" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
@@ -3364,16 +3365,16 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -3381,33 +3382,33 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="16" t="s">
@@ -3418,13 +3419,13 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="104" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="28" t="s">
@@ -3437,26 +3438,26 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="101" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="109" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="28" t="s">
@@ -3469,9 +3470,9 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="28" t="s">
@@ -3484,13 +3485,13 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="102" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
@@ -3499,9 +3500,9 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="161"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="28" t="s">
@@ -3514,9 +3515,9 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="159" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="122" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="12"/>
@@ -3531,9 +3532,9 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
@@ -3546,13 +3547,13 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
-        <v>32</v>
+      <c r="F20" s="104" t="s">
+        <v>556</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
@@ -3561,34 +3562,34 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="160"/>
-      <c r="B21" s="160"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="160"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="137" t="s">
-        <v>34</v>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="125" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -3597,13 +3598,13 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="160"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="138"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
@@ -3612,13 +3613,13 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="160"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -3627,13 +3628,13 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="160"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="138"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
@@ -3642,13 +3643,13 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="160"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="138"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
@@ -3657,13 +3658,13 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="160"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
@@ -3672,13 +3673,13 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="161"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="139"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
@@ -3687,57 +3688,57 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="159" t="s">
+      <c r="C29" s="107" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>44</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="138"/>
-      <c r="B30" s="160"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="138"/>
-      <c r="B31" s="160"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
@@ -3746,34 +3747,34 @@
       <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="138"/>
-      <c r="B32" s="160"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="138"/>
-      <c r="B33" s="160"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
@@ -3782,36 +3783,36 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="138"/>
-      <c r="B34" s="160"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="101" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="109" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="138"/>
-      <c r="B35" s="137" t="s">
+      <c r="A35" s="126"/>
+      <c r="B35" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="125" t="s">
         <v>52</v>
-      </c>
-      <c r="C35" s="137" t="s">
-        <v>53</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
@@ -3820,16 +3821,16 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="138"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="12"/>
@@ -3837,32 +3838,32 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="138"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="126"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="125" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="138"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="137" t="s">
-        <v>58</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
-        <v>35</v>
+      <c r="F38" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
@@ -3871,13 +3872,13 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="138"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
-        <v>59</v>
+      <c r="F39" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
@@ -3886,13 +3887,13 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="138"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
-        <v>36</v>
+      <c r="F40" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
@@ -3901,13 +3902,13 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
-        <v>37</v>
+      <c r="F41" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
@@ -3916,13 +3917,13 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="138"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>60</v>
+      <c r="F42" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="13"/>
@@ -3931,13 +3932,13 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
-        <v>61</v>
+      <c r="F43" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
@@ -3946,13 +3947,13 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="138"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>62</v>
+      <c r="F44" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
@@ -3961,12 +3962,12 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="138"/>
-      <c r="B45" s="137" t="s">
+      <c r="A45" s="126"/>
+      <c r="B45" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="128" t="s">
         <v>63</v>
-      </c>
-      <c r="C45" s="148" t="s">
-        <v>64</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -3978,67 +3979,67 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="138"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="149"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="138"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="149"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="138"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="150"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="126"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="128" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="138"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="148" t="s">
-        <v>73</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4047,117 +4048,117 @@
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="138"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="149"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="149"/>
+      <c r="A51" s="126"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="138"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="150"/>
+      <c r="A52" s="126"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="130"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
       <c r="K52" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="20" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="139"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="148" t="s">
+      <c r="C54" s="128" t="s">
         <v>80</v>
-      </c>
-      <c r="C54" s="148" t="s">
-        <v>81</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="149"/>
-      <c r="B55" s="149"/>
-      <c r="C55" s="149"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="13"/>
@@ -4166,13 +4167,13 @@
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="149"/>
-      <c r="B56" s="149"/>
-      <c r="C56" s="149"/>
+      <c r="A56" s="129"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="13"/>
@@ -4181,13 +4182,13 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="149"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="13"/>
@@ -4196,13 +4197,13 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="150"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="130"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
@@ -4211,15 +4212,15 @@
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="149"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="156" t="s">
-        <v>475</v>
+      <c r="A59" s="129"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="136" t="s">
+        <v>474</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
@@ -4228,100 +4229,100 @@
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="157"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="149"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="157"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="137"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="149"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="157"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="137"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="149"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="158"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="138"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="106" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="104"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="149"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="137" t="s">
-        <v>88</v>
+      <c r="A64" s="129"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="125" t="s">
+        <v>87</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="149"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="139"/>
+      <c r="A65" s="129"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="110"/>
@@ -4330,15 +4331,15 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="149"/>
-      <c r="B66" s="149"/>
-      <c r="C66" s="148" t="s">
-        <v>92</v>
+      <c r="A66" s="129"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="128" t="s">
+        <v>91</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="13"/>
@@ -4347,32 +4348,32 @@
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="149"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="150"/>
+      <c r="A67" s="129"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="130"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="149"/>
-      <c r="B68" s="149"/>
-      <c r="C68" s="148" t="s">
-        <v>95</v>
+      <c r="A68" s="129"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="128" t="s">
+        <v>94</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="13"/>
@@ -4381,13 +4382,13 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="149"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="150"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="130"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="13"/>
@@ -4396,15 +4397,15 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="149"/>
-      <c r="B70" s="149"/>
-      <c r="C70" s="148" t="s">
-        <v>98</v>
+      <c r="A70" s="129"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="128" t="s">
+        <v>97</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="13"/>
@@ -4413,13 +4414,13 @@
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="149"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="150"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="130"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
@@ -4428,15 +4429,15 @@
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="149"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="137" t="s">
-        <v>100</v>
+      <c r="A72" s="129"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="125" t="s">
+        <v>99</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
@@ -4445,13 +4446,13 @@
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="149"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="139"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
@@ -4460,15 +4461,15 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="149"/>
-      <c r="B74" s="149"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
       <c r="C74" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
@@ -4477,15 +4478,15 @@
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="149"/>
-      <c r="B75" s="149"/>
-      <c r="C75" s="153" t="s">
-        <v>484</v>
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="139" t="s">
+        <v>483</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
@@ -4494,32 +4495,32 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="149"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="139"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="149"/>
-      <c r="B77" s="149"/>
-      <c r="C77" s="137" t="s">
-        <v>103</v>
+      <c r="A77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="125" t="s">
+        <v>102</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
@@ -4528,13 +4529,13 @@
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="149"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="139"/>
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
@@ -4543,15 +4544,15 @@
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="149"/>
-      <c r="B79" s="149"/>
-      <c r="C79" s="154" t="s">
-        <v>483</v>
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="140" t="s">
+        <v>482</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
@@ -4560,13 +4561,13 @@
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="149"/>
-      <c r="B80" s="150"/>
-      <c r="C80" s="155"/>
+      <c r="A80" s="129"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="141"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
@@ -4575,17 +4576,17 @@
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="149"/>
-      <c r="B81" s="148" t="s">
+      <c r="A81" s="129"/>
+      <c r="B81" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="125" t="s">
         <v>106</v>
-      </c>
-      <c r="C81" s="137" t="s">
-        <v>107</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
@@ -4594,49 +4595,49 @@
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="149"/>
-      <c r="B82" s="149"/>
-      <c r="C82" s="138"/>
+      <c r="A82" s="129"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="111" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="15"/>
     </row>
     <row r="83" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="149"/>
-      <c r="B83" s="149"/>
-      <c r="C83" s="139"/>
+      <c r="A83" s="129"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="112" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="15"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="149"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="148" t="s">
-        <v>110</v>
+      <c r="A84" s="129"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="128" t="s">
+        <v>109</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
@@ -4645,13 +4646,13 @@
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="149"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="149"/>
+      <c r="A85" s="129"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="129"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
@@ -4660,13 +4661,13 @@
       <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="149"/>
-      <c r="B86" s="149"/>
-      <c r="C86" s="149"/>
+      <c r="A86" s="129"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="129"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
@@ -4675,34 +4676,34 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="149"/>
-      <c r="B87" s="149"/>
-      <c r="C87" s="150"/>
+      <c r="A87" s="129"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="130"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="I87" s="15" t="s">
         <v>489</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>490</v>
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="149"/>
-      <c r="B88" s="149"/>
-      <c r="C88" s="148" t="s">
-        <v>110</v>
+      <c r="A88" s="129"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="128" t="s">
+        <v>109</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="13"/>
@@ -4711,13 +4712,13 @@
       <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="149"/>
-      <c r="B89" s="149"/>
-      <c r="C89" s="149"/>
+      <c r="A89" s="129"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="129"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="13"/>
@@ -4726,13 +4727,13 @@
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="149"/>
-      <c r="B90" s="149"/>
-      <c r="C90" s="149"/>
+      <c r="A90" s="129"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="13"/>
@@ -4741,51 +4742,51 @@
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="149"/>
-      <c r="B91" s="149"/>
-      <c r="C91" s="150"/>
+      <c r="A91" s="129"/>
+      <c r="B91" s="129"/>
+      <c r="C91" s="130"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="149"/>
-      <c r="B92" s="149"/>
-      <c r="C92" s="152" t="s">
-        <v>493</v>
+      <c r="A92" s="129"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="142" t="s">
+        <v>492</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="149"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="132"/>
+      <c r="A93" s="129"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="143"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
@@ -4794,13 +4795,13 @@
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="149"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="132"/>
+      <c r="A94" s="129"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="143"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
@@ -4809,30 +4810,30 @@
       <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="149"/>
-      <c r="B95" s="149"/>
-      <c r="C95" s="132"/>
+      <c r="A95" s="129"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="143"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="109" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="149"/>
-      <c r="B96" s="149"/>
-      <c r="C96" s="132"/>
+      <c r="A96" s="129"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="143"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="13"/>
@@ -4841,13 +4842,13 @@
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="149"/>
-      <c r="B97" s="149"/>
-      <c r="C97" s="132"/>
+      <c r="A97" s="129"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="143"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="13"/>
@@ -4856,13 +4857,13 @@
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="149"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="132"/>
+      <c r="A98" s="129"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="143"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="13"/>
@@ -4871,13 +4872,13 @@
       <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="149"/>
-      <c r="B99" s="149"/>
-      <c r="C99" s="133"/>
+      <c r="A99" s="129"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="144"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="13"/>
@@ -4886,15 +4887,15 @@
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="149"/>
-      <c r="B100" s="149"/>
+      <c r="A100" s="129"/>
+      <c r="B100" s="129"/>
       <c r="C100" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
@@ -4903,49 +4904,49 @@
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="148" t="s">
-        <v>124</v>
+      <c r="A101" s="129"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="128" t="s">
+        <v>123</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="149"/>
-      <c r="B102" s="149"/>
-      <c r="C102" s="149"/>
+      <c r="A102" s="129"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="129"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
       <c r="K102" s="103"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="149"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="150"/>
+      <c r="A103" s="129"/>
+      <c r="B103" s="129"/>
+      <c r="C103" s="130"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="13"/>
@@ -4954,15 +4955,15 @@
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="149"/>
-      <c r="B104" s="149"/>
-      <c r="C104" s="148" t="s">
-        <v>128</v>
+      <c r="A104" s="129"/>
+      <c r="B104" s="129"/>
+      <c r="C104" s="128" t="s">
+        <v>127</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
@@ -4971,30 +4972,30 @@
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="149"/>
-      <c r="B105" s="149"/>
-      <c r="C105" s="149"/>
+      <c r="A105" s="129"/>
+      <c r="B105" s="129"/>
+      <c r="C105" s="129"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="106" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="149"/>
-      <c r="B106" s="149"/>
-      <c r="C106" s="150"/>
+      <c r="A106" s="129"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="130"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
@@ -5003,15 +5004,15 @@
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="149"/>
-      <c r="B107" s="149"/>
-      <c r="C107" s="148" t="s">
-        <v>131</v>
+      <c r="A107" s="129"/>
+      <c r="B107" s="129"/>
+      <c r="C107" s="128" t="s">
+        <v>130</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="13"/>
@@ -5020,30 +5021,30 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="149"/>
-      <c r="B108" s="149"/>
-      <c r="C108" s="149"/>
+      <c r="A108" s="129"/>
+      <c r="B108" s="129"/>
+      <c r="C108" s="129"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="149"/>
-      <c r="B109" s="149"/>
-      <c r="C109" s="150"/>
+      <c r="A109" s="129"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="130"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="13"/>
@@ -5052,10 +5053,10 @@
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="149"/>
-      <c r="B110" s="150"/>
+      <c r="A110" s="129"/>
+      <c r="B110" s="130"/>
       <c r="C110" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -5064,210 +5065,210 @@
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="149"/>
-      <c r="B111" s="148" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" s="151" t="s">
-        <v>499</v>
+      <c r="A111" s="129"/>
+      <c r="B111" s="128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="145" t="s">
+        <v>498</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="105" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
       <c r="K111" s="104" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="149"/>
-      <c r="B112" s="149"/>
-      <c r="C112" s="150"/>
+      <c r="A112" s="129"/>
+      <c r="B112" s="129"/>
+      <c r="C112" s="130"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="109" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="149"/>
-      <c r="B113" s="149"/>
+      <c r="A113" s="129"/>
+      <c r="B113" s="129"/>
       <c r="C113" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="149"/>
-      <c r="B114" s="149"/>
+      <c r="A114" s="129"/>
+      <c r="B114" s="129"/>
       <c r="C114" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="149"/>
-      <c r="B115" s="149"/>
+      <c r="A115" s="129"/>
+      <c r="B115" s="129"/>
       <c r="C115" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="12"/>
       <c r="K115" s="104" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="149"/>
-      <c r="B116" s="149"/>
+      <c r="A116" s="129"/>
+      <c r="B116" s="129"/>
       <c r="C116" s="104" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="12"/>
       <c r="K116" s="15"/>
     </row>
     <row r="117" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="149"/>
-      <c r="B117" s="149"/>
-      <c r="C117" s="148" t="s">
-        <v>143</v>
+      <c r="A117" s="129"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="128" t="s">
+        <v>142</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="105" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="113" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
       <c r="K117" s="115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="149"/>
-      <c r="B118" s="149"/>
-      <c r="C118" s="149"/>
+      <c r="A118" s="129"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="129"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="114" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G118" s="28"/>
       <c r="H118" s="106" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="28"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="149"/>
-      <c r="B119" s="149"/>
-      <c r="C119" s="149"/>
+      <c r="A119" s="129"/>
+      <c r="B119" s="129"/>
+      <c r="C119" s="129"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G119" s="28"/>
       <c r="H119" s="110"/>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
       <c r="K119" s="105" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="149"/>
-      <c r="B120" s="149"/>
-      <c r="C120" s="149"/>
+      <c r="A120" s="129"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="114" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G120" s="28"/>
       <c r="H120" s="110"/>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
       <c r="K120" s="105" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="149"/>
-      <c r="B121" s="149"/>
-      <c r="C121" s="149"/>
+      <c r="A121" s="129"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="129"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="105" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G121" s="28"/>
       <c r="H121" s="110"/>
@@ -5276,32 +5277,32 @@
       <c r="K121" s="105"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="149"/>
-      <c r="B122" s="149"/>
-      <c r="C122" s="150"/>
+      <c r="A122" s="129"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="130"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="109" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="149"/>
-      <c r="B123" s="149"/>
+      <c r="A123" s="129"/>
+      <c r="B123" s="129"/>
       <c r="C123" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="13"/>
@@ -5310,15 +5311,15 @@
       <c r="K123" s="12"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="149"/>
-      <c r="B124" s="149"/>
-      <c r="C124" s="131" t="s">
-        <v>549</v>
+      <c r="A124" s="129"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="146" t="s">
+        <v>548</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G124" s="116"/>
       <c r="H124" s="117"/>
@@ -5327,13 +5328,13 @@
       <c r="K124" s="118"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="149"/>
-      <c r="B125" s="149"/>
-      <c r="C125" s="132"/>
+      <c r="A125" s="129"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="143"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="106"/>
@@ -5342,51 +5343,51 @@
       <c r="K125" s="12"/>
     </row>
     <row r="126" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A126" s="149"/>
-      <c r="B126" s="149"/>
-      <c r="C126" s="133"/>
+      <c r="A126" s="129"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="144"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G126" s="116"/>
       <c r="H126" s="119" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I126" s="116"/>
       <c r="J126" s="116"/>
       <c r="K126" s="118" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="149"/>
-      <c r="B127" s="149"/>
-      <c r="C127" s="131" t="s">
-        <v>550</v>
+      <c r="A127" s="129"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="146" t="s">
+        <v>549</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="13"/>
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
       <c r="K127" s="118" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="149"/>
-      <c r="B128" s="149"/>
-      <c r="C128" s="132"/>
+      <c r="A128" s="129"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="143"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="13"/>
@@ -5395,49 +5396,49 @@
       <c r="K128" s="12"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="149"/>
-      <c r="B129" s="149"/>
-      <c r="C129" s="133"/>
+      <c r="A129" s="129"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="144"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="149"/>
-      <c r="B130" s="149"/>
-      <c r="C130" s="134" t="s">
-        <v>548</v>
+      <c r="A130" s="129"/>
+      <c r="B130" s="129"/>
+      <c r="C130" s="147" t="s">
+        <v>547</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="13"/>
       <c r="I130" s="12"/>
       <c r="J130" s="12"/>
       <c r="K130" s="118" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="149"/>
-      <c r="B131" s="149"/>
-      <c r="C131" s="135"/>
+      <c r="A131" s="129"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="148"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="13"/>
@@ -5446,72 +5447,72 @@
       <c r="K131" s="12"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="149"/>
-      <c r="B132" s="149"/>
-      <c r="C132" s="136"/>
+      <c r="A132" s="129"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="149"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="109" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I132" s="12"/>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
     </row>
     <row r="133" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="149"/>
-      <c r="B133" s="138" t="s">
+      <c r="A133" s="129"/>
+      <c r="B133" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="108" t="s">
         <v>149</v>
-      </c>
-      <c r="C133" s="108" t="s">
-        <v>150</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
       <c r="I133" s="121" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="149"/>
-      <c r="B134" s="138"/>
+      <c r="A134" s="129"/>
+      <c r="B134" s="126"/>
       <c r="C134" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="149"/>
-      <c r="B135" s="138"/>
+      <c r="A135" s="129"/>
+      <c r="B135" s="126"/>
       <c r="C135" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="13"/>
@@ -5520,29 +5521,29 @@
       <c r="K135" s="12"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="149"/>
-      <c r="B136" s="138"/>
+      <c r="A136" s="129"/>
+      <c r="B136" s="126"/>
       <c r="C136" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="149"/>
-      <c r="B137" s="139"/>
+      <c r="A137" s="129"/>
+      <c r="B137" s="127"/>
       <c r="C137" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -5554,17 +5555,17 @@
       <c r="K137" s="12"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="149"/>
-      <c r="B138" s="148" t="s">
+      <c r="A138" s="129"/>
+      <c r="B138" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="125" t="s">
         <v>160</v>
-      </c>
-      <c r="C138" s="137" t="s">
-        <v>161</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
@@ -5573,13 +5574,13 @@
       <c r="K138" s="12"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="149"/>
-      <c r="B139" s="149"/>
-      <c r="C139" s="138"/>
+      <c r="A139" s="129"/>
+      <c r="B139" s="129"/>
+      <c r="C139" s="126"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="13"/>
@@ -5588,13 +5589,13 @@
       <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="149"/>
-      <c r="B140" s="149"/>
-      <c r="C140" s="139"/>
+      <c r="A140" s="129"/>
+      <c r="B140" s="129"/>
+      <c r="C140" s="127"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="13"/>
@@ -5603,15 +5604,15 @@
       <c r="K140" s="12"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="150"/>
-      <c r="B141" s="150"/>
+      <c r="A141" s="130"/>
+      <c r="B141" s="130"/>
       <c r="C141" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="13"/>
@@ -5620,52 +5621,52 @@
       <c r="K141" s="12"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="162" t="s">
+      <c r="A142" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="B142" s="128" t="s">
+      <c r="C142" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" s="131" t="s">
         <v>168</v>
-      </c>
-      <c r="C142" s="140" t="s">
-        <v>168</v>
-      </c>
-      <c r="D142" s="128" t="s">
-        <v>169</v>
       </c>
       <c r="F142" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H142" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I142" s="29"/>
       <c r="J142" s="29"/>
       <c r="K142" s="19"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="163"/>
-      <c r="B143" s="129"/>
-      <c r="C143" s="141"/>
-      <c r="D143" s="130"/>
+      <c r="A143" s="135"/>
+      <c r="B143" s="132"/>
+      <c r="C143" s="151"/>
+      <c r="D143" s="133"/>
       <c r="F143" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H143" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I143" s="29"/>
       <c r="J143" s="29"/>
       <c r="K143" s="19"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="163"/>
-      <c r="B144" s="129"/>
-      <c r="C144" s="141"/>
+      <c r="A144" s="135"/>
+      <c r="B144" s="132"/>
+      <c r="C144" s="151"/>
       <c r="D144" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F144" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="F144" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="29"/>
@@ -5673,14 +5674,14 @@
       <c r="K144" s="19"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="163"/>
-      <c r="B145" s="129"/>
-      <c r="C145" s="141"/>
-      <c r="D145" s="128" t="s">
+      <c r="A145" s="135"/>
+      <c r="B145" s="132"/>
+      <c r="C145" s="151"/>
+      <c r="D145" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="F145" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="F145" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="29"/>
@@ -5688,12 +5689,12 @@
       <c r="K145" s="19"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="163"/>
-      <c r="B146" s="129"/>
-      <c r="C146" s="141"/>
-      <c r="D146" s="129"/>
+      <c r="A146" s="135"/>
+      <c r="B146" s="132"/>
+      <c r="C146" s="151"/>
+      <c r="D146" s="132"/>
       <c r="F146" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="29"/>
@@ -5701,12 +5702,12 @@
       <c r="K146" s="19"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="163"/>
-      <c r="B147" s="129"/>
-      <c r="C147" s="141"/>
-      <c r="D147" s="130"/>
+      <c r="A147" s="135"/>
+      <c r="B147" s="132"/>
+      <c r="C147" s="151"/>
+      <c r="D147" s="133"/>
       <c r="F147" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="29"/>
@@ -5714,29 +5715,29 @@
       <c r="K147" s="19"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="163"/>
-      <c r="B148" s="129"/>
-      <c r="C148" s="141"/>
-      <c r="D148" s="128" t="s">
+      <c r="A148" s="135"/>
+      <c r="B148" s="132"/>
+      <c r="C148" s="151"/>
+      <c r="D148" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F148" s="20" t="s">
+      <c r="H148" s="31" t="s">
         <v>178</v>
-      </c>
-      <c r="H148" s="31" t="s">
-        <v>179</v>
       </c>
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
       <c r="K148" s="19"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="163"/>
-      <c r="B149" s="129"/>
-      <c r="C149" s="141"/>
-      <c r="D149" s="130"/>
+      <c r="A149" s="135"/>
+      <c r="B149" s="132"/>
+      <c r="C149" s="151"/>
+      <c r="D149" s="133"/>
       <c r="F149" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="29"/>
@@ -5744,14 +5745,14 @@
       <c r="K149" s="32"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="163"/>
-      <c r="B150" s="129"/>
-      <c r="C150" s="141"/>
-      <c r="D150" s="128" t="s">
+      <c r="A150" s="135"/>
+      <c r="B150" s="132"/>
+      <c r="C150" s="151"/>
+      <c r="D150" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="F150" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="29"/>
@@ -5759,29 +5760,29 @@
       <c r="K150" s="19"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="163"/>
-      <c r="B151" s="129"/>
-      <c r="C151" s="141"/>
-      <c r="D151" s="130"/>
+      <c r="A151" s="135"/>
+      <c r="B151" s="132"/>
+      <c r="C151" s="151"/>
+      <c r="D151" s="133"/>
       <c r="F151" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J151" s="33"/>
       <c r="K151" s="19"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="163"/>
-      <c r="B152" s="129"/>
-      <c r="C152" s="141"/>
-      <c r="D152" s="128" t="s">
+      <c r="A152" s="135"/>
+      <c r="B152" s="132"/>
+      <c r="C152" s="151"/>
+      <c r="D152" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="F152" s="20" t="s">
         <v>184</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="33"/>
@@ -5789,12 +5790,12 @@
       <c r="K152" s="19"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="163"/>
-      <c r="B153" s="129"/>
-      <c r="C153" s="141"/>
-      <c r="D153" s="129"/>
+      <c r="A153" s="135"/>
+      <c r="B153" s="132"/>
+      <c r="C153" s="151"/>
+      <c r="D153" s="132"/>
       <c r="F153" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="33"/>
@@ -5802,12 +5803,12 @@
       <c r="K153" s="19"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="163"/>
-      <c r="B154" s="129"/>
-      <c r="C154" s="141"/>
-      <c r="D154" s="129"/>
+      <c r="A154" s="135"/>
+      <c r="B154" s="132"/>
+      <c r="C154" s="151"/>
+      <c r="D154" s="132"/>
       <c r="F154" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="33"/>
@@ -5815,12 +5816,12 @@
       <c r="K154" s="19"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="163"/>
-      <c r="B155" s="129"/>
-      <c r="C155" s="141"/>
-      <c r="D155" s="129"/>
+      <c r="A155" s="135"/>
+      <c r="B155" s="132"/>
+      <c r="C155" s="151"/>
+      <c r="D155" s="132"/>
       <c r="F155" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="33"/>
@@ -5828,12 +5829,12 @@
       <c r="K155" s="19"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="163"/>
-      <c r="B156" s="129"/>
-      <c r="C156" s="141"/>
-      <c r="D156" s="129"/>
+      <c r="A156" s="135"/>
+      <c r="B156" s="132"/>
+      <c r="C156" s="151"/>
+      <c r="D156" s="132"/>
       <c r="F156" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="33"/>
@@ -5841,12 +5842,12 @@
       <c r="K156" s="19"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="163"/>
-      <c r="B157" s="129"/>
-      <c r="C157" s="142"/>
-      <c r="D157" s="130"/>
+      <c r="A157" s="135"/>
+      <c r="B157" s="132"/>
+      <c r="C157" s="152"/>
+      <c r="D157" s="133"/>
       <c r="F157" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="33"/>
@@ -5854,16 +5855,16 @@
       <c r="K157" s="34"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="163"/>
-      <c r="B158" s="129"/>
-      <c r="C158" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="D158" s="128" t="s">
-        <v>190</v>
+      <c r="A158" s="135"/>
+      <c r="B158" s="132"/>
+      <c r="C158" s="155" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" s="131" t="s">
+        <v>189</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="29"/>
@@ -5871,12 +5872,12 @@
       <c r="K158" s="19"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="163"/>
-      <c r="B159" s="129"/>
-      <c r="C159" s="146"/>
-      <c r="D159" s="129"/>
+      <c r="A159" s="135"/>
+      <c r="B159" s="132"/>
+      <c r="C159" s="156"/>
+      <c r="D159" s="132"/>
       <c r="F159" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="29"/>
@@ -5884,12 +5885,12 @@
       <c r="K159" s="19"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="163"/>
-      <c r="B160" s="129"/>
-      <c r="C160" s="146"/>
-      <c r="D160" s="129"/>
+      <c r="A160" s="135"/>
+      <c r="B160" s="132"/>
+      <c r="C160" s="156"/>
+      <c r="D160" s="132"/>
       <c r="F160" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="29"/>
@@ -5897,12 +5898,12 @@
       <c r="K160" s="19"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="163"/>
-      <c r="B161" s="129"/>
-      <c r="C161" s="146"/>
-      <c r="D161" s="129"/>
+      <c r="A161" s="135"/>
+      <c r="B161" s="132"/>
+      <c r="C161" s="156"/>
+      <c r="D161" s="132"/>
       <c r="F161" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="29"/>
@@ -5910,12 +5911,12 @@
       <c r="K161" s="19"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="163"/>
-      <c r="B162" s="129"/>
-      <c r="C162" s="146"/>
-      <c r="D162" s="129"/>
+      <c r="A162" s="135"/>
+      <c r="B162" s="132"/>
+      <c r="C162" s="156"/>
+      <c r="D162" s="132"/>
       <c r="F162" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="29"/>
@@ -5923,12 +5924,12 @@
       <c r="K162" s="19"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="163"/>
-      <c r="B163" s="129"/>
-      <c r="C163" s="146"/>
-      <c r="D163" s="129"/>
+      <c r="A163" s="135"/>
+      <c r="B163" s="132"/>
+      <c r="C163" s="156"/>
+      <c r="D163" s="132"/>
       <c r="F163" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H163" s="22"/>
       <c r="I163" s="29"/>
@@ -5936,12 +5937,12 @@
       <c r="K163" s="19"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="163"/>
-      <c r="B164" s="129"/>
-      <c r="C164" s="146"/>
-      <c r="D164" s="129"/>
+      <c r="A164" s="135"/>
+      <c r="B164" s="132"/>
+      <c r="C164" s="156"/>
+      <c r="D164" s="132"/>
       <c r="F164" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="29"/>
@@ -5949,12 +5950,12 @@
       <c r="K164" s="19"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="163"/>
-      <c r="B165" s="129"/>
-      <c r="C165" s="146"/>
-      <c r="D165" s="129"/>
+      <c r="A165" s="135"/>
+      <c r="B165" s="132"/>
+      <c r="C165" s="156"/>
+      <c r="D165" s="132"/>
       <c r="F165" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="29"/>
@@ -5962,12 +5963,12 @@
       <c r="K165" s="19"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="163"/>
-      <c r="B166" s="129"/>
-      <c r="C166" s="146"/>
-      <c r="D166" s="129"/>
+      <c r="A166" s="135"/>
+      <c r="B166" s="132"/>
+      <c r="C166" s="156"/>
+      <c r="D166" s="132"/>
       <c r="F166" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="29"/>
@@ -5975,12 +5976,12 @@
       <c r="K166" s="19"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="163"/>
-      <c r="B167" s="129"/>
-      <c r="C167" s="146"/>
-      <c r="D167" s="129"/>
+      <c r="A167" s="135"/>
+      <c r="B167" s="132"/>
+      <c r="C167" s="156"/>
+      <c r="D167" s="132"/>
       <c r="F167" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="29"/>
@@ -5988,12 +5989,12 @@
       <c r="K167" s="19"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="163"/>
-      <c r="B168" s="129"/>
-      <c r="C168" s="146"/>
-      <c r="D168" s="129"/>
+      <c r="A168" s="135"/>
+      <c r="B168" s="132"/>
+      <c r="C168" s="156"/>
+      <c r="D168" s="132"/>
       <c r="F168" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="29"/>
@@ -6001,12 +6002,12 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="163"/>
-      <c r="B169" s="129"/>
-      <c r="C169" s="146"/>
-      <c r="D169" s="129"/>
+      <c r="A169" s="135"/>
+      <c r="B169" s="132"/>
+      <c r="C169" s="156"/>
+      <c r="D169" s="132"/>
       <c r="F169" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="29"/>
@@ -6014,12 +6015,12 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="163"/>
-      <c r="B170" s="129"/>
-      <c r="C170" s="146"/>
-      <c r="D170" s="129"/>
+      <c r="A170" s="135"/>
+      <c r="B170" s="132"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="132"/>
       <c r="F170" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="29"/>
@@ -6027,12 +6028,12 @@
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="163"/>
-      <c r="B171" s="129"/>
-      <c r="C171" s="146"/>
-      <c r="D171" s="129"/>
+      <c r="A171" s="135"/>
+      <c r="B171" s="132"/>
+      <c r="C171" s="156"/>
+      <c r="D171" s="132"/>
       <c r="F171" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H171" s="22"/>
       <c r="I171" s="29"/>
@@ -6040,12 +6041,12 @@
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="163"/>
-      <c r="B172" s="129"/>
-      <c r="C172" s="146"/>
-      <c r="D172" s="129"/>
+      <c r="A172" s="135"/>
+      <c r="B172" s="132"/>
+      <c r="C172" s="156"/>
+      <c r="D172" s="132"/>
       <c r="F172" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H172" s="22"/>
       <c r="I172" s="29"/>
@@ -6053,12 +6054,12 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="163"/>
-      <c r="B173" s="129"/>
-      <c r="C173" s="146"/>
-      <c r="D173" s="129"/>
+      <c r="A173" s="135"/>
+      <c r="B173" s="132"/>
+      <c r="C173" s="156"/>
+      <c r="D173" s="132"/>
       <c r="F173" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H173" s="22"/>
       <c r="I173" s="29"/>
@@ -6066,12 +6067,12 @@
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="163"/>
-      <c r="B174" s="129"/>
-      <c r="C174" s="146"/>
-      <c r="D174" s="129"/>
+      <c r="A174" s="135"/>
+      <c r="B174" s="132"/>
+      <c r="C174" s="156"/>
+      <c r="D174" s="132"/>
       <c r="F174" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H174" s="22"/>
       <c r="I174" s="29"/>
@@ -6079,12 +6080,12 @@
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="163"/>
-      <c r="B175" s="129"/>
-      <c r="C175" s="146"/>
-      <c r="D175" s="129"/>
+      <c r="A175" s="135"/>
+      <c r="B175" s="132"/>
+      <c r="C175" s="156"/>
+      <c r="D175" s="132"/>
       <c r="F175" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H175" s="22"/>
       <c r="I175" s="29"/>
@@ -6092,12 +6093,12 @@
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="163"/>
-      <c r="B176" s="129"/>
-      <c r="C176" s="146"/>
-      <c r="D176" s="129"/>
+      <c r="A176" s="135"/>
+      <c r="B176" s="132"/>
+      <c r="C176" s="156"/>
+      <c r="D176" s="132"/>
       <c r="F176" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H176" s="22"/>
       <c r="I176" s="29"/>
@@ -6105,12 +6106,12 @@
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="163"/>
-      <c r="B177" s="129"/>
-      <c r="C177" s="146"/>
-      <c r="D177" s="129"/>
+      <c r="A177" s="135"/>
+      <c r="B177" s="132"/>
+      <c r="C177" s="156"/>
+      <c r="D177" s="132"/>
       <c r="F177" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H177" s="22"/>
       <c r="I177" s="29"/>
@@ -6118,12 +6119,12 @@
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="163"/>
-      <c r="B178" s="129"/>
-      <c r="C178" s="146"/>
-      <c r="D178" s="129"/>
+      <c r="A178" s="135"/>
+      <c r="B178" s="132"/>
+      <c r="C178" s="156"/>
+      <c r="D178" s="132"/>
       <c r="F178" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H178" s="22"/>
       <c r="I178" s="29"/>
@@ -6131,12 +6132,12 @@
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="163"/>
-      <c r="B179" s="129"/>
-      <c r="C179" s="146"/>
-      <c r="D179" s="129"/>
+      <c r="A179" s="135"/>
+      <c r="B179" s="132"/>
+      <c r="C179" s="156"/>
+      <c r="D179" s="132"/>
       <c r="F179" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H179" s="22"/>
       <c r="I179" s="29"/>
@@ -6144,12 +6145,12 @@
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="163"/>
-      <c r="B180" s="129"/>
-      <c r="C180" s="146"/>
-      <c r="D180" s="129"/>
+      <c r="A180" s="135"/>
+      <c r="B180" s="132"/>
+      <c r="C180" s="156"/>
+      <c r="D180" s="132"/>
       <c r="F180" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="29"/>
@@ -6157,12 +6158,12 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="163"/>
-      <c r="B181" s="129"/>
-      <c r="C181" s="146"/>
-      <c r="D181" s="129"/>
+      <c r="A181" s="135"/>
+      <c r="B181" s="132"/>
+      <c r="C181" s="156"/>
+      <c r="D181" s="132"/>
       <c r="F181" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H181" s="22"/>
       <c r="I181" s="29"/>
@@ -6170,12 +6171,12 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="163"/>
-      <c r="B182" s="129"/>
-      <c r="C182" s="146"/>
-      <c r="D182" s="129"/>
+      <c r="A182" s="135"/>
+      <c r="B182" s="132"/>
+      <c r="C182" s="156"/>
+      <c r="D182" s="132"/>
       <c r="F182" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H182" s="22"/>
       <c r="I182" s="29"/>
@@ -6183,12 +6184,12 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="163"/>
-      <c r="B183" s="129"/>
-      <c r="C183" s="146"/>
-      <c r="D183" s="129"/>
+      <c r="A183" s="135"/>
+      <c r="B183" s="132"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="132"/>
       <c r="F183" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H183" s="22"/>
       <c r="I183" s="29"/>
@@ -6196,12 +6197,12 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="163"/>
-      <c r="B184" s="129"/>
-      <c r="C184" s="146"/>
-      <c r="D184" s="129"/>
+      <c r="A184" s="135"/>
+      <c r="B184" s="132"/>
+      <c r="C184" s="156"/>
+      <c r="D184" s="132"/>
       <c r="F184" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H184" s="22"/>
       <c r="I184" s="29"/>
@@ -6209,12 +6210,12 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="163"/>
-      <c r="B185" s="129"/>
-      <c r="C185" s="146"/>
-      <c r="D185" s="129"/>
+      <c r="A185" s="135"/>
+      <c r="B185" s="132"/>
+      <c r="C185" s="156"/>
+      <c r="D185" s="132"/>
       <c r="F185" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H185" s="22"/>
       <c r="I185" s="29"/>
@@ -6222,12 +6223,12 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="163"/>
-      <c r="B186" s="129"/>
-      <c r="C186" s="146"/>
-      <c r="D186" s="129"/>
+      <c r="A186" s="135"/>
+      <c r="B186" s="132"/>
+      <c r="C186" s="156"/>
+      <c r="D186" s="132"/>
       <c r="F186" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H186" s="22"/>
       <c r="I186" s="29"/>
@@ -6235,12 +6236,12 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="163"/>
-      <c r="B187" s="129"/>
-      <c r="C187" s="146"/>
-      <c r="D187" s="129"/>
+      <c r="A187" s="135"/>
+      <c r="B187" s="132"/>
+      <c r="C187" s="156"/>
+      <c r="D187" s="132"/>
       <c r="F187" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H187" s="22"/>
       <c r="I187" s="29"/>
@@ -6248,12 +6249,12 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="163"/>
-      <c r="B188" s="129"/>
-      <c r="C188" s="147"/>
-      <c r="D188" s="130"/>
+      <c r="A188" s="135"/>
+      <c r="B188" s="132"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="133"/>
       <c r="F188" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H188" s="22"/>
       <c r="I188" s="29"/>
@@ -6261,16 +6262,16 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="163"/>
-      <c r="B189" s="129"/>
-      <c r="C189" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D189" s="128" t="s">
-        <v>221</v>
+      <c r="A189" s="135"/>
+      <c r="B189" s="132"/>
+      <c r="C189" s="155" t="s">
+        <v>220</v>
+      </c>
+      <c r="D189" s="131" t="s">
+        <v>220</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H189" s="22"/>
       <c r="I189" s="29"/>
@@ -6278,12 +6279,12 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="163"/>
-      <c r="B190" s="129"/>
-      <c r="C190" s="146"/>
-      <c r="D190" s="129"/>
+      <c r="A190" s="135"/>
+      <c r="B190" s="132"/>
+      <c r="C190" s="156"/>
+      <c r="D190" s="132"/>
       <c r="F190" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H190" s="22"/>
       <c r="I190" s="29"/>
@@ -6291,12 +6292,12 @@
       <c r="K190" s="19"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="163"/>
-      <c r="B191" s="129"/>
-      <c r="C191" s="146"/>
-      <c r="D191" s="129"/>
+      <c r="A191" s="135"/>
+      <c r="B191" s="132"/>
+      <c r="C191" s="156"/>
+      <c r="D191" s="132"/>
       <c r="F191" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H191" s="22"/>
       <c r="I191" s="29"/>
@@ -6304,12 +6305,12 @@
       <c r="K191" s="19"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="163"/>
-      <c r="B192" s="129"/>
-      <c r="C192" s="146"/>
-      <c r="D192" s="129"/>
+      <c r="A192" s="135"/>
+      <c r="B192" s="132"/>
+      <c r="C192" s="156"/>
+      <c r="D192" s="132"/>
       <c r="F192" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H192" s="22"/>
       <c r="I192" s="29"/>
@@ -6317,12 +6318,12 @@
       <c r="K192" s="19"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="163"/>
-      <c r="B193" s="129"/>
-      <c r="C193" s="146"/>
-      <c r="D193" s="129"/>
+      <c r="A193" s="135"/>
+      <c r="B193" s="132"/>
+      <c r="C193" s="156"/>
+      <c r="D193" s="132"/>
       <c r="F193" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H193" s="22"/>
       <c r="I193" s="29"/>
@@ -6330,12 +6331,12 @@
       <c r="K193" s="19"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="163"/>
-      <c r="B194" s="129"/>
-      <c r="C194" s="146"/>
-      <c r="D194" s="129"/>
+      <c r="A194" s="135"/>
+      <c r="B194" s="132"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="132"/>
       <c r="F194" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H194" s="22"/>
       <c r="I194" s="29"/>
@@ -6343,12 +6344,12 @@
       <c r="K194" s="19"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="163"/>
-      <c r="B195" s="129"/>
-      <c r="C195" s="146"/>
-      <c r="D195" s="129"/>
+      <c r="A195" s="135"/>
+      <c r="B195" s="132"/>
+      <c r="C195" s="156"/>
+      <c r="D195" s="132"/>
       <c r="F195" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H195" s="22"/>
       <c r="I195" s="29"/>
@@ -6356,12 +6357,12 @@
       <c r="K195" s="19"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="163"/>
-      <c r="B196" s="129"/>
-      <c r="C196" s="146"/>
-      <c r="D196" s="129"/>
+      <c r="A196" s="135"/>
+      <c r="B196" s="132"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="132"/>
       <c r="F196" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H196" s="22"/>
       <c r="I196" s="29"/>
@@ -6369,12 +6370,12 @@
       <c r="K196" s="19"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="163"/>
-      <c r="B197" s="129"/>
-      <c r="C197" s="146"/>
-      <c r="D197" s="129"/>
+      <c r="A197" s="135"/>
+      <c r="B197" s="132"/>
+      <c r="C197" s="156"/>
+      <c r="D197" s="132"/>
       <c r="F197" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H197" s="22"/>
       <c r="I197" s="29"/>
@@ -6382,12 +6383,12 @@
       <c r="K197" s="19"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="163"/>
-      <c r="B198" s="129"/>
-      <c r="C198" s="146"/>
-      <c r="D198" s="129"/>
+      <c r="A198" s="135"/>
+      <c r="B198" s="132"/>
+      <c r="C198" s="156"/>
+      <c r="D198" s="132"/>
       <c r="F198" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H198" s="22"/>
       <c r="I198" s="29"/>
@@ -6395,12 +6396,12 @@
       <c r="K198" s="19"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="163"/>
-      <c r="B199" s="129"/>
-      <c r="C199" s="146"/>
-      <c r="D199" s="129"/>
+      <c r="A199" s="135"/>
+      <c r="B199" s="132"/>
+      <c r="C199" s="156"/>
+      <c r="D199" s="132"/>
       <c r="F199" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H199" s="22"/>
       <c r="I199" s="29"/>
@@ -6408,12 +6409,12 @@
       <c r="K199" s="19"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="163"/>
-      <c r="B200" s="129"/>
-      <c r="C200" s="146"/>
-      <c r="D200" s="129"/>
+      <c r="A200" s="135"/>
+      <c r="B200" s="132"/>
+      <c r="C200" s="156"/>
+      <c r="D200" s="132"/>
       <c r="F200" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H200" s="22"/>
       <c r="I200" s="29"/>
@@ -6421,12 +6422,12 @@
       <c r="K200" s="19"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="163"/>
-      <c r="B201" s="129"/>
-      <c r="C201" s="146"/>
-      <c r="D201" s="129"/>
+      <c r="A201" s="135"/>
+      <c r="B201" s="132"/>
+      <c r="C201" s="156"/>
+      <c r="D201" s="132"/>
       <c r="F201" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H201" s="22"/>
       <c r="I201" s="29"/>
@@ -6434,12 +6435,12 @@
       <c r="K201" s="19"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="163"/>
-      <c r="B202" s="129"/>
-      <c r="C202" s="146"/>
-      <c r="D202" s="129"/>
+      <c r="A202" s="135"/>
+      <c r="B202" s="132"/>
+      <c r="C202" s="156"/>
+      <c r="D202" s="132"/>
       <c r="F202" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" s="29"/>
@@ -6447,12 +6448,12 @@
       <c r="K202" s="19"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="163"/>
-      <c r="B203" s="129"/>
-      <c r="C203" s="146"/>
-      <c r="D203" s="129"/>
+      <c r="A203" s="135"/>
+      <c r="B203" s="132"/>
+      <c r="C203" s="156"/>
+      <c r="D203" s="132"/>
       <c r="F203" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H203" s="22"/>
       <c r="I203" s="29"/>
@@ -6460,12 +6461,12 @@
       <c r="K203" s="19"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="163"/>
-      <c r="B204" s="129"/>
-      <c r="C204" s="146"/>
-      <c r="D204" s="129"/>
+      <c r="A204" s="135"/>
+      <c r="B204" s="132"/>
+      <c r="C204" s="156"/>
+      <c r="D204" s="132"/>
       <c r="F204" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H204" s="22"/>
       <c r="I204" s="29"/>
@@ -6473,12 +6474,12 @@
       <c r="K204" s="19"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="163"/>
-      <c r="B205" s="129"/>
-      <c r="C205" s="147"/>
-      <c r="D205" s="130"/>
+      <c r="A205" s="135"/>
+      <c r="B205" s="132"/>
+      <c r="C205" s="157"/>
+      <c r="D205" s="133"/>
       <c r="F205" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H205" s="22"/>
       <c r="I205" s="29"/>
@@ -6486,16 +6487,16 @@
       <c r="K205" s="19"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="163"/>
-      <c r="B206" s="129"/>
-      <c r="C206" s="140" t="s">
-        <v>228</v>
-      </c>
-      <c r="D206" s="128" t="s">
-        <v>228</v>
+      <c r="A206" s="135"/>
+      <c r="B206" s="132"/>
+      <c r="C206" s="150" t="s">
+        <v>227</v>
+      </c>
+      <c r="D206" s="131" t="s">
+        <v>227</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H206" s="22"/>
       <c r="I206" s="29"/>
@@ -6503,12 +6504,12 @@
       <c r="K206" s="19"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="163"/>
-      <c r="B207" s="129"/>
-      <c r="C207" s="141"/>
-      <c r="D207" s="129"/>
+      <c r="A207" s="135"/>
+      <c r="B207" s="132"/>
+      <c r="C207" s="151"/>
+      <c r="D207" s="132"/>
       <c r="F207" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H207" s="22"/>
       <c r="I207" s="29"/>
@@ -6516,12 +6517,12 @@
       <c r="K207" s="19"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="163"/>
-      <c r="B208" s="129"/>
-      <c r="C208" s="141"/>
-      <c r="D208" s="129"/>
+      <c r="A208" s="135"/>
+      <c r="B208" s="132"/>
+      <c r="C208" s="151"/>
+      <c r="D208" s="132"/>
       <c r="F208" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H208" s="22"/>
       <c r="I208" s="21"/>
@@ -6529,12 +6530,12 @@
       <c r="K208" s="19"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="163"/>
-      <c r="B209" s="129"/>
-      <c r="C209" s="141"/>
-      <c r="D209" s="129"/>
+      <c r="A209" s="135"/>
+      <c r="B209" s="132"/>
+      <c r="C209" s="151"/>
+      <c r="D209" s="132"/>
       <c r="F209" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H209" s="22"/>
       <c r="I209" s="21"/>
@@ -6542,12 +6543,12 @@
       <c r="K209" s="19"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="163"/>
-      <c r="B210" s="129"/>
-      <c r="C210" s="141"/>
-      <c r="D210" s="129"/>
+      <c r="A210" s="135"/>
+      <c r="B210" s="132"/>
+      <c r="C210" s="151"/>
+      <c r="D210" s="132"/>
       <c r="F210" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H210" s="22"/>
       <c r="I210" s="21"/>
@@ -6555,12 +6556,12 @@
       <c r="K210" s="19"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="163"/>
-      <c r="B211" s="129"/>
-      <c r="C211" s="141"/>
-      <c r="D211" s="129"/>
+      <c r="A211" s="135"/>
+      <c r="B211" s="132"/>
+      <c r="C211" s="151"/>
+      <c r="D211" s="132"/>
       <c r="F211" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H211" s="22"/>
       <c r="I211" s="21"/>
@@ -6568,12 +6569,12 @@
       <c r="K211" s="19"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="163"/>
-      <c r="B212" s="129"/>
-      <c r="C212" s="141"/>
-      <c r="D212" s="129"/>
+      <c r="A212" s="135"/>
+      <c r="B212" s="132"/>
+      <c r="C212" s="151"/>
+      <c r="D212" s="132"/>
       <c r="F212" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H212" s="22"/>
       <c r="I212" s="21"/>
@@ -6581,12 +6582,12 @@
       <c r="K212" s="19"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="163"/>
-      <c r="B213" s="129"/>
-      <c r="C213" s="141"/>
-      <c r="D213" s="129"/>
+      <c r="A213" s="135"/>
+      <c r="B213" s="132"/>
+      <c r="C213" s="151"/>
+      <c r="D213" s="132"/>
       <c r="F213" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H213" s="22"/>
       <c r="I213" s="21"/>
@@ -6594,12 +6595,12 @@
       <c r="K213" s="19"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="163"/>
-      <c r="B214" s="129"/>
-      <c r="C214" s="141"/>
-      <c r="D214" s="129"/>
+      <c r="A214" s="135"/>
+      <c r="B214" s="132"/>
+      <c r="C214" s="151"/>
+      <c r="D214" s="132"/>
       <c r="F214" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H214" s="22"/>
       <c r="I214" s="21"/>
@@ -6607,12 +6608,12 @@
       <c r="K214" s="19"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="163"/>
-      <c r="B215" s="129"/>
-      <c r="C215" s="141"/>
-      <c r="D215" s="129"/>
+      <c r="A215" s="135"/>
+      <c r="B215" s="132"/>
+      <c r="C215" s="151"/>
+      <c r="D215" s="132"/>
       <c r="F215" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H215" s="22"/>
       <c r="I215" s="21"/>
@@ -6620,12 +6621,12 @@
       <c r="K215" s="19"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="163"/>
-      <c r="B216" s="129"/>
-      <c r="C216" s="141"/>
-      <c r="D216" s="129"/>
+      <c r="A216" s="135"/>
+      <c r="B216" s="132"/>
+      <c r="C216" s="151"/>
+      <c r="D216" s="132"/>
       <c r="F216" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H216" s="22"/>
       <c r="I216" s="21"/>
@@ -6633,12 +6634,12 @@
       <c r="K216" s="19"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="163"/>
-      <c r="B217" s="129"/>
-      <c r="C217" s="141"/>
-      <c r="D217" s="129"/>
+      <c r="A217" s="135"/>
+      <c r="B217" s="132"/>
+      <c r="C217" s="151"/>
+      <c r="D217" s="132"/>
       <c r="F217" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H217" s="22"/>
       <c r="I217" s="21"/>
@@ -6646,12 +6647,12 @@
       <c r="K217" s="19"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="163"/>
-      <c r="B218" s="129"/>
-      <c r="C218" s="141"/>
-      <c r="D218" s="129"/>
+      <c r="A218" s="135"/>
+      <c r="B218" s="132"/>
+      <c r="C218" s="151"/>
+      <c r="D218" s="132"/>
       <c r="F218" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H218" s="22"/>
       <c r="I218" s="21"/>
@@ -6659,12 +6660,12 @@
       <c r="K218" s="19"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="163"/>
-      <c r="B219" s="129"/>
-      <c r="C219" s="141"/>
-      <c r="D219" s="129"/>
+      <c r="A219" s="135"/>
+      <c r="B219" s="132"/>
+      <c r="C219" s="151"/>
+      <c r="D219" s="132"/>
       <c r="F219" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H219" s="22"/>
       <c r="I219" s="21"/>
@@ -6672,12 +6673,12 @@
       <c r="K219" s="19"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="163"/>
-      <c r="B220" s="129"/>
-      <c r="C220" s="141"/>
-      <c r="D220" s="129"/>
+      <c r="A220" s="135"/>
+      <c r="B220" s="132"/>
+      <c r="C220" s="151"/>
+      <c r="D220" s="132"/>
       <c r="F220" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H220" s="22"/>
       <c r="I220" s="21"/>
@@ -6685,12 +6686,12 @@
       <c r="K220" s="19"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="163"/>
-      <c r="B221" s="129"/>
-      <c r="C221" s="141"/>
-      <c r="D221" s="129"/>
+      <c r="A221" s="135"/>
+      <c r="B221" s="132"/>
+      <c r="C221" s="151"/>
+      <c r="D221" s="132"/>
       <c r="F221" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H221" s="22"/>
       <c r="I221" s="21"/>
@@ -6698,12 +6699,12 @@
       <c r="K221" s="19"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="163"/>
-      <c r="B222" s="129"/>
-      <c r="C222" s="141"/>
-      <c r="D222" s="129"/>
+      <c r="A222" s="135"/>
+      <c r="B222" s="132"/>
+      <c r="C222" s="151"/>
+      <c r="D222" s="132"/>
       <c r="F222" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H222" s="22"/>
       <c r="I222" s="21"/>
@@ -6711,12 +6712,12 @@
       <c r="K222" s="19"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="163"/>
-      <c r="B223" s="129"/>
-      <c r="C223" s="141"/>
-      <c r="D223" s="129"/>
+      <c r="A223" s="135"/>
+      <c r="B223" s="132"/>
+      <c r="C223" s="151"/>
+      <c r="D223" s="132"/>
       <c r="F223" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H223" s="22"/>
       <c r="I223" s="21"/>
@@ -6724,12 +6725,12 @@
       <c r="K223" s="19"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="163"/>
-      <c r="B224" s="129"/>
-      <c r="C224" s="141"/>
-      <c r="D224" s="129"/>
+      <c r="A224" s="135"/>
+      <c r="B224" s="132"/>
+      <c r="C224" s="151"/>
+      <c r="D224" s="132"/>
       <c r="F224" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H224" s="22"/>
       <c r="I224" s="21"/>
@@ -6737,12 +6738,12 @@
       <c r="K224" s="19"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="163"/>
-      <c r="B225" s="129"/>
-      <c r="C225" s="141"/>
-      <c r="D225" s="129"/>
+      <c r="A225" s="135"/>
+      <c r="B225" s="132"/>
+      <c r="C225" s="151"/>
+      <c r="D225" s="132"/>
       <c r="F225" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H225" s="22"/>
       <c r="I225" s="21"/>
@@ -6750,12 +6751,12 @@
       <c r="K225" s="19"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="163"/>
-      <c r="B226" s="129"/>
-      <c r="C226" s="142"/>
-      <c r="D226" s="130"/>
+      <c r="A226" s="135"/>
+      <c r="B226" s="132"/>
+      <c r="C226" s="152"/>
+      <c r="D226" s="133"/>
       <c r="F226" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H226" s="22"/>
       <c r="I226" s="21"/>
@@ -6763,11 +6764,11 @@
       <c r="K226" s="19"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="128" t="s">
-        <v>516</v>
+      <c r="A227" s="131" t="s">
+        <v>515</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C227" s="30"/>
       <c r="D227" s="30"/>
@@ -6778,16 +6779,16 @@
       <c r="K227" s="19"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="129"/>
-      <c r="B228" s="128" t="s">
+      <c r="A228" s="132"/>
+      <c r="B228" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="C228" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="C228" s="128" t="s">
+      <c r="D228" s="131"/>
+      <c r="F228" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="D228" s="128"/>
-      <c r="F228" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="H228" s="22"/>
       <c r="I228" s="21"/>
@@ -6795,12 +6796,12 @@
       <c r="K228" s="19"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="129"/>
-      <c r="B229" s="129"/>
-      <c r="C229" s="129"/>
-      <c r="D229" s="129"/>
+      <c r="A229" s="132"/>
+      <c r="B229" s="132"/>
+      <c r="C229" s="132"/>
+      <c r="D229" s="132"/>
       <c r="F229" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H229" s="22"/>
       <c r="I229" s="21"/>
@@ -6808,12 +6809,12 @@
       <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="129"/>
-      <c r="B230" s="129"/>
-      <c r="C230" s="129"/>
-      <c r="D230" s="129"/>
+      <c r="A230" s="132"/>
+      <c r="B230" s="132"/>
+      <c r="C230" s="132"/>
+      <c r="D230" s="132"/>
       <c r="F230" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H230" s="22"/>
       <c r="I230" s="21"/>
@@ -6821,12 +6822,12 @@
       <c r="K230" s="19"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="129"/>
-      <c r="B231" s="129"/>
-      <c r="C231" s="129"/>
-      <c r="D231" s="129"/>
+      <c r="A231" s="132"/>
+      <c r="B231" s="132"/>
+      <c r="C231" s="132"/>
+      <c r="D231" s="132"/>
       <c r="F231" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H231" s="38"/>
       <c r="I231" s="39"/>
@@ -6834,12 +6835,12 @@
       <c r="K231" s="40"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="129"/>
-      <c r="B232" s="129"/>
-      <c r="C232" s="129"/>
-      <c r="D232" s="129"/>
+      <c r="A232" s="132"/>
+      <c r="B232" s="132"/>
+      <c r="C232" s="132"/>
+      <c r="D232" s="132"/>
       <c r="F232" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H232" s="38"/>
       <c r="I232" s="39"/>
@@ -6847,12 +6848,12 @@
       <c r="K232" s="40"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="129"/>
-      <c r="B233" s="129"/>
-      <c r="C233" s="129"/>
-      <c r="D233" s="129"/>
+      <c r="A233" s="132"/>
+      <c r="B233" s="132"/>
+      <c r="C233" s="132"/>
+      <c r="D233" s="132"/>
       <c r="F233" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H233" s="38"/>
       <c r="I233" s="39"/>
@@ -6860,12 +6861,12 @@
       <c r="K233" s="40"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="129"/>
-      <c r="B234" s="129"/>
-      <c r="C234" s="129"/>
-      <c r="D234" s="129"/>
+      <c r="A234" s="132"/>
+      <c r="B234" s="132"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="132"/>
       <c r="F234" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H234" s="38"/>
       <c r="I234" s="39"/>
@@ -6873,12 +6874,12 @@
       <c r="K234" s="40"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="129"/>
-      <c r="B235" s="129"/>
-      <c r="C235" s="129"/>
-      <c r="D235" s="129"/>
+      <c r="A235" s="132"/>
+      <c r="B235" s="132"/>
+      <c r="C235" s="132"/>
+      <c r="D235" s="132"/>
       <c r="F235" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H235" s="38"/>
       <c r="I235" s="39"/>
@@ -6886,12 +6887,12 @@
       <c r="K235" s="40"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="129"/>
-      <c r="B236" s="129"/>
-      <c r="C236" s="129"/>
-      <c r="D236" s="129"/>
+      <c r="A236" s="132"/>
+      <c r="B236" s="132"/>
+      <c r="C236" s="132"/>
+      <c r="D236" s="132"/>
       <c r="F236" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H236" s="38"/>
       <c r="I236" s="39"/>
@@ -6899,12 +6900,12 @@
       <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="129"/>
-      <c r="B237" s="129"/>
-      <c r="C237" s="130"/>
-      <c r="D237" s="130"/>
+      <c r="A237" s="132"/>
+      <c r="B237" s="132"/>
+      <c r="C237" s="133"/>
+      <c r="D237" s="133"/>
       <c r="F237" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H237" s="38"/>
       <c r="I237" s="39"/>
@@ -6912,10 +6913,10 @@
       <c r="K237" s="40"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="129"/>
-      <c r="B238" s="129"/>
+      <c r="A238" s="132"/>
+      <c r="B238" s="132"/>
       <c r="C238" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D238" s="41"/>
       <c r="F238" s="37"/>
@@ -6925,29 +6926,29 @@
       <c r="K238" s="40"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="129"/>
-      <c r="B239" s="129"/>
-      <c r="C239" s="122" t="s">
+      <c r="A239" s="132"/>
+      <c r="B239" s="132"/>
+      <c r="C239" s="158" t="s">
+        <v>251</v>
+      </c>
+      <c r="D239" s="158"/>
+      <c r="F239" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="D239" s="122"/>
-      <c r="F239" s="37" t="s">
-        <v>253</v>
-      </c>
       <c r="H239" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I239" s="39"/>
       <c r="J239" s="39"/>
       <c r="K239" s="40"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="129"/>
-      <c r="B240" s="129"/>
-      <c r="C240" s="123"/>
-      <c r="D240" s="123"/>
+      <c r="A240" s="132"/>
+      <c r="B240" s="132"/>
+      <c r="C240" s="159"/>
+      <c r="D240" s="159"/>
       <c r="F240" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H240" s="38"/>
       <c r="I240" s="39"/>
@@ -6955,27 +6956,27 @@
       <c r="K240" s="40"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="129"/>
-      <c r="B241" s="129"/>
-      <c r="C241" s="123"/>
-      <c r="D241" s="123"/>
+      <c r="A241" s="132"/>
+      <c r="B241" s="132"/>
+      <c r="C241" s="159"/>
+      <c r="D241" s="159"/>
       <c r="F241" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H241" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I241" s="39"/>
       <c r="J241" s="39"/>
       <c r="K241" s="40"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="129"/>
-      <c r="B242" s="129"/>
-      <c r="C242" s="123"/>
-      <c r="D242" s="123"/>
+      <c r="A242" s="132"/>
+      <c r="B242" s="132"/>
+      <c r="C242" s="159"/>
+      <c r="D242" s="159"/>
       <c r="F242" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H242" s="38"/>
       <c r="I242" s="39"/>
@@ -6983,27 +6984,27 @@
       <c r="K242" s="40"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="129"/>
-      <c r="B243" s="129"/>
-      <c r="C243" s="123"/>
-      <c r="D243" s="123"/>
+      <c r="A243" s="132"/>
+      <c r="B243" s="132"/>
+      <c r="C243" s="159"/>
+      <c r="D243" s="159"/>
       <c r="F243" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H243" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I243" s="39"/>
       <c r="J243" s="39"/>
       <c r="K243" s="40"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="129"/>
-      <c r="B244" s="129"/>
-      <c r="C244" s="123"/>
-      <c r="D244" s="123"/>
+      <c r="A244" s="132"/>
+      <c r="B244" s="132"/>
+      <c r="C244" s="159"/>
+      <c r="D244" s="159"/>
       <c r="F244" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H244" s="38"/>
       <c r="I244" s="39"/>
@@ -7011,27 +7012,27 @@
       <c r="K244" s="40"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="129"/>
-      <c r="B245" s="129"/>
-      <c r="C245" s="123"/>
-      <c r="D245" s="123"/>
+      <c r="A245" s="132"/>
+      <c r="B245" s="132"/>
+      <c r="C245" s="159"/>
+      <c r="D245" s="159"/>
       <c r="F245" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H245" s="38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I245" s="39"/>
       <c r="J245" s="39"/>
       <c r="K245" s="40"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="129"/>
-      <c r="B246" s="129"/>
-      <c r="C246" s="123"/>
-      <c r="D246" s="123"/>
+      <c r="A246" s="132"/>
+      <c r="B246" s="132"/>
+      <c r="C246" s="159"/>
+      <c r="D246" s="159"/>
       <c r="F246" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H246" s="38"/>
       <c r="I246" s="39"/>
@@ -7039,61 +7040,61 @@
       <c r="K246" s="40"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="129"/>
-      <c r="B247" s="129"/>
-      <c r="C247" s="123"/>
-      <c r="D247" s="123"/>
+      <c r="A247" s="132"/>
+      <c r="B247" s="132"/>
+      <c r="C247" s="159"/>
+      <c r="D247" s="159"/>
       <c r="F247" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H247" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I247" s="39"/>
       <c r="J247" s="39"/>
       <c r="K247" s="40"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="129"/>
-      <c r="B248" s="129"/>
-      <c r="C248" s="123"/>
-      <c r="D248" s="123"/>
+      <c r="A248" s="132"/>
+      <c r="B248" s="132"/>
+      <c r="C248" s="159"/>
+      <c r="D248" s="159"/>
       <c r="F248" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H248" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I248" s="39"/>
       <c r="J248" s="39"/>
       <c r="K248" s="40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="132"/>
+      <c r="B249" s="132"/>
+      <c r="C249" s="160"/>
+      <c r="D249" s="160"/>
+      <c r="F249" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="H249" s="38" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="129"/>
-      <c r="B249" s="129"/>
-      <c r="C249" s="124"/>
-      <c r="D249" s="124"/>
-      <c r="F249" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H249" s="38" t="s">
-        <v>261</v>
       </c>
       <c r="I249" s="39"/>
       <c r="J249" s="39"/>
       <c r="K249" s="40"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="129"/>
-      <c r="B250" s="129"/>
-      <c r="C250" s="125" t="s">
-        <v>262</v>
-      </c>
-      <c r="D250" s="125"/>
+      <c r="A250" s="132"/>
+      <c r="B250" s="132"/>
+      <c r="C250" s="161" t="s">
+        <v>261</v>
+      </c>
+      <c r="D250" s="161"/>
       <c r="F250" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H250" s="38"/>
       <c r="I250" s="39"/>
@@ -7101,121 +7102,121 @@
       <c r="K250" s="40"/>
     </row>
     <row r="251" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="129"/>
-      <c r="B251" s="129"/>
-      <c r="C251" s="126"/>
-      <c r="D251" s="126"/>
+      <c r="A251" s="132"/>
+      <c r="B251" s="132"/>
+      <c r="C251" s="162"/>
+      <c r="D251" s="162"/>
       <c r="F251" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H251" s="38" t="s">
         <v>263</v>
-      </c>
-      <c r="H251" s="38" t="s">
-        <v>264</v>
       </c>
       <c r="I251" s="39"/>
       <c r="J251" s="39"/>
       <c r="K251" s="40"/>
     </row>
     <row r="252" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="129"/>
-      <c r="B252" s="129"/>
-      <c r="C252" s="126"/>
-      <c r="D252" s="126"/>
+      <c r="A252" s="132"/>
+      <c r="B252" s="132"/>
+      <c r="C252" s="162"/>
+      <c r="D252" s="162"/>
       <c r="F252" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H252" s="38" t="s">
         <v>265</v>
-      </c>
-      <c r="H252" s="38" t="s">
-        <v>266</v>
       </c>
       <c r="I252" s="39"/>
       <c r="J252" s="39"/>
       <c r="K252" s="40"/>
     </row>
     <row r="253" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="129"/>
-      <c r="B253" s="129"/>
-      <c r="C253" s="127"/>
-      <c r="D253" s="127"/>
+      <c r="A253" s="132"/>
+      <c r="B253" s="132"/>
+      <c r="C253" s="163"/>
+      <c r="D253" s="163"/>
       <c r="F253" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="H253" s="38" t="s">
         <v>267</v>
-      </c>
-      <c r="H253" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="I253" s="39"/>
       <c r="J253" s="39"/>
       <c r="K253" s="40"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="129"/>
-      <c r="B254" s="129"/>
-      <c r="C254" s="125" t="s">
-        <v>269</v>
-      </c>
-      <c r="D254" s="125"/>
+      <c r="A254" s="132"/>
+      <c r="B254" s="132"/>
+      <c r="C254" s="161" t="s">
+        <v>268</v>
+      </c>
+      <c r="D254" s="161"/>
       <c r="F254" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H254" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I254" s="39"/>
       <c r="J254" s="39"/>
       <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="129"/>
-      <c r="B255" s="129"/>
-      <c r="C255" s="126"/>
-      <c r="D255" s="126"/>
+      <c r="A255" s="132"/>
+      <c r="B255" s="132"/>
+      <c r="C255" s="162"/>
+      <c r="D255" s="162"/>
       <c r="F255" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H255" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I255" s="39"/>
       <c r="J255" s="39"/>
       <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="129"/>
-      <c r="B256" s="129"/>
-      <c r="C256" s="126"/>
-      <c r="D256" s="126"/>
+      <c r="A256" s="132"/>
+      <c r="B256" s="132"/>
+      <c r="C256" s="162"/>
+      <c r="D256" s="162"/>
       <c r="F256" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H256" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I256" s="39"/>
       <c r="J256" s="39"/>
       <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="129"/>
-      <c r="B257" s="129"/>
-      <c r="C257" s="127"/>
-      <c r="D257" s="127"/>
+      <c r="A257" s="132"/>
+      <c r="B257" s="132"/>
+      <c r="C257" s="163"/>
+      <c r="D257" s="163"/>
       <c r="F257" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H257" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I257" s="39"/>
       <c r="J257" s="39"/>
       <c r="K257" s="40"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="129"/>
-      <c r="B258" s="129"/>
-      <c r="C258" s="143" t="s">
+      <c r="A258" s="132"/>
+      <c r="B258" s="132"/>
+      <c r="C258" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="D258" s="158"/>
+      <c r="F258" s="37" t="s">
         <v>273</v>
-      </c>
-      <c r="D258" s="122"/>
-      <c r="F258" s="37" t="s">
-        <v>274</v>
       </c>
       <c r="H258" s="38"/>
       <c r="I258" s="39"/>
@@ -7223,78 +7224,78 @@
       <c r="K258" s="40"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="129"/>
-      <c r="B259" s="129"/>
-      <c r="C259" s="144"/>
-      <c r="D259" s="124"/>
+      <c r="A259" s="132"/>
+      <c r="B259" s="132"/>
+      <c r="C259" s="154"/>
+      <c r="D259" s="160"/>
       <c r="F259" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H259" s="38" t="s">
         <v>275</v>
-      </c>
-      <c r="H259" s="38" t="s">
-        <v>276</v>
       </c>
       <c r="I259" s="39"/>
       <c r="J259" s="39"/>
       <c r="K259" s="40"/>
     </row>
     <row r="260" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A260" s="129"/>
-      <c r="B260" s="129"/>
+      <c r="A260" s="132"/>
+      <c r="B260" s="132"/>
       <c r="C260" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D260" s="44"/>
       <c r="F260" s="37"/>
       <c r="H260" s="38"/>
       <c r="I260" s="39"/>
       <c r="J260" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K260" s="40"/>
+    </row>
+    <row r="261" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A261" s="132"/>
+      <c r="B261" s="132"/>
+      <c r="C261" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="K260" s="40"/>
-    </row>
-    <row r="261" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A261" s="129"/>
-      <c r="B261" s="129"/>
-      <c r="C261" s="45" t="s">
-        <v>279</v>
       </c>
       <c r="D261" s="46"/>
       <c r="F261" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H261" s="38" t="s">
         <v>280</v>
-      </c>
-      <c r="H261" s="38" t="s">
-        <v>281</v>
       </c>
       <c r="I261" s="39"/>
       <c r="J261" s="39"/>
       <c r="K261" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A262" s="132"/>
+      <c r="B262" s="132"/>
+      <c r="C262" s="47" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A262" s="129"/>
-      <c r="B262" s="129"/>
-      <c r="C262" s="47" t="s">
-        <v>283</v>
       </c>
       <c r="D262" s="48"/>
       <c r="F262" s="37"/>
       <c r="H262" s="38"/>
       <c r="I262" s="39"/>
       <c r="J262" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K262" s="40"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="129"/>
-      <c r="B263" s="129"/>
+      <c r="A263" s="132"/>
+      <c r="B263" s="132"/>
       <c r="C263" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D263" s="41"/>
       <c r="F263" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H263" s="38"/>
       <c r="I263" s="39"/>
@@ -7302,27 +7303,27 @@
       <c r="K263" s="40"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="129"/>
-      <c r="B264" s="129"/>
+      <c r="A264" s="132"/>
+      <c r="B264" s="132"/>
       <c r="C264" s="41"/>
       <c r="D264" s="41"/>
       <c r="F264" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H264" s="38" t="s">
         <v>286</v>
-      </c>
-      <c r="H264" s="38" t="s">
-        <v>287</v>
       </c>
       <c r="I264" s="39"/>
       <c r="J264" s="39"/>
       <c r="K264" s="40"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="129"/>
-      <c r="B265" s="129"/>
+      <c r="A265" s="132"/>
+      <c r="B265" s="132"/>
       <c r="C265" s="41"/>
       <c r="D265" s="41"/>
       <c r="F265" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H265" s="38"/>
       <c r="I265" s="39"/>
@@ -7330,14 +7331,14 @@
       <c r="K265" s="40"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="129"/>
-      <c r="B266" s="129"/>
+      <c r="A266" s="132"/>
+      <c r="B266" s="132"/>
       <c r="C266" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D266" s="41"/>
       <c r="F266" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H266" s="38"/>
       <c r="I266" s="39"/>
@@ -7345,27 +7346,27 @@
       <c r="K266" s="40"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="129"/>
-      <c r="B267" s="129"/>
+      <c r="A267" s="132"/>
+      <c r="B267" s="132"/>
       <c r="C267" s="41"/>
       <c r="D267" s="41"/>
       <c r="F267" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H267" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="H267" s="38" t="s">
-        <v>292</v>
       </c>
       <c r="I267" s="39"/>
       <c r="J267" s="39"/>
       <c r="K267" s="40"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="129"/>
-      <c r="B268" s="129"/>
+      <c r="A268" s="132"/>
+      <c r="B268" s="132"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
       <c r="F268" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H268" s="38"/>
       <c r="I268" s="39"/>
@@ -7373,10 +7374,10 @@
       <c r="K268" s="40"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="129"/>
-      <c r="B269" s="129"/>
+      <c r="A269" s="132"/>
+      <c r="B269" s="132"/>
       <c r="C269" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D269" s="41"/>
       <c r="F269" s="37"/>
@@ -7386,10 +7387,10 @@
       <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="129"/>
-      <c r="B270" s="130"/>
+      <c r="A270" s="132"/>
+      <c r="B270" s="133"/>
       <c r="C270" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D270" s="41"/>
       <c r="F270" s="37"/>
@@ -7399,9 +7400,9 @@
       <c r="K270" s="40"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="130"/>
+      <c r="A271" s="133"/>
       <c r="B271" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C271" s="41"/>
       <c r="D271" s="41"/>
@@ -7413,13 +7414,52 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D239:D249"/>
+    <mergeCell ref="D250:D253"/>
+    <mergeCell ref="D254:D257"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="D158:D188"/>
+    <mergeCell ref="D189:D205"/>
+    <mergeCell ref="D206:D226"/>
+    <mergeCell ref="D228:D237"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C142:C157"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="C158:C188"/>
+    <mergeCell ref="C189:C205"/>
+    <mergeCell ref="C206:C226"/>
+    <mergeCell ref="C239:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="C228:C237"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C59:C63"/>
     <mergeCell ref="A227:A271"/>
     <mergeCell ref="B2:B28"/>
     <mergeCell ref="B29:B34"/>
@@ -7436,52 +7476,13 @@
     <mergeCell ref="A29:A53"/>
     <mergeCell ref="A54:A141"/>
     <mergeCell ref="A142:A226"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C142:C157"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="C158:C188"/>
-    <mergeCell ref="C189:C205"/>
-    <mergeCell ref="C206:C226"/>
-    <mergeCell ref="C239:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="C228:C237"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="D239:D249"/>
-    <mergeCell ref="D250:D253"/>
-    <mergeCell ref="D254:D257"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="D158:D188"/>
-    <mergeCell ref="D189:D205"/>
-    <mergeCell ref="D206:D226"/>
-    <mergeCell ref="D228:D237"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7494,7 +7495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="G40" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="C41" sqref="C41:C44"/>
     </sheetView>
   </sheetViews>
@@ -7515,702 +7516,702 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="G2" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="H2" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="I2" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="65" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="167" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="215" t="s">
+      <c r="C3" s="177" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="D3" s="172" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="190" t="s">
+      <c r="E3" s="194" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="F3" s="172" t="s">
         <v>308</v>
       </c>
-      <c r="F3" s="190" t="s">
+      <c r="G3" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="H3" s="209" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="I3" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="167"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="167"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="166" t="s">
-        <v>310</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="215"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="69" t="s">
+      <c r="H5" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="215"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>520</v>
-      </c>
-      <c r="H5" s="71" t="s">
+      <c r="J5" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="I5" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="J5" s="71" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="167"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="215"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="73" t="s">
+      <c r="F6" s="69" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>320</v>
       </c>
       <c r="G6" s="69"/>
       <c r="H6" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="I6" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="J6" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="167"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="69" t="s">
         <v>322</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="215"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="69" t="s">
-        <v>323</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G7" s="69"/>
       <c r="H7" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="167"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="173" t="s">
         <v>325</v>
       </c>
-      <c r="I7" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="215"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="188" t="s">
+      <c r="E8" s="177" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="192" t="s">
+      <c r="F8" s="173" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="G8" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="H8" s="211" t="s">
         <v>329</v>
       </c>
-      <c r="H8" s="168" t="s">
+      <c r="I8" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="J8" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="167"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="J8" s="71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="215"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="71" t="s">
+      <c r="J9" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="167"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="173" t="s">
         <v>332</v>
       </c>
-      <c r="J9" s="71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="215"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="188" t="s">
+      <c r="E10" s="177" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="173" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="192" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" s="188" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="168" t="s">
+      <c r="I10" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="167"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="167"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="172" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="215"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="71" t="s">
-        <v>332</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="215"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="190" t="s">
+      <c r="E12" s="194" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="206" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="170" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="189" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="209" t="s">
         <v>336</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="166" t="s">
+      <c r="I12" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="J12" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="167"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="J12" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="215"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="73" t="s">
+      <c r="J13" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="167"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="172" t="s">
         <v>339</v>
       </c>
-      <c r="J13" s="69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="215"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="190" t="s">
+      <c r="E14" s="194" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="172" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="170" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" s="190" t="s">
+      <c r="G14" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="H14" s="209" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="166" t="s">
+      <c r="I14" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="167"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="I14" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="215"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="69" t="s">
+      <c r="J15" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="167"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="206" t="s">
         <v>344</v>
       </c>
-      <c r="J15" s="69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="215"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="189" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="194" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="170" t="s">
+      <c r="I16" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="J16" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="167"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="J16" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="215"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="76" t="s">
+      <c r="H17" s="196"/>
+      <c r="I17" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="167"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="H17" s="171"/>
-      <c r="I17" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="215"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="76" t="s">
+      <c r="H18" s="196"/>
+      <c r="I18" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="H18" s="171"/>
-      <c r="I18" s="69" t="s">
+      <c r="J18" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="167"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="J18" s="69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="215"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="69" t="s">
+      <c r="J19" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="J19" s="69" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="167"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="69" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="215"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="69" t="s">
+      <c r="J20" s="69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="J20" s="69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="216" t="s">
+      <c r="C21" s="180" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="194" t="s">
+      <c r="D21" s="164" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="E21" s="164" t="s">
         <v>356</v>
       </c>
-      <c r="E21" s="181" t="s">
+      <c r="F21" s="164" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="181" t="s">
+      <c r="G21" s="164"/>
+      <c r="H21" s="197" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="181"/>
-      <c r="H21" s="173" t="s">
+      <c r="I21" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="J21" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="168"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="J21" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="216"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="77" t="s">
+      <c r="J22" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="168"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="J22" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="216"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="77" t="s">
+      <c r="J23" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="168"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="J23" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="216"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="77" t="s">
+      <c r="J24" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="168"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="164" t="s">
         <v>363</v>
       </c>
-      <c r="J24" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="216"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="181" t="s">
+      <c r="E25" s="197" t="s">
         <v>364</v>
       </c>
-      <c r="E25" s="173" t="s">
+      <c r="F25" s="205" t="s">
         <v>365</v>
       </c>
-      <c r="F25" s="186" t="s">
+      <c r="G25" s="78"/>
+      <c r="H25" s="197" t="s">
         <v>366</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="173" t="s">
+      <c r="I25" s="77" t="s">
         <v>367</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="J25" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="168"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="168"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="J25" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="216"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="77" t="s">
-        <v>361</v>
-      </c>
-      <c r="J26" s="77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="216"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="77" t="s">
+      <c r="J27" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="168"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="164" t="s">
         <v>369</v>
       </c>
-      <c r="J27" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="216"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="181" t="s">
+      <c r="E28" s="197" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="164" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="173" t="s">
-        <v>365</v>
-      </c>
-      <c r="F28" s="181" t="s">
+      <c r="G28" s="81"/>
+      <c r="H28" s="213" t="s">
         <v>371</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="176" t="s">
+      <c r="I28" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="J28" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="168"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="J28" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="216"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="77" t="s">
+      <c r="J29" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="168"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="77" t="s">
         <v>374</v>
       </c>
-      <c r="J29" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="216"/>
-      <c r="C30" s="203"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="77" t="s">
+      <c r="J30" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="168"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="J30" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="216"/>
-      <c r="C31" s="203"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="77" t="s">
+      <c r="J31" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="168"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="J31" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="216"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="77" t="s">
+      <c r="J32" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B33" s="168"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="J32" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="216"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="77" t="s">
+      <c r="J33" s="77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B34" s="168"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="J33" s="77" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="216"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="84" t="s">
+      <c r="E34" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F34" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="F34" s="84" t="s">
+      <c r="G34" s="84" t="s">
         <v>380</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="H34" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="I34" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="I34" s="84" t="s">
+      <c r="J34" s="84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B35" s="168"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="J34" s="84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="216"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="187" t="s">
+      <c r="E35" s="180" t="s">
         <v>384</v>
       </c>
-      <c r="E35" s="194" t="s">
+      <c r="F35" s="171" t="s">
         <v>385</v>
       </c>
-      <c r="F35" s="187" t="s">
+      <c r="G35" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="H35" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="H35" s="179" t="s">
+      <c r="I35" s="84" t="s">
         <v>388</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="J35" s="84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B36" s="168"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="J35" s="84" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="216"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="83" t="s">
+      <c r="H36" s="217"/>
+      <c r="I36" s="84" t="s">
         <v>390</v>
       </c>
-      <c r="H36" s="180"/>
-      <c r="I36" s="84" t="s">
-        <v>391</v>
-      </c>
       <c r="J36" s="84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="86"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="203"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="181"/>
       <c r="D37" s="84" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E37" s="85"/>
       <c r="F37" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="H37" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="I37" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="I37" s="84" t="s">
-        <v>396</v>
-      </c>
       <c r="J37" s="84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K37" s="86"/>
       <c r="L37" s="86"/>
@@ -8230,28 +8231,28 @@
     </row>
     <row r="38" spans="1:25" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="86"/>
-      <c r="B38" s="217"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="181" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="181" t="s">
-        <v>365</v>
-      </c>
-      <c r="F38" s="181" t="s">
+      <c r="B38" s="169"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="164" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="164" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" s="164" t="s">
+        <v>396</v>
+      </c>
+      <c r="G38" s="164" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="164" t="s">
+        <v>517</v>
+      </c>
+      <c r="I38" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G38" s="181" t="s">
-        <v>517</v>
-      </c>
-      <c r="H38" s="181" t="s">
-        <v>518</v>
-      </c>
-      <c r="I38" s="84" t="s">
-        <v>398</v>
-      </c>
       <c r="J38" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
@@ -8271,18 +8272,18 @@
     </row>
     <row r="39" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86"/>
-      <c r="B39" s="217"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
       <c r="I39" s="84" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J39" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K39" s="86"/>
       <c r="L39" s="86"/>
@@ -8302,18 +8303,18 @@
     </row>
     <row r="40" spans="1:25" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="86"/>
-      <c r="B40" s="217"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
       <c r="I40" s="84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K40" s="86"/>
       <c r="L40" s="86"/>
@@ -8332,32 +8333,32 @@
       <c r="Y40" s="86"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="218" t="s">
+      <c r="B41" s="170" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="184" t="s">
         <v>401</v>
       </c>
-      <c r="C41" s="206" t="s">
+      <c r="D41" s="174" t="s">
         <v>402</v>
       </c>
-      <c r="D41" s="219" t="s">
+      <c r="E41" s="201" t="s">
         <v>403</v>
       </c>
-      <c r="E41" s="196" t="s">
+      <c r="F41" s="207" t="s">
         <v>404</v>
       </c>
-      <c r="F41" s="164" t="s">
+      <c r="G41" s="165" t="s">
         <v>405</v>
       </c>
-      <c r="G41" s="182" t="s">
+      <c r="H41" s="165" t="s">
         <v>406</v>
       </c>
-      <c r="H41" s="182" t="s">
+      <c r="I41" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="I41" s="89" t="s">
-        <v>408</v>
-      </c>
       <c r="J41" s="89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K41" s="86"/>
       <c r="L41" s="86"/>
@@ -8376,18 +8377,18 @@
       <c r="Y41" s="86"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="218"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
       <c r="I42" s="89" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J42" s="89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
@@ -8406,278 +8407,325 @@
       <c r="Y42" s="86"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="218"/>
-      <c r="C43" s="207"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="185"/>
       <c r="D43" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="E43" s="91" t="s">
         <v>410</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="F43" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="F43" s="90" t="s">
+      <c r="G43" s="89" t="s">
+        <v>520</v>
+      </c>
+      <c r="H43" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="89" t="s">
-        <v>521</v>
-      </c>
-      <c r="H43" s="90" t="s">
+      <c r="I43" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="90" t="s">
+      <c r="J43" s="90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="170"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="J43" s="90" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="218"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="89" t="s">
+      <c r="E44" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="F44" s="92" t="s">
         <v>415</v>
       </c>
-      <c r="E44" s="92" t="s">
-        <v>505</v>
-      </c>
-      <c r="F44" s="92" t="s">
+      <c r="G44" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="G44" s="92" t="s">
+      <c r="H44" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="H44" s="89" t="s">
+      <c r="I44" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="J44" s="90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B45" s="175" t="s">
         <v>419</v>
       </c>
-      <c r="J44" s="90" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="200" t="s">
+      <c r="C45" s="187" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="209" t="s">
+      <c r="D45" s="93" t="s">
         <v>421</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="E45" s="94" t="s">
         <v>422</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="F45" s="93" t="s">
         <v>423</v>
       </c>
-      <c r="F45" s="93" t="s">
+      <c r="G45" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="H45" s="93" t="s">
         <v>425</v>
       </c>
-      <c r="H45" s="93" t="s">
+      <c r="I45" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="I45" s="93" t="s">
+      <c r="J45" s="93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B46" s="175"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="93" t="s">
         <v>427</v>
       </c>
-      <c r="J45" s="93" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="200"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="93" t="s">
+      <c r="E46" s="94" t="s">
         <v>428</v>
       </c>
-      <c r="E46" s="94" t="s">
+      <c r="F46" s="93" t="s">
         <v>429</v>
-      </c>
-      <c r="F46" s="93" t="s">
-        <v>430</v>
       </c>
       <c r="G46" s="95"/>
       <c r="H46" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B47" s="175"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="193" t="s">
         <v>431</v>
       </c>
-      <c r="I46" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" s="93" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="200"/>
-      <c r="C47" s="210"/>
-      <c r="D47" s="191" t="s">
+      <c r="E47" s="203" t="s">
+        <v>422</v>
+      </c>
+      <c r="F47" s="208" t="s">
         <v>432</v>
       </c>
-      <c r="E47" s="198" t="s">
-        <v>423</v>
-      </c>
-      <c r="F47" s="165" t="s">
+      <c r="G47" s="96" t="s">
         <v>433</v>
       </c>
-      <c r="G47" s="96" t="s">
+      <c r="H47" s="218" t="s">
         <v>434</v>
       </c>
-      <c r="H47" s="184" t="s">
+      <c r="I47" s="93" t="s">
         <v>435</v>
       </c>
-      <c r="I47" s="93" t="s">
+      <c r="J47" s="93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B48" s="175"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="208"/>
+      <c r="G48" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="J47" s="93" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="200"/>
-      <c r="C48" s="211"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="199"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="97" t="s">
+      <c r="H48" s="219"/>
+      <c r="I48" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="H48" s="185"/>
-      <c r="I48" s="93" t="s">
+      <c r="J48" s="93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="176" t="s">
         <v>438</v>
       </c>
-      <c r="J48" s="93" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="201" t="s">
+      <c r="C49" s="190" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="212" t="s">
+      <c r="D49" s="98" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="98" t="s">
+      <c r="E49" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="E49" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" s="98" t="s">
+      <c r="G49" s="100" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="100" t="s">
+      <c r="H49" s="98" t="s">
         <v>443</v>
       </c>
-      <c r="H49" s="98" t="s">
+      <c r="I49" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="I49" s="98" t="s">
+      <c r="J49" s="98" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="176"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="J49" s="98" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="201"/>
-      <c r="C50" s="213"/>
-      <c r="D50" s="98" t="s">
+      <c r="E50" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" s="98" t="s">
         <v>446</v>
       </c>
-      <c r="E50" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F50" s="98" t="s">
+      <c r="G50" s="100" t="s">
         <v>447</v>
       </c>
-      <c r="G50" s="100" t="s">
+      <c r="H50" s="98" t="s">
         <v>448</v>
       </c>
-      <c r="H50" s="98" t="s">
+      <c r="I50" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="I50" s="98" t="s">
+      <c r="J50" s="98" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="176"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="98" t="s">
         <v>450</v>
       </c>
-      <c r="J50" s="98" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="201"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="98" t="s">
+      <c r="E51" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" s="98" t="s">
         <v>451</v>
-      </c>
-      <c r="E51" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" s="98" t="s">
-        <v>452</v>
       </c>
       <c r="G51" s="100"/>
       <c r="H51" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="I51" s="98" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" s="98" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="176"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="98" t="s">
         <v>453</v>
       </c>
-      <c r="I51" s="98" t="s">
-        <v>452</v>
-      </c>
-      <c r="J51" s="98" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="201"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="98" t="s">
+      <c r="E52" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="E52" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F52" s="98" t="s">
+      <c r="G52" s="100" t="s">
+        <v>447</v>
+      </c>
+      <c r="H52" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="G52" s="100" t="s">
-        <v>448</v>
-      </c>
-      <c r="H52" s="98" t="s">
+      <c r="I52" s="98" t="s">
         <v>456</v>
       </c>
-      <c r="I52" s="98" t="s">
+      <c r="J52" s="98" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="176"/>
+      <c r="C53" s="192"/>
+      <c r="D53" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="99" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="J52" s="98" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="201"/>
-      <c r="C53" s="214"/>
-      <c r="D53" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F53" s="98" t="s">
+      <c r="G53" s="100" t="s">
         <v>458</v>
       </c>
-      <c r="G53" s="100" t="s">
-        <v>459</v>
-      </c>
       <c r="H53" s="98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I53" s="98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J53" s="98" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G21:G24"/>
@@ -8694,53 +8742,6 @@
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8772,698 +8773,698 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="220" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="227" t="s">
+      <c r="C3" s="221" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="D3" s="226" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="229" t="s">
+      <c r="E3" s="227" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="230" t="s">
+      <c r="F3" s="226" t="s">
         <v>308</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="224" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="220" t="s">
+      <c r="I3" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="J3" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="J3" s="54" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="220"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="54" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="227"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="54" t="s">
+      <c r="J4" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="220"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="227"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>315</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>316</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="I5" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="J5" s="56" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="220"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="227"/>
-      <c r="C6" s="228"/>
-      <c r="D6" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="F6" s="54" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>320</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="I6" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="J6" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="220"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="54" t="s">
         <v>322</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="227"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="54" t="s">
-        <v>323</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="220"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="229" t="s">
         <v>325</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="227"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="222" t="s">
+      <c r="E8" s="221" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="F8" s="229" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="222" t="s">
+      <c r="G8" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="H8" s="230" t="s">
         <v>329</v>
       </c>
-      <c r="H8" s="225" t="s">
+      <c r="I8" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="J8" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="220"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="231"/>
+      <c r="I9" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="J8" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="227"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="56" t="s">
+      <c r="J9" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="220"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="229" t="s">
         <v>332</v>
       </c>
-      <c r="J9" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="227"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="222" t="s">
+      <c r="E10" s="221" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="229" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="230" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="223" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" s="222" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="225" t="s">
+      <c r="I10" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="220"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="220"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="226" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="229" t="s">
+      <c r="E12" s="227" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="232" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="230" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="233" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="224" t="s">
         <v>336</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="220" t="s">
+      <c r="I12" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="J12" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="220"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="J12" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="58" t="s">
+      <c r="J13" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="220"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="226" t="s">
         <v>339</v>
       </c>
-      <c r="J13" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229" t="s">
+      <c r="E14" s="227" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="226" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="230" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" s="229" t="s">
+      <c r="G14" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="H14" s="224" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="220" t="s">
+      <c r="I14" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="220"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="227"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="54" t="s">
+      <c r="J15" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="220"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="232" t="s">
         <v>344</v>
       </c>
-      <c r="J15" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="227"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="233" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="227" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="230" t="s">
+      <c r="I16" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="J16" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="220"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="J16" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="227"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="61" t="s">
+      <c r="H17" s="234"/>
+      <c r="I17" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="220"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="H17" s="232"/>
-      <c r="I17" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="227"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="61" t="s">
+      <c r="H18" s="234"/>
+      <c r="I18" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="H18" s="232"/>
-      <c r="I18" s="54" t="s">
+      <c r="J18" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="220"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="J18" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="227"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="54" t="s">
+      <c r="J19" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="J19" s="54" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="220"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="54" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="227"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="54" t="s">
+      <c r="J20" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="233" t="s">
         <v>353</v>
       </c>
-      <c r="J20" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="235" t="s">
+      <c r="C21" s="221" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="223" t="s">
+      <c r="D21" s="226" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="229" t="s">
+      <c r="E21" s="226" t="s">
         <v>356</v>
       </c>
-      <c r="E21" s="229" t="s">
+      <c r="F21" s="226" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="229" t="s">
+      <c r="G21" s="226"/>
+      <c r="H21" s="227" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="229"/>
-      <c r="H21" s="230" t="s">
+      <c r="I21" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="J21" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="233"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="J21" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="235"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="229"/>
-      <c r="H22" s="232"/>
-      <c r="I22" s="54" t="s">
+      <c r="J22" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="233"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="234"/>
+      <c r="I23" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="J22" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="235"/>
-      <c r="C23" s="228"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="232"/>
-      <c r="I23" s="54" t="s">
+      <c r="J23" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="233"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="J23" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="235"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="229"/>
-      <c r="H24" s="231"/>
-      <c r="I24" s="54" t="s">
+      <c r="J24" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="233"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="226" t="s">
         <v>363</v>
       </c>
-      <c r="J24" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="235"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="229" t="s">
+      <c r="E25" s="227" t="s">
         <v>364</v>
       </c>
-      <c r="E25" s="230" t="s">
+      <c r="F25" s="232" t="s">
         <v>365</v>
       </c>
-      <c r="F25" s="233" t="s">
+      <c r="G25" s="59"/>
+      <c r="H25" s="227" t="s">
         <v>366</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="230" t="s">
+      <c r="I25" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="J25" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="233"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="233"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="J25" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="235"/>
-      <c r="C26" s="228"/>
-      <c r="D26" s="229"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="235"/>
-      <c r="C27" s="228"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="233"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="54" t="s">
+      <c r="J27" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="233"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="226" t="s">
         <v>369</v>
       </c>
-      <c r="J27" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="235"/>
-      <c r="C28" s="228"/>
-      <c r="D28" s="229" t="s">
+      <c r="E28" s="227" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="226" t="s">
         <v>370</v>
       </c>
-      <c r="E28" s="230" t="s">
-        <v>365</v>
-      </c>
-      <c r="F28" s="229" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="224" t="s">
         <v>371</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="220" t="s">
+      <c r="I28" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="J28" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="233"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="J28" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="235"/>
-      <c r="C29" s="228"/>
-      <c r="D29" s="229"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="54" t="s">
+      <c r="J29" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="233"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="J29" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="235"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="229"/>
-      <c r="E30" s="232"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="54" t="s">
+      <c r="J30" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="233"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="J30" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="235"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="232"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="54" t="s">
+      <c r="J31" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="233"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="J31" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="235"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="229"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="54" t="s">
+      <c r="J32" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B33" s="233"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="225"/>
+      <c r="I33" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="J32" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="235"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="229"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="54" t="s">
+      <c r="J33" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B34" s="233"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="56" t="s">
         <v>378</v>
       </c>
-      <c r="J33" s="54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="235"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="56" t="s">
+      <c r="E34" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="F34" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="F34" s="56" t="s">
+      <c r="G34" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="H34" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="I34" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="J34" s="56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B35" s="233"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="229" t="s">
         <v>383</v>
       </c>
-      <c r="J34" s="56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="235"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="222" t="s">
+      <c r="E35" s="221" t="s">
         <v>384</v>
       </c>
-      <c r="E35" s="223" t="s">
+      <c r="F35" s="229" t="s">
         <v>385</v>
       </c>
-      <c r="F35" s="222" t="s">
+      <c r="G35" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="H35" s="230" t="s">
         <v>387</v>
       </c>
-      <c r="H35" s="225" t="s">
+      <c r="I35" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="J35" s="56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B36" s="233"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="229"/>
+      <c r="G36" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="J35" s="56" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="235"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="55" t="s">
+      <c r="H36" s="231"/>
+      <c r="I36" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="H36" s="226"/>
-      <c r="I36" s="56" t="s">
-        <v>391</v>
-      </c>
       <c r="J36" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
-      <c r="B37" s="235"/>
-      <c r="C37" s="228"/>
+      <c r="B37" s="233"/>
+      <c r="C37" s="222"/>
       <c r="D37" s="56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="H37" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="I37" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="I37" s="56" t="s">
-        <v>396</v>
-      </c>
       <c r="J37" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
@@ -9483,28 +9484,28 @@
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
-      <c r="B38" s="235"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="229" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="229" t="s">
-        <v>365</v>
-      </c>
-      <c r="F38" s="229" t="s">
+      <c r="B38" s="233"/>
+      <c r="C38" s="222"/>
+      <c r="D38" s="226" t="s">
+        <v>339</v>
+      </c>
+      <c r="E38" s="226" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" s="226" t="s">
+        <v>396</v>
+      </c>
+      <c r="G38" s="226" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="226" t="s">
+        <v>517</v>
+      </c>
+      <c r="I38" s="56" t="s">
         <v>397</v>
       </c>
-      <c r="G38" s="229" t="s">
-        <v>517</v>
-      </c>
-      <c r="H38" s="229" t="s">
-        <v>518</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>398</v>
-      </c>
       <c r="J38" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
@@ -9524,18 +9525,18 @@
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
-      <c r="B39" s="235"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="229"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="229"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="226"/>
+      <c r="F39" s="226"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="226"/>
       <c r="I39" s="56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J39" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
@@ -9555,18 +9556,18 @@
     </row>
     <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
-      <c r="B40" s="235"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="229"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="229"/>
-      <c r="G40" s="229"/>
-      <c r="H40" s="229"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
       <c r="I40" s="56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
@@ -9585,32 +9586,32 @@
       <c r="Y40" s="52"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="227" t="s">
+      <c r="B41" s="220" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="221" t="s">
         <v>401</v>
       </c>
-      <c r="C41" s="223" t="s">
+      <c r="D41" s="226" t="s">
         <v>402</v>
       </c>
-      <c r="D41" s="229" t="s">
+      <c r="E41" s="227" t="s">
         <v>403</v>
       </c>
-      <c r="E41" s="230" t="s">
+      <c r="F41" s="232" t="s">
         <v>404</v>
       </c>
-      <c r="F41" s="233" t="s">
+      <c r="G41" s="224" t="s">
         <v>405</v>
       </c>
-      <c r="G41" s="220" t="s">
+      <c r="H41" s="224" t="s">
         <v>406</v>
       </c>
-      <c r="H41" s="220" t="s">
+      <c r="I41" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>408</v>
-      </c>
       <c r="J41" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="52"/>
@@ -9629,18 +9630,18 @@
       <c r="Y41" s="52"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="227"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="231"/>
-      <c r="F42" s="233"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="221"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="232"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
       <c r="I42" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J42" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
@@ -9659,276 +9660,324 @@
       <c r="Y42" s="52"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="227"/>
-      <c r="C43" s="228"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="222"/>
       <c r="D43" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="E43" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="F43" s="56" t="s">
         <v>411</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>412</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="I43" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="J43" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="220"/>
+      <c r="C44" s="223"/>
+      <c r="D44" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="J43" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="227"/>
-      <c r="C44" s="224"/>
-      <c r="D44" s="54" t="s">
+      <c r="E44" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="F44" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="E44" s="58" t="s">
-        <v>505</v>
-      </c>
-      <c r="F44" s="58" t="s">
+      <c r="G44" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="H44" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="I44" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="54" t="s">
+      <c r="J44" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B45" s="220" t="s">
         <v>419</v>
       </c>
-      <c r="J44" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="227" t="s">
+      <c r="C45" s="221" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="223" t="s">
+      <c r="D45" s="56" t="s">
         <v>421</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="E45" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="F45" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="G45" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="H45" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="H45" s="56" t="s">
+      <c r="I45" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="I45" s="56" t="s">
+      <c r="J45" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B46" s="220"/>
+      <c r="C46" s="222"/>
+      <c r="D46" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="J45" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="227"/>
-      <c r="C46" s="228"/>
-      <c r="D46" s="56" t="s">
+      <c r="E46" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="F46" s="56" t="s">
         <v>429</v>
-      </c>
-      <c r="F46" s="56" t="s">
-        <v>430</v>
       </c>
       <c r="G46" s="54"/>
       <c r="H46" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="I46" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B47" s="220"/>
+      <c r="C47" s="222"/>
+      <c r="D47" s="226" t="s">
         <v>431</v>
       </c>
-      <c r="I46" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="J46" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="227"/>
-      <c r="C47" s="228"/>
-      <c r="D47" s="229" t="s">
+      <c r="E47" s="227" t="s">
+        <v>422</v>
+      </c>
+      <c r="F47" s="229" t="s">
         <v>432</v>
       </c>
-      <c r="E47" s="230" t="s">
-        <v>423</v>
-      </c>
-      <c r="F47" s="222" t="s">
+      <c r="G47" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="G47" s="53" t="s">
+      <c r="H47" s="230" t="s">
         <v>434</v>
       </c>
-      <c r="H47" s="225" t="s">
+      <c r="I47" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="I47" s="56" t="s">
+      <c r="J47" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B48" s="220"/>
+      <c r="C48" s="223"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="229"/>
+      <c r="G48" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="J47" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="227"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="229"/>
-      <c r="E48" s="231"/>
-      <c r="F48" s="222"/>
-      <c r="G48" s="55" t="s">
+      <c r="H48" s="231"/>
+      <c r="I48" s="56" t="s">
         <v>437</v>
       </c>
-      <c r="H48" s="226"/>
-      <c r="I48" s="56" t="s">
+      <c r="J48" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="220" t="s">
         <v>438</v>
       </c>
-      <c r="J48" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="227" t="s">
+      <c r="C49" s="221" t="s">
         <v>439</v>
       </c>
-      <c r="C49" s="223" t="s">
+      <c r="D49" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="56" t="s">
+      <c r="E49" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="E49" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" s="56" t="s">
+      <c r="G49" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="H49" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="I49" s="56" t="s">
         <v>444</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="J49" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="220"/>
+      <c r="C50" s="222"/>
+      <c r="D50" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="J49" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="227"/>
-      <c r="C50" s="228"/>
-      <c r="D50" s="56" t="s">
+      <c r="E50" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="E50" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F50" s="56" t="s">
+      <c r="G50" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="G50" s="54" t="s">
+      <c r="H50" s="56" t="s">
         <v>448</v>
       </c>
-      <c r="H50" s="56" t="s">
+      <c r="I50" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="I50" s="56" t="s">
+      <c r="J50" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="220"/>
+      <c r="C51" s="222"/>
+      <c r="D51" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="J50" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="227"/>
-      <c r="C51" s="228"/>
-      <c r="D51" s="56" t="s">
+      <c r="E51" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" s="56" t="s">
         <v>451</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>452</v>
       </c>
       <c r="G51" s="54"/>
       <c r="H51" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="220"/>
+      <c r="C52" s="222"/>
+      <c r="D52" s="56" t="s">
         <v>453</v>
       </c>
-      <c r="I51" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="J51" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="227"/>
-      <c r="C52" s="228"/>
-      <c r="D52" s="56" t="s">
+      <c r="E52" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="E52" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F52" s="56" t="s">
+      <c r="G52" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="H52" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="G52" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="H52" s="56" t="s">
+      <c r="I52" s="56" t="s">
         <v>456</v>
       </c>
-      <c r="I52" s="56" t="s">
+      <c r="J52" s="56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="220"/>
+      <c r="C53" s="223"/>
+      <c r="D53" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="J52" s="56" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="227"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F53" s="56" t="s">
+      <c r="G53" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="G53" s="54" t="s">
-        <v>459</v>
-      </c>
       <c r="H53" s="56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J53" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="H41:H42"/>
@@ -9944,54 +9993,6 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
